--- a/cartola_junio_2025.xlsx
+++ b/cartola_junio_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manager8\comunes\importacion\api_cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690F23CD-7BD4-48AC-9669-CF350BC21E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D1605-C525-4A0D-80C9-65B4F1817F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0B3DEB9-4C62-4D57-84BC-B1B8A40A9B47}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CARTOLA!$A$1:$L$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CARTOLA!$A$1:$L$302</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1111,12 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1126,6 +1120,18 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1134,12 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,10 +1727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3EDA2-BB1F-4DFF-9F34-B004576D5196}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,10 +2381,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2399,23 +2400,23 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2427,21 +2428,21 @@
       <c r="G2" s="6">
         <v>2278533</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="16">
         <v>0</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2453,21 +2454,21 @@
       <c r="G3" s="6">
         <v>43999</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>-2278533</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2479,21 +2480,21 @@
       <c r="G4" s="6">
         <v>1426479</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>-2322532</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2505,21 +2506,21 @@
       <c r="G5" s="6">
         <v>141993</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>-3749011</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2531,21 +2532,21 @@
       <c r="G6" s="6">
         <v>28120</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>-3891004</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2557,21 +2558,21 @@
       <c r="G7" s="6">
         <v>130937</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>-3919124</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2583,21 +2584,21 @@
         <v>297500</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>-4050061</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2609,21 +2610,21 @@
       <c r="G9" s="6">
         <v>105541</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>-3752561</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2635,21 +2636,21 @@
         <v>5477608</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <v>-3858102</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2661,21 +2662,21 @@
       <c r="G11" s="6">
         <v>181489</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <v>1619506</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -2687,21 +2688,21 @@
       <c r="G12" s="6">
         <v>79399</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <v>1438017</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
@@ -2713,21 +2714,21 @@
         <v>8042</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>1358618</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2739,21 +2740,21 @@
         <v>79004</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <v>1366660</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2765,21 +2766,21 @@
       <c r="G15" s="6">
         <v>141753</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>1445664</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2791,21 +2792,21 @@
         <v>12932402</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>1303911</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2817,21 +2818,21 @@
         <v>400054</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>14236313</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2843,21 +2844,21 @@
         <v>143439</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>14636367</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2869,21 +2870,21 @@
       <c r="G19" s="6">
         <v>18327</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>14779806</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2895,21 +2896,21 @@
       <c r="G20" s="6">
         <v>711982</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <v>14761479</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
@@ -2921,21 +2922,21 @@
       <c r="G21" s="6">
         <v>1783364</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>14049497</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
@@ -2947,21 +2948,21 @@
       <c r="G22" s="6">
         <v>417690</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <v>12266133</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
@@ -2973,21 +2974,21 @@
       <c r="G23" s="6">
         <v>411264</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <v>11848443</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
@@ -2999,21 +3000,21 @@
       <c r="G24" s="6">
         <v>642600</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <v>11437179</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
@@ -3025,21 +3026,21 @@
       <c r="G25" s="6">
         <v>50250</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <v>10794579</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
@@ -3051,21 +3052,21 @@
       <c r="G26" s="6">
         <v>89321</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="16">
         <v>10744329</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
@@ -3077,21 +3078,21 @@
       <c r="G27" s="6">
         <v>59990</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <v>10655008</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
@@ -3103,21 +3104,21 @@
       <c r="G28" s="6">
         <v>16980</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <v>10595018</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3129,21 +3130,21 @@
       <c r="G29" s="6">
         <v>92110</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>10578038</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
@@ -3155,21 +3156,21 @@
       <c r="G30" s="6">
         <v>190000</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="16">
         <v>10485928</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
@@ -3183,21 +3184,21 @@
       <c r="G31" s="6">
         <v>32448</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <v>10295928</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="17"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
@@ -3209,21 +3210,21 @@
       <c r="G32" s="6">
         <v>55950</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <v>10263480</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
@@ -3235,21 +3236,21 @@
       <c r="G33" s="6">
         <v>28579</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <v>10207530</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="3" t="s">
         <v>45</v>
       </c>
@@ -3261,21 +3262,21 @@
       <c r="G34" s="6">
         <v>28660</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="16">
         <v>10178951</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3" t="s">
         <v>45</v>
       </c>
@@ -3287,21 +3288,21 @@
       <c r="G35" s="6">
         <v>37890</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <v>10150291</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
@@ -3313,21 +3314,21 @@
         <v>726681</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="18">
+      <c r="H36" s="16">
         <v>10112401</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
@@ -3339,21 +3340,21 @@
       <c r="G37" s="6">
         <v>106931</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="16">
         <v>10839082</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
       <c r="L37" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="3" t="s">
         <v>30</v>
       </c>
@@ -3365,21 +3366,21 @@
       <c r="G38" s="6">
         <v>467354</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="16">
         <v>10732151</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
@@ -3391,21 +3392,21 @@
       <c r="G39" s="6">
         <v>162097</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="16">
         <v>10264797</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="3" t="s">
         <v>48</v>
       </c>
@@ -3417,21 +3418,21 @@
         <v>1804820</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="18">
+      <c r="H40" s="16">
         <v>10102700</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="3" t="s">
         <v>49</v>
       </c>
@@ -3443,21 +3444,21 @@
       <c r="G41" s="6">
         <v>13781349</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="16">
         <v>11907520</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
       <c r="L41" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="3" t="s">
         <v>50</v>
       </c>
@@ -3469,21 +3470,21 @@
       <c r="G42" s="6">
         <v>183261</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="16">
         <v>-1873829</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="20"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
       <c r="L42" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="3" t="s">
         <v>51</v>
       </c>
@@ -3495,21 +3496,21 @@
       <c r="G43" s="6">
         <v>600000</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="16">
         <v>-2057090</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
       <c r="L43" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="3" t="s">
         <v>52</v>
       </c>
@@ -3521,21 +3522,21 @@
         <v>1945650</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="18">
+      <c r="H44" s="16">
         <v>-2657090</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18"/>
       <c r="L44" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="3" t="s">
         <v>53</v>
       </c>
@@ -3547,21 +3548,21 @@
       <c r="G45" s="6">
         <v>44566</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="16">
         <v>-711440</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="20"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18"/>
       <c r="L45" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="3" t="s">
         <v>54</v>
       </c>
@@ -3573,21 +3574,21 @@
         <v>1139053</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="18">
+      <c r="H46" s="16">
         <v>-756006</v>
       </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="20"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="3" t="s">
         <v>55</v>
       </c>
@@ -3599,21 +3600,21 @@
       <c r="G47" s="6">
         <v>111930</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="16">
         <v>383047</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="20"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="18"/>
       <c r="L47" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="3" t="s">
         <v>56</v>
       </c>
@@ -3625,21 +3626,21 @@
       <c r="G48" s="6">
         <v>128825</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="16">
         <v>271117</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18"/>
       <c r="L48" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
@@ -3651,21 +3652,21 @@
       <c r="G49" s="6">
         <v>76312</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="16">
         <v>142292</v>
       </c>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="20"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="3" t="s">
         <v>30</v>
       </c>
@@ -3677,21 +3678,21 @@
       <c r="G50" s="6">
         <v>40401</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="16">
         <v>65980</v>
       </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="20"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="3" t="s">
         <v>57</v>
       </c>
@@ -3703,21 +3704,21 @@
       <c r="G51" s="6">
         <v>25579</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="16">
         <v>25579</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="20"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="18"/>
       <c r="L51" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="17"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,21 +3730,21 @@
       <c r="G52" s="6">
         <v>1501948</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="16">
         <v>0</v>
       </c>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="18"/>
       <c r="L52" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="3" t="s">
         <v>59</v>
       </c>
@@ -3755,21 +3756,21 @@
         <v>1499233</v>
       </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="18">
+      <c r="H53" s="16">
         <v>-1501948</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="17"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>60</v>
       </c>
@@ -3781,21 +3782,21 @@
         <v>58665</v>
       </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="18">
+      <c r="H54" s="16">
         <v>-2715</v>
       </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="18"/>
       <c r="L54" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="3" t="s">
         <v>61</v>
       </c>
@@ -3807,21 +3808,21 @@
       <c r="G55" s="6">
         <v>55950</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="16">
         <v>55950</v>
       </c>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="20"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="18"/>
       <c r="L55" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="17"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="3" t="s">
         <v>48</v>
       </c>
@@ -3833,21 +3834,21 @@
         <v>1190699</v>
       </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="18">
+      <c r="H56" s="16">
         <v>0</v>
       </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="20"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="18"/>
       <c r="L56" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="17"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="3" t="s">
         <v>63</v>
       </c>
@@ -3859,21 +3860,21 @@
       <c r="G57" s="6">
         <v>107029</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="16">
         <v>1190699</v>
       </c>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="20"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="18"/>
       <c r="L57" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="17"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="3" t="s">
         <v>17</v>
       </c>
@@ -3885,21 +3886,21 @@
       <c r="G58" s="6">
         <v>274494</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="16">
         <v>1083670</v>
       </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="18"/>
       <c r="L58" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="17"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="3" t="s">
         <v>64</v>
       </c>
@@ -3911,21 +3912,21 @@
       <c r="G59" s="6">
         <v>91772</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="16">
         <v>809176</v>
       </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="20"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18"/>
       <c r="L59" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="17"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="3" t="s">
         <v>65</v>
       </c>
@@ -3937,21 +3938,21 @@
       <c r="G60" s="6">
         <v>22868</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="16">
         <v>717404</v>
       </c>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18"/>
       <c r="L60" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="3" t="s">
         <v>66</v>
       </c>
@@ -3963,21 +3964,21 @@
       <c r="G61" s="6">
         <v>89250</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="16">
         <v>694536</v>
       </c>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="20"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="18"/>
       <c r="L61" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="17"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="3" t="s">
         <v>67</v>
       </c>
@@ -3989,21 +3990,21 @@
       <c r="G62" s="6">
         <v>44993</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="16">
         <v>605286</v>
       </c>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="18"/>
       <c r="L62" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="17"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>68</v>
       </c>
@@ -4015,21 +4016,21 @@
       <c r="G63" s="6">
         <v>402432</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="16">
         <v>560293</v>
       </c>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="20"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18"/>
       <c r="L63" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="3" t="s">
         <v>69</v>
       </c>
@@ -4041,21 +4042,21 @@
       <c r="G64" s="6">
         <v>70141</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="16">
         <v>157861</v>
       </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="20"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="18"/>
       <c r="L64" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="3" t="s">
         <v>8</v>
       </c>
@@ -4067,21 +4068,21 @@
       <c r="G65" s="6">
         <v>1493571</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="16">
         <v>87720</v>
       </c>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="20"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="18"/>
       <c r="L65" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+    <row r="66" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="17"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="3" t="s">
         <v>41</v>
       </c>
@@ -4095,21 +4096,21 @@
       <c r="G66" s="6">
         <v>87720</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="16">
         <v>-1405851</v>
       </c>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="20"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="18"/>
       <c r="L66" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="17"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="3" t="s">
         <v>73</v>
       </c>
@@ -4121,21 +4122,21 @@
       <c r="G67" s="6">
         <v>202300</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="16">
         <v>-1493571</v>
       </c>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="20"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="18"/>
       <c r="L67" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="17"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="3" t="s">
         <v>74</v>
       </c>
@@ -4147,21 +4148,21 @@
       <c r="G68" s="6">
         <v>35981</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="16">
         <v>-1695871</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="20"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="18"/>
       <c r="L68" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+    <row r="69" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="17"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>75</v>
       </c>
@@ -4173,21 +4174,21 @@
         <v>5181639</v>
       </c>
       <c r="G69" s="6"/>
-      <c r="H69" s="18">
+      <c r="H69" s="16">
         <v>-1731852</v>
       </c>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="20"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="18"/>
       <c r="L69" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+    <row r="70" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="17"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="3" t="s">
         <v>17</v>
       </c>
@@ -4199,21 +4200,21 @@
       <c r="G70" s="6">
         <v>25859</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="16">
         <v>3449787</v>
       </c>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="20"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="18"/>
       <c r="L70" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="17"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="3" t="s">
         <v>76</v>
       </c>
@@ -4225,21 +4226,21 @@
       <c r="G71" s="6">
         <v>72482</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="16">
         <v>3423928</v>
       </c>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="20"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18"/>
       <c r="L71" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="17"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="3" t="s">
         <v>77</v>
       </c>
@@ -4251,21 +4252,21 @@
       <c r="G72" s="6">
         <v>70122</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="16">
         <v>3351446</v>
       </c>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="20"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="18"/>
       <c r="L72" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="17"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3" t="s">
         <v>79</v>
       </c>
@@ -4277,21 +4278,21 @@
       <c r="G73" s="6">
         <v>14330</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="16">
         <v>3281324</v>
       </c>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="20"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="18"/>
       <c r="L73" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="17"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="3" t="s">
         <v>80</v>
       </c>
@@ -4303,21 +4304,21 @@
       <c r="G74" s="6">
         <v>106188</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="16">
         <v>3266994</v>
       </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="20"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18"/>
       <c r="L74" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="17"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="3" t="s">
         <v>81</v>
       </c>
@@ -4331,21 +4332,21 @@
       <c r="G75" s="6">
         <v>36110</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="16">
         <v>3160806</v>
       </c>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="20"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="18"/>
       <c r="L75" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+    <row r="76" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="17"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="3" t="s">
         <v>17</v>
       </c>
@@ -4357,21 +4358,21 @@
       <c r="G76" s="6">
         <v>296780</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="16">
         <v>3124696</v>
       </c>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="20"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="18"/>
       <c r="L76" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+    <row r="77" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="17"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="3" t="s">
         <v>84</v>
       </c>
@@ -4383,21 +4384,21 @@
         <v>21000</v>
       </c>
       <c r="G77" s="6"/>
-      <c r="H77" s="18">
+      <c r="H77" s="16">
         <v>2827916</v>
       </c>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="20"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="18"/>
       <c r="L77" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="17"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="3" t="s">
         <v>39</v>
       </c>
@@ -4409,21 +4410,21 @@
       <c r="G78" s="6">
         <v>190000</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="16">
         <v>2848916</v>
       </c>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="20"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="18"/>
       <c r="L78" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
+    <row r="79" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="17"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="3" t="s">
         <v>86</v>
       </c>
@@ -4435,21 +4436,21 @@
         <v>15389</v>
       </c>
       <c r="G79" s="6"/>
-      <c r="H79" s="18">
+      <c r="H79" s="16">
         <v>2658916</v>
       </c>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="20"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="18"/>
       <c r="L79" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+    <row r="80" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="17"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="3" t="s">
         <v>87</v>
       </c>
@@ -4461,21 +4462,21 @@
       <c r="G80" s="6">
         <v>152388</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80" s="16">
         <v>2674305</v>
       </c>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="20"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="18"/>
       <c r="L80" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
+    <row r="81" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="17"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="3" t="s">
         <v>88</v>
       </c>
@@ -4487,21 +4488,21 @@
       <c r="G81" s="6">
         <v>41746</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81" s="16">
         <v>2521917</v>
       </c>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="20"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="18"/>
       <c r="L81" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="17"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="3" t="s">
         <v>89</v>
       </c>
@@ -4513,21 +4514,21 @@
       <c r="G82" s="6">
         <v>76646</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="16">
         <v>2480171</v>
       </c>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="20"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="18"/>
       <c r="L82" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="17"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>17</v>
       </c>
@@ -4539,21 +4540,21 @@
       <c r="G83" s="6">
         <v>57908</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83" s="16">
         <v>2403525</v>
       </c>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="20"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="18"/>
       <c r="L83" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16" t="s">
+    <row r="84" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="17"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="3" t="s">
         <v>30</v>
       </c>
@@ -4565,21 +4566,21 @@
       <c r="G84" s="6">
         <v>25128</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="16">
         <v>2345617</v>
       </c>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="20"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="18"/>
       <c r="L84" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
+    <row r="85" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="17"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3" t="s">
         <v>90</v>
       </c>
@@ -4591,21 +4592,21 @@
       <c r="G85" s="6">
         <v>16980</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85" s="16">
         <v>2320489</v>
       </c>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="20"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="18"/>
       <c r="L85" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+    <row r="86" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="17"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="3" t="s">
         <v>91</v>
       </c>
@@ -4617,21 +4618,21 @@
       <c r="G86" s="6">
         <v>62839</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="16">
         <v>2303509</v>
       </c>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="20"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="18"/>
       <c r="L86" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
+    <row r="87" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="17"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="3" t="s">
         <v>92</v>
       </c>
@@ -4643,21 +4644,21 @@
       <c r="G87" s="6">
         <v>23949</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="16">
         <v>2240670</v>
       </c>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="20"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="18"/>
       <c r="L87" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+    <row r="88" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="17"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="3" t="s">
         <v>94</v>
       </c>
@@ -4669,21 +4670,21 @@
       <c r="G88" s="6">
         <v>276739</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="16">
         <v>2216721</v>
       </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="20"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="18"/>
       <c r="L88" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+    <row r="89" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="17"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="3" t="s">
         <v>95</v>
       </c>
@@ -4695,21 +4696,21 @@
       <c r="G89" s="6">
         <v>226031</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89" s="16">
         <v>1939982</v>
       </c>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="20"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="18"/>
       <c r="L89" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16" t="s">
+    <row r="90" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="17"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="3" t="s">
         <v>96</v>
       </c>
@@ -4721,21 +4722,21 @@
       <c r="G90" s="6">
         <v>331510</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90" s="16">
         <v>1713951</v>
       </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="20"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="18"/>
       <c r="L90" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
+    <row r="91" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="17"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>17</v>
       </c>
@@ -4747,21 +4748,21 @@
       <c r="G91" s="6">
         <v>511930</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91" s="16">
         <v>1382441</v>
       </c>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="20"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="18"/>
       <c r="L91" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="17"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="3" t="s">
         <v>51</v>
       </c>
@@ -4773,21 +4774,21 @@
       <c r="G92" s="6">
         <v>700000</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="16">
         <v>870511</v>
       </c>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="20"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="18"/>
       <c r="L92" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="17"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="3" t="s">
         <v>97</v>
       </c>
@@ -4799,21 +4800,21 @@
       <c r="G93" s="6">
         <v>89647</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="16">
         <v>170511</v>
       </c>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="20"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="18"/>
       <c r="L93" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
+    <row r="94" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="17"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="3" t="s">
         <v>98</v>
       </c>
@@ -4825,21 +4826,21 @@
         <v>17505</v>
       </c>
       <c r="G94" s="6"/>
-      <c r="H94" s="18">
+      <c r="H94" s="16">
         <v>80864</v>
       </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="20"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="18"/>
       <c r="L94" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
+    <row r="95" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="17"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="3" t="s">
         <v>98</v>
       </c>
@@ -4851,21 +4852,21 @@
         <v>17505</v>
       </c>
       <c r="G95" s="6"/>
-      <c r="H95" s="18">
+      <c r="H95" s="16">
         <v>98369</v>
       </c>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="20"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="18"/>
       <c r="L95" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+    <row r="96" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="17"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="3" t="s">
         <v>99</v>
       </c>
@@ -4877,21 +4878,21 @@
       <c r="G96" s="6">
         <v>52271</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="16">
         <v>115874</v>
       </c>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="20"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="18"/>
       <c r="L96" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
+    <row r="97" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="17"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="3" t="s">
         <v>100</v>
       </c>
@@ -4903,21 +4904,21 @@
       <c r="G97" s="6">
         <v>23351</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97" s="16">
         <v>63603</v>
       </c>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="20"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="18"/>
       <c r="L97" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
+    <row r="98" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="17"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="3" t="s">
         <v>48</v>
       </c>
@@ -4929,21 +4930,21 @@
         <v>3044202</v>
       </c>
       <c r="G98" s="6"/>
-      <c r="H98" s="18">
+      <c r="H98" s="16">
         <v>40252</v>
       </c>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="20"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="18"/>
       <c r="L98" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
+    <row r="99" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="17"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3" t="s">
         <v>102</v>
       </c>
@@ -4955,21 +4956,21 @@
       <c r="G99" s="6">
         <v>46246</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H99" s="16">
         <v>3084454</v>
       </c>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="20"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="18"/>
       <c r="L99" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="16" t="s">
+    <row r="100" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="17"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="3" t="s">
         <v>17</v>
       </c>
@@ -4981,21 +4982,21 @@
       <c r="G100" s="6">
         <v>212707</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100" s="16">
         <v>3038208</v>
       </c>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="20"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="18"/>
       <c r="L100" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16" t="s">
+    <row r="101" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="17"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>103</v>
       </c>
@@ -5007,21 +5008,21 @@
       <c r="G101" s="6">
         <v>565349</v>
       </c>
-      <c r="H101" s="18">
+      <c r="H101" s="16">
         <v>2825501</v>
       </c>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="20"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="18"/>
       <c r="L101" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16" t="s">
+    <row r="102" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="17"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="3" t="s">
         <v>104</v>
       </c>
@@ -5033,21 +5034,21 @@
       <c r="G102" s="6">
         <v>341623</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102" s="16">
         <v>2260152</v>
       </c>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="20"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="18"/>
       <c r="L102" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
+    <row r="103" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="17"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="3" t="s">
         <v>105</v>
       </c>
@@ -5059,21 +5060,21 @@
       <c r="G103" s="6">
         <v>63353</v>
       </c>
-      <c r="H103" s="18">
+      <c r="H103" s="16">
         <v>1918529</v>
       </c>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="20"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="18"/>
       <c r="L103" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="16" t="s">
+    <row r="104" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="17"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="3" t="s">
         <v>106</v>
       </c>
@@ -5085,21 +5086,21 @@
         <v>4509844</v>
       </c>
       <c r="G104" s="6"/>
-      <c r="H104" s="18">
+      <c r="H104" s="16">
         <v>1855176</v>
       </c>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="20"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="18"/>
       <c r="L104" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16" t="s">
+    <row r="105" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="17"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="3" t="s">
         <v>107</v>
       </c>
@@ -5111,21 +5112,21 @@
       <c r="G105" s="6">
         <v>3000000</v>
       </c>
-      <c r="H105" s="18">
+      <c r="H105" s="16">
         <v>6365020</v>
       </c>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="20"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="18"/>
       <c r="L105" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
+    <row r="106" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="17"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="3" t="s">
         <v>30</v>
       </c>
@@ -5137,21 +5138,21 @@
       <c r="G106" s="6">
         <v>1093919</v>
       </c>
-      <c r="H106" s="18">
+      <c r="H106" s="16">
         <v>3365020</v>
       </c>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="20"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="18"/>
       <c r="L106" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16" t="s">
+    <row r="107" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="17"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="3" t="s">
         <v>77</v>
       </c>
@@ -5163,21 +5164,21 @@
       <c r="G107" s="6">
         <v>37973</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H107" s="16">
         <v>2271101</v>
       </c>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="20"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="18"/>
       <c r="L107" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="17"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="3" t="s">
         <v>108</v>
       </c>
@@ -5189,21 +5190,21 @@
       <c r="G108" s="6">
         <v>96558</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H108" s="16">
         <v>2233128</v>
       </c>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="20"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="18"/>
       <c r="L108" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16" t="s">
+    <row r="109" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="17"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="3" t="s">
         <v>109</v>
       </c>
@@ -5215,21 +5216,21 @@
       <c r="G109" s="6">
         <v>30270</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="16">
         <v>2136570</v>
       </c>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="20"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="18"/>
       <c r="L109" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="17"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="3" t="s">
         <v>8</v>
       </c>
@@ -5241,21 +5242,21 @@
       <c r="G110" s="6">
         <v>2885037</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110" s="16">
         <v>2106300</v>
       </c>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="20"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="18"/>
       <c r="L110" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16" t="s">
+    <row r="111" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="17"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3" t="s">
         <v>41</v>
       </c>
@@ -5269,21 +5270,21 @@
       <c r="G111" s="6">
         <v>2106300</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111" s="16">
         <v>-778737</v>
       </c>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="20"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="18"/>
       <c r="L111" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="16" t="s">
+    <row r="112" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="17"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="3" t="s">
         <v>112</v>
       </c>
@@ -5295,21 +5296,21 @@
         <v>1044276</v>
       </c>
       <c r="G112" s="6"/>
-      <c r="H112" s="18">
+      <c r="H112" s="16">
         <v>-2885037</v>
       </c>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="20"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="18"/>
       <c r="L112" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="16" t="s">
+    <row r="113" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="17"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="3" t="s">
         <v>113</v>
       </c>
@@ -5321,21 +5322,21 @@
         <v>5896350</v>
       </c>
       <c r="G113" s="6"/>
-      <c r="H113" s="18">
+      <c r="H113" s="16">
         <v>-1840761</v>
       </c>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="20"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="18"/>
       <c r="L113" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="16" t="s">
+    <row r="114" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="17"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="3" t="s">
         <v>50</v>
       </c>
@@ -5347,21 +5348,21 @@
       <c r="G114" s="6">
         <v>755305</v>
       </c>
-      <c r="H114" s="18">
+      <c r="H114" s="16">
         <v>4055589</v>
       </c>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="20"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="18"/>
       <c r="L114" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16" t="s">
+    <row r="115" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B115" s="17"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="3" t="s">
         <v>107</v>
       </c>
@@ -5373,21 +5374,21 @@
       <c r="G115" s="6">
         <v>3000000</v>
       </c>
-      <c r="H115" s="18">
+      <c r="H115" s="16">
         <v>3300284</v>
       </c>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="20"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="18"/>
       <c r="L115" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="16" t="s">
+    <row r="116" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B116" s="17"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="3" t="s">
         <v>114</v>
       </c>
@@ -5399,21 +5400,21 @@
       <c r="G116" s="6">
         <v>300284</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H116" s="16">
         <v>300284</v>
       </c>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="20"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="18"/>
       <c r="L116" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
+    <row r="117" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="17"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="3" t="s">
         <v>8</v>
       </c>
@@ -5425,21 +5426,21 @@
       <c r="G117" s="6">
         <v>159165</v>
       </c>
-      <c r="H117" s="18">
+      <c r="H117" s="16">
         <v>0</v>
       </c>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="20"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="18"/>
       <c r="L117" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16" t="s">
+    <row r="118" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="17"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="3" t="s">
         <v>45</v>
       </c>
@@ -5451,21 +5452,21 @@
       <c r="G118" s="6">
         <v>37890</v>
       </c>
-      <c r="H118" s="18">
+      <c r="H118" s="16">
         <v>-159165</v>
       </c>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="20"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="18"/>
       <c r="L118" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="16" t="s">
+    <row r="119" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="17"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="3" t="s">
         <v>45</v>
       </c>
@@ -5477,21 +5478,21 @@
       <c r="G119" s="6">
         <v>108053</v>
       </c>
-      <c r="H119" s="18">
+      <c r="H119" s="16">
         <v>-197055</v>
       </c>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="20"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="18"/>
       <c r="L119" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
+    <row r="120" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="17"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="3" t="s">
         <v>81</v>
       </c>
@@ -5505,21 +5506,21 @@
       <c r="G120" s="6">
         <v>32650</v>
       </c>
-      <c r="H120" s="18">
+      <c r="H120" s="16">
         <v>-305108</v>
       </c>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="20"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="18"/>
       <c r="L120" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="16" t="s">
+    <row r="121" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B121" s="17"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="3" t="s">
         <v>19</v>
       </c>
@@ -5531,21 +5532,21 @@
         <v>5019712</v>
       </c>
       <c r="G121" s="6"/>
-      <c r="H121" s="18">
+      <c r="H121" s="16">
         <v>-337758</v>
       </c>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="20"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="18"/>
       <c r="L121" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="16" t="s">
+    <row r="122" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="17"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="3" t="s">
         <v>17</v>
       </c>
@@ -5557,21 +5558,21 @@
       <c r="G122" s="6">
         <v>120325</v>
       </c>
-      <c r="H122" s="18">
+      <c r="H122" s="16">
         <v>4681954</v>
       </c>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="20"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="18"/>
       <c r="L122" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16" t="s">
+    <row r="123" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="17"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="3" t="s">
         <v>118</v>
       </c>
@@ -5583,21 +5584,21 @@
       <c r="G123" s="6">
         <v>90480</v>
       </c>
-      <c r="H123" s="18">
+      <c r="H123" s="16">
         <v>4561629</v>
       </c>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="20"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="18"/>
       <c r="L123" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16" t="s">
+    <row r="124" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="17"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="3" t="s">
         <v>119</v>
       </c>
@@ -5609,21 +5610,21 @@
       <c r="G124" s="6">
         <v>61160</v>
       </c>
-      <c r="H124" s="18">
+      <c r="H124" s="16">
         <v>4471149</v>
       </c>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="20"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="18"/>
       <c r="L124" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="16" t="s">
+    <row r="125" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B125" s="17"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="3" t="s">
         <v>120</v>
       </c>
@@ -5635,21 +5636,21 @@
       <c r="G125" s="6">
         <v>153359</v>
       </c>
-      <c r="H125" s="18">
+      <c r="H125" s="16">
         <v>4409989</v>
       </c>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="20"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="18"/>
       <c r="L125" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="16" t="s">
+    <row r="126" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="17"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="3" t="s">
         <v>121</v>
       </c>
@@ -5661,21 +5662,21 @@
       <c r="G126" s="6">
         <v>19448</v>
       </c>
-      <c r="H126" s="18">
+      <c r="H126" s="16">
         <v>4256630</v>
       </c>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="20"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="18"/>
       <c r="L126" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16" t="s">
+    <row r="127" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="17"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="3" t="s">
         <v>122</v>
       </c>
@@ -5687,21 +5688,21 @@
       <c r="G127" s="6">
         <v>46101</v>
       </c>
-      <c r="H127" s="18">
+      <c r="H127" s="16">
         <v>4237182</v>
       </c>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="20"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="18"/>
       <c r="L127" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B128" s="17"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="3" t="s">
         <v>124</v>
       </c>
@@ -5713,21 +5714,21 @@
       <c r="G128" s="6">
         <v>49980</v>
       </c>
-      <c r="H128" s="18">
+      <c r="H128" s="16">
         <v>4191081</v>
       </c>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="20"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="18"/>
       <c r="L128" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="16" t="s">
+    <row r="129" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="17"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="3" t="s">
         <v>124</v>
       </c>
@@ -5739,21 +5740,21 @@
       <c r="G129" s="6">
         <v>699720</v>
       </c>
-      <c r="H129" s="18">
+      <c r="H129" s="16">
         <v>4141101</v>
       </c>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="20"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="18"/>
       <c r="L129" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="16" t="s">
+    <row r="130" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B130" s="17"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="3" t="s">
         <v>125</v>
       </c>
@@ -5765,21 +5766,21 @@
       <c r="G130" s="6">
         <v>95200</v>
       </c>
-      <c r="H130" s="18">
+      <c r="H130" s="16">
         <v>3441381</v>
       </c>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="20"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="18"/>
       <c r="L130" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="16" t="s">
+    <row r="131" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B131" s="17"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="3" t="s">
         <v>17</v>
       </c>
@@ -5791,21 +5792,21 @@
       <c r="G131" s="6">
         <v>54427</v>
       </c>
-      <c r="H131" s="18">
+      <c r="H131" s="16">
         <v>3346181</v>
       </c>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="20"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="18"/>
       <c r="L131" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="16" t="s">
+    <row r="132" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B132" s="17"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="3" t="s">
         <v>126</v>
       </c>
@@ -5817,21 +5818,21 @@
         <v>17136</v>
       </c>
       <c r="G132" s="6"/>
-      <c r="H132" s="18">
+      <c r="H132" s="16">
         <v>3291754</v>
       </c>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="20"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="18"/>
       <c r="L132" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="16" t="s">
+    <row r="133" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B133" s="17"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3" t="s">
         <v>127</v>
       </c>
@@ -5843,21 +5844,21 @@
       <c r="G133" s="6">
         <v>200826</v>
       </c>
-      <c r="H133" s="18">
+      <c r="H133" s="16">
         <v>3308890</v>
       </c>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="20"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="18"/>
       <c r="L133" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B134" s="17"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="3" t="s">
         <v>39</v>
       </c>
@@ -5869,21 +5870,21 @@
       <c r="G134" s="6">
         <v>190000</v>
       </c>
-      <c r="H134" s="18">
+      <c r="H134" s="16">
         <v>3108064</v>
       </c>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="20"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="18"/>
       <c r="L134" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="16" t="s">
+    <row r="135" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B135" s="17"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>128</v>
       </c>
@@ -5895,21 +5896,21 @@
       <c r="G135" s="6">
         <v>74964</v>
       </c>
-      <c r="H135" s="18">
+      <c r="H135" s="16">
         <v>2918064</v>
       </c>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="20"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="18"/>
       <c r="L135" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="16" t="s">
+    <row r="136" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B136" s="17"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="3" t="s">
         <v>129</v>
       </c>
@@ -5921,21 +5922,21 @@
         <v>339150</v>
       </c>
       <c r="G136" s="6"/>
-      <c r="H136" s="18">
+      <c r="H136" s="16">
         <v>2843100</v>
       </c>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="20"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="18"/>
       <c r="L136" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="16" t="s">
+    <row r="137" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B137" s="17"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="3" t="s">
         <v>131</v>
       </c>
@@ -5947,21 +5948,21 @@
       <c r="G137" s="6">
         <v>90890</v>
       </c>
-      <c r="H137" s="18">
+      <c r="H137" s="16">
         <v>3182250</v>
       </c>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="20"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="18"/>
       <c r="L137" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="16" t="s">
+    <row r="138" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B138" s="17"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="3" t="s">
         <v>17</v>
       </c>
@@ -5973,21 +5974,21 @@
       <c r="G138" s="6">
         <v>47846</v>
       </c>
-      <c r="H138" s="18">
+      <c r="H138" s="16">
         <v>3091360</v>
       </c>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="20"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="18"/>
       <c r="L138" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="16" t="s">
+    <row r="139" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B139" s="17"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="3" t="s">
         <v>132</v>
       </c>
@@ -5999,21 +6000,21 @@
       <c r="G139" s="6">
         <v>12990</v>
       </c>
-      <c r="H139" s="18">
+      <c r="H139" s="16">
         <v>3043514</v>
       </c>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="20"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="18"/>
       <c r="L139" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="16" t="s">
+    <row r="140" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B140" s="17"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="3" t="s">
         <v>133</v>
       </c>
@@ -6025,21 +6026,21 @@
       <c r="G140" s="6">
         <v>39600</v>
       </c>
-      <c r="H140" s="18">
+      <c r="H140" s="16">
         <v>3030524</v>
       </c>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="20"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="18"/>
       <c r="L140" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="16" t="s">
+    <row r="141" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="17"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="3" t="s">
         <v>48</v>
       </c>
@@ -6051,21 +6052,21 @@
         <v>124912</v>
       </c>
       <c r="G141" s="6"/>
-      <c r="H141" s="18">
+      <c r="H141" s="16">
         <v>2990924</v>
       </c>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="20"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="18"/>
       <c r="L141" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="16" t="s">
+    <row r="142" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="17"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="3" t="s">
         <v>135</v>
       </c>
@@ -6077,21 +6078,21 @@
       <c r="G142" s="6">
         <v>212183</v>
       </c>
-      <c r="H142" s="18">
+      <c r="H142" s="16">
         <v>3115836</v>
       </c>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="20"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="18"/>
       <c r="L142" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="16" t="s">
+    <row r="143" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B143" s="17"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>17</v>
       </c>
@@ -6103,21 +6104,21 @@
       <c r="G143" s="6">
         <v>145692</v>
       </c>
-      <c r="H143" s="18">
+      <c r="H143" s="16">
         <v>2903653</v>
       </c>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="20"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="18"/>
       <c r="L143" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="16" t="s">
+    <row r="144" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B144" s="17"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="3" t="s">
         <v>136</v>
       </c>
@@ -6129,21 +6130,21 @@
       <c r="G144" s="6">
         <v>4608822</v>
       </c>
-      <c r="H144" s="18">
+      <c r="H144" s="16">
         <v>2757961</v>
       </c>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="20"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="18"/>
       <c r="L144" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="16" t="s">
+    <row r="145" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B145" s="17"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="3" t="s">
         <v>137</v>
       </c>
@@ -6155,21 +6156,21 @@
       <c r="G145" s="6">
         <v>72626</v>
       </c>
-      <c r="H145" s="18">
+      <c r="H145" s="16">
         <v>-1850861</v>
       </c>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="20"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="18"/>
       <c r="L145" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="16" t="s">
+    <row r="146" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="17"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="3" t="s">
         <v>138</v>
       </c>
@@ -6181,21 +6182,21 @@
         <v>884144</v>
       </c>
       <c r="G146" s="6"/>
-      <c r="H146" s="18">
+      <c r="H146" s="16">
         <v>-1923487</v>
       </c>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="20"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="18"/>
       <c r="L146" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="16" t="s">
+    <row r="147" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B147" s="17"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="3" t="s">
         <v>139</v>
       </c>
@@ -6207,21 +6208,21 @@
       <c r="G147" s="6">
         <v>114271</v>
       </c>
-      <c r="H147" s="18">
+      <c r="H147" s="16">
         <v>-1039343</v>
       </c>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="20"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="18"/>
       <c r="L147" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="16" t="s">
+    <row r="148" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="17"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="3" t="s">
         <v>140</v>
       </c>
@@ -6233,21 +6234,21 @@
         <v>952000</v>
       </c>
       <c r="G148" s="6"/>
-      <c r="H148" s="18">
+      <c r="H148" s="16">
         <v>-1153614</v>
       </c>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="20"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="18"/>
       <c r="L148" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="16" t="s">
+    <row r="149" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="17"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="3" t="s">
         <v>28</v>
       </c>
@@ -6259,21 +6260,21 @@
         <v>132694</v>
       </c>
       <c r="G149" s="6"/>
-      <c r="H149" s="18">
+      <c r="H149" s="16">
         <v>-201614</v>
       </c>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="20"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="18"/>
       <c r="L149" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="16" t="s">
+    <row r="150" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B150" s="17"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="3" t="s">
         <v>141</v>
       </c>
@@ -6285,21 +6286,21 @@
         <v>68920</v>
       </c>
       <c r="G150" s="6"/>
-      <c r="H150" s="18">
+      <c r="H150" s="16">
         <v>-68920</v>
       </c>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="20"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="18"/>
       <c r="L150" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="16" t="s">
+    <row r="151" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B151" s="17"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="3" t="s">
         <v>48</v>
       </c>
@@ -6311,21 +6312,21 @@
         <v>348237</v>
       </c>
       <c r="G151" s="6"/>
-      <c r="H151" s="18">
+      <c r="H151" s="16">
         <v>0</v>
       </c>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="20"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="18"/>
       <c r="L151" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="16" t="s">
+    <row r="152" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="17"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="3" t="s">
         <v>143</v>
       </c>
@@ -6337,21 +6338,21 @@
         <v>7508</v>
       </c>
       <c r="G152" s="6"/>
-      <c r="H152" s="18">
+      <c r="H152" s="16">
         <v>348237</v>
       </c>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="20"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="18"/>
       <c r="L152" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="16" t="s">
+    <row r="153" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B153" s="17"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>143</v>
       </c>
@@ -6363,21 +6364,21 @@
         <v>13430</v>
       </c>
       <c r="G153" s="6"/>
-      <c r="H153" s="18">
+      <c r="H153" s="16">
         <v>355745</v>
       </c>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="20"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="18"/>
       <c r="L153" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="16" t="s">
+    <row r="154" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B154" s="17"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="3" t="s">
         <v>144</v>
       </c>
@@ -6389,21 +6390,21 @@
       <c r="G154" s="6">
         <v>33078</v>
       </c>
-      <c r="H154" s="18">
+      <c r="H154" s="16">
         <v>369175</v>
       </c>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="20"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="18"/>
       <c r="L154" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="16" t="s">
+    <row r="155" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B155" s="17"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="3" t="s">
         <v>17</v>
       </c>
@@ -6415,21 +6416,21 @@
       <c r="G155" s="6">
         <v>163587</v>
       </c>
-      <c r="H155" s="18">
+      <c r="H155" s="16">
         <v>336097</v>
       </c>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="20"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="18"/>
       <c r="L155" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="16" t="s">
+    <row r="156" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B156" s="17"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="3" t="s">
         <v>145</v>
       </c>
@@ -6441,21 +6442,21 @@
       <c r="G156" s="6">
         <v>130298</v>
       </c>
-      <c r="H156" s="18">
+      <c r="H156" s="16">
         <v>172510</v>
       </c>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="20"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="18"/>
       <c r="L156" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="16" t="s">
+    <row r="157" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="17"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="3" t="s">
         <v>146</v>
       </c>
@@ -6467,21 +6468,21 @@
       <c r="G157" s="6">
         <v>42212</v>
       </c>
-      <c r="H157" s="18">
+      <c r="H157" s="16">
         <v>42212</v>
       </c>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="20"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="18"/>
       <c r="L157" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
+    <row r="158" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B158" s="17"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="3" t="s">
         <v>8</v>
       </c>
@@ -6493,21 +6494,21 @@
       <c r="G158" s="6">
         <v>473149</v>
       </c>
-      <c r="H158" s="18">
+      <c r="H158" s="16">
         <v>0</v>
       </c>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="20"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="18"/>
       <c r="L158" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="16" t="s">
+    <row r="159" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B159" s="17"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="3" t="s">
         <v>45</v>
       </c>
@@ -6519,21 +6520,21 @@
       <c r="G159" s="6">
         <v>180218</v>
       </c>
-      <c r="H159" s="18">
+      <c r="H159" s="16">
         <v>-473149</v>
       </c>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="20"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="18"/>
       <c r="L159" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="16" t="s">
+    <row r="160" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B160" s="17"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>17</v>
       </c>
@@ -6545,21 +6546,21 @@
       <c r="G160" s="6">
         <v>96242</v>
       </c>
-      <c r="H160" s="18">
+      <c r="H160" s="16">
         <v>-653367</v>
       </c>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="20"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="18"/>
       <c r="L160" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="16" t="s">
+    <row r="161" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B161" s="17"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="3" t="s">
         <v>60</v>
       </c>
@@ -6571,21 +6572,21 @@
         <v>113369</v>
       </c>
       <c r="G161" s="6"/>
-      <c r="H161" s="18">
+      <c r="H161" s="16">
         <v>-749609</v>
       </c>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="20"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="18"/>
       <c r="L161" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="16" t="s">
+    <row r="162" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B162" s="17"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="3" t="s">
         <v>19</v>
       </c>
@@ -6597,21 +6598,21 @@
         <v>4340917</v>
       </c>
       <c r="G162" s="6"/>
-      <c r="H162" s="18">
+      <c r="H162" s="16">
         <v>-636240</v>
       </c>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="20"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="18"/>
       <c r="L162" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="16" t="s">
+    <row r="163" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B163" s="17"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3" t="s">
         <v>148</v>
       </c>
@@ -6623,21 +6624,21 @@
         <v>90000</v>
       </c>
       <c r="G163" s="6"/>
-      <c r="H163" s="18">
+      <c r="H163" s="16">
         <v>3704677</v>
       </c>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="20"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="18"/>
       <c r="L163" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="16" t="s">
+    <row r="164" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B164" s="17"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="3" t="s">
         <v>149</v>
       </c>
@@ -6649,21 +6650,21 @@
         <v>95000</v>
       </c>
       <c r="G164" s="6"/>
-      <c r="H164" s="18">
+      <c r="H164" s="16">
         <v>3794677</v>
       </c>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="20"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="18"/>
       <c r="L164" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="16" t="s">
+    <row r="165" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B165" s="17"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="3" t="s">
         <v>150</v>
       </c>
@@ -6675,21 +6676,21 @@
         <v>700000</v>
       </c>
       <c r="G165" s="6"/>
-      <c r="H165" s="18">
+      <c r="H165" s="16">
         <v>3889677</v>
       </c>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="20"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="18"/>
       <c r="L165" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="16" t="s">
+    <row r="166" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B166" s="17"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="3" t="s">
         <v>12</v>
       </c>
@@ -6701,21 +6702,21 @@
       <c r="G166" s="6">
         <v>483999</v>
       </c>
-      <c r="H166" s="18">
+      <c r="H166" s="16">
         <v>4589677</v>
       </c>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="20"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="18"/>
       <c r="L166" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="16" t="s">
+    <row r="167" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B167" s="17"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="3" t="s">
         <v>152</v>
       </c>
@@ -6727,21 +6728,21 @@
         <v>11081</v>
       </c>
       <c r="G167" s="6"/>
-      <c r="H167" s="18">
+      <c r="H167" s="16">
         <v>4105678</v>
       </c>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="20"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="18"/>
       <c r="L167" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="16" t="s">
+    <row r="168" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B168" s="17"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="3" t="s">
         <v>153</v>
       </c>
@@ -6753,21 +6754,21 @@
         <v>1549</v>
       </c>
       <c r="G168" s="6"/>
-      <c r="H168" s="18">
+      <c r="H168" s="16">
         <v>4116759</v>
       </c>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="20"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="18"/>
       <c r="L168" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="16" t="s">
+    <row r="169" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B169" s="17"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="3" t="s">
         <v>67</v>
       </c>
@@ -6779,21 +6780,21 @@
       <c r="G169" s="6">
         <v>89985</v>
       </c>
-      <c r="H169" s="18">
+      <c r="H169" s="16">
         <v>4118308</v>
       </c>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="20"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="18"/>
       <c r="L169" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="16" t="s">
+    <row r="170" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B170" s="17"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>17</v>
       </c>
@@ -6805,21 +6806,21 @@
       <c r="G170" s="6">
         <v>80522</v>
       </c>
-      <c r="H170" s="18">
+      <c r="H170" s="16">
         <v>4028323</v>
       </c>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="20"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="18"/>
       <c r="L170" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="16" t="s">
+    <row r="171" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B171" s="17"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="3" t="s">
         <v>154</v>
       </c>
@@ -6831,21 +6832,21 @@
       <c r="G171" s="6">
         <v>421641</v>
       </c>
-      <c r="H171" s="18">
+      <c r="H171" s="16">
         <v>3947801</v>
       </c>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="20"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="18"/>
       <c r="L171" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="16" t="s">
+    <row r="172" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B172" s="17"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="3" t="s">
         <v>155</v>
       </c>
@@ -6857,21 +6858,21 @@
       <c r="G172" s="6">
         <v>55170</v>
       </c>
-      <c r="H172" s="18">
+      <c r="H172" s="16">
         <v>3526160</v>
       </c>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="20"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="18"/>
       <c r="L172" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="16" t="s">
+    <row r="173" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B173" s="17"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="3" t="s">
         <v>39</v>
       </c>
@@ -6883,21 +6884,21 @@
       <c r="G173" s="6">
         <v>190000</v>
       </c>
-      <c r="H173" s="18">
+      <c r="H173" s="16">
         <v>3470990</v>
       </c>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="20"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="18"/>
       <c r="L173" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="16" t="s">
+    <row r="174" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B174" s="17"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="3" t="s">
         <v>156</v>
       </c>
@@ -6909,21 +6910,21 @@
       <c r="G174" s="6">
         <v>60109</v>
       </c>
-      <c r="H174" s="18">
+      <c r="H174" s="16">
         <v>3280990</v>
       </c>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="20"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="18"/>
       <c r="L174" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="16" t="s">
+    <row r="175" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B175" s="17"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>48</v>
       </c>
@@ -6935,21 +6936,21 @@
         <v>940081</v>
       </c>
       <c r="G175" s="6"/>
-      <c r="H175" s="18">
+      <c r="H175" s="16">
         <v>3220881</v>
       </c>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="20"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="18"/>
       <c r="L175" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="16" t="s">
+    <row r="176" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B176" s="17"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="3" t="s">
         <v>17</v>
       </c>
@@ -6961,21 +6962,21 @@
       <c r="G176" s="6">
         <v>119448</v>
       </c>
-      <c r="H176" s="18">
+      <c r="H176" s="16">
         <v>4160962</v>
       </c>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="20"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="18"/>
       <c r="L176" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="16" t="s">
+    <row r="177" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B177" s="17"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="3" t="s">
         <v>158</v>
       </c>
@@ -6987,21 +6988,21 @@
       <c r="G177" s="6">
         <v>32569</v>
       </c>
-      <c r="H177" s="18">
+      <c r="H177" s="16">
         <v>4041514</v>
       </c>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="20"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="18"/>
       <c r="L177" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="16" t="s">
+    <row r="178" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B178" s="17"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="3" t="s">
         <v>16</v>
       </c>
@@ -7013,21 +7014,21 @@
         <v>297500</v>
       </c>
       <c r="G178" s="6"/>
-      <c r="H178" s="18">
+      <c r="H178" s="16">
         <v>4008945</v>
       </c>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="20"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="18"/>
       <c r="L178" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="16" t="s">
+    <row r="179" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B179" s="17"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="3" t="s">
         <v>159</v>
       </c>
@@ -7039,21 +7040,21 @@
       <c r="G179" s="6">
         <v>30728</v>
       </c>
-      <c r="H179" s="18">
+      <c r="H179" s="16">
         <v>4306445</v>
       </c>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="20"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="18"/>
       <c r="L179" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="16" t="s">
+    <row r="180" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B180" s="17"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="3" t="s">
         <v>160</v>
       </c>
@@ -7065,21 +7066,21 @@
       <c r="G180" s="6">
         <v>734539</v>
       </c>
-      <c r="H180" s="18">
+      <c r="H180" s="16">
         <v>4275717</v>
       </c>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="20"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="18"/>
       <c r="L180" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="16" t="s">
+    <row r="181" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B181" s="17"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="3" t="s">
         <v>161</v>
       </c>
@@ -7091,21 +7092,21 @@
       <c r="G181" s="6">
         <v>312127</v>
       </c>
-      <c r="H181" s="18">
+      <c r="H181" s="16">
         <v>3541178</v>
       </c>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="20"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="18"/>
       <c r="L181" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="16" t="s">
+    <row r="182" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="17"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="3" t="s">
         <v>162</v>
       </c>
@@ -7117,21 +7118,21 @@
       <c r="G182" s="6">
         <v>72441</v>
       </c>
-      <c r="H182" s="18">
+      <c r="H182" s="16">
         <v>3229051</v>
       </c>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="20"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="18"/>
       <c r="L182" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="16" t="s">
+    <row r="183" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B183" s="17"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="3" t="s">
         <v>163</v>
       </c>
@@ -7143,21 +7144,21 @@
       <c r="G183" s="6">
         <v>102937</v>
       </c>
-      <c r="H183" s="18">
+      <c r="H183" s="16">
         <v>3156610</v>
       </c>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="20"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="18"/>
       <c r="L183" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="16" t="s">
+    <row r="184" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B184" s="17"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>163</v>
       </c>
@@ -7169,21 +7170,21 @@
       <c r="G184" s="6">
         <v>67410</v>
       </c>
-      <c r="H184" s="18">
+      <c r="H184" s="16">
         <v>3053673</v>
       </c>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="20"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="18"/>
       <c r="L184" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="16" t="s">
+    <row r="185" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B185" s="17"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="3" t="s">
         <v>164</v>
       </c>
@@ -7195,21 +7196,21 @@
       <c r="G185" s="6">
         <v>42518</v>
       </c>
-      <c r="H185" s="18">
+      <c r="H185" s="16">
         <v>2986263</v>
       </c>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="20"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="18"/>
       <c r="L185" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="16" t="s">
+    <row r="186" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B186" s="17"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="3" t="s">
         <v>165</v>
       </c>
@@ -7221,21 +7222,21 @@
       <c r="G186" s="6">
         <v>80605</v>
       </c>
-      <c r="H186" s="18">
+      <c r="H186" s="16">
         <v>2943745</v>
       </c>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="20"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="18"/>
       <c r="L186" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B187" s="17"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="3" t="s">
         <v>19</v>
       </c>
@@ -7247,18 +7248,18 @@
         <v>7086521</v>
       </c>
       <c r="G187" s="6"/>
-      <c r="H187" s="18">
+      <c r="H187" s="16">
         <v>657351</v>
       </c>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="20"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="18"/>
     </row>
     <row r="188" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="16" t="s">
+      <c r="A188" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B188" s="17"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="3" t="s">
         <v>17</v>
       </c>
@@ -7270,18 +7271,18 @@
       <c r="G188" s="6">
         <v>141693</v>
       </c>
-      <c r="H188" s="18">
+      <c r="H188" s="16">
         <v>7743872</v>
       </c>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="20"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="18"/>
     </row>
     <row r="189" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B189" s="17"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="3" t="s">
         <v>19</v>
       </c>
@@ -7293,18 +7294,18 @@
         <v>363278</v>
       </c>
       <c r="G189" s="6"/>
-      <c r="H189" s="18">
+      <c r="H189" s="16">
         <v>7602179</v>
       </c>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="20"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="18"/>
     </row>
     <row r="190" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B190" s="17"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="3" t="s">
         <v>50</v>
       </c>
@@ -7316,18 +7317,18 @@
       <c r="G190" s="6">
         <v>5000000</v>
       </c>
-      <c r="H190" s="18">
+      <c r="H190" s="16">
         <v>7965457</v>
       </c>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="20"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="18"/>
     </row>
     <row r="191" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="16" t="s">
+      <c r="A191" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B191" s="17"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="3" t="s">
         <v>60</v>
       </c>
@@ -7339,18 +7340,18 @@
         <v>3500000</v>
       </c>
       <c r="G191" s="6"/>
-      <c r="H191" s="18">
+      <c r="H191" s="16">
         <v>2965457</v>
       </c>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="20"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="18"/>
     </row>
     <row r="192" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B192" s="17"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="3" t="s">
         <v>50</v>
       </c>
@@ -7362,18 +7363,18 @@
       <c r="G192" s="6">
         <v>5000000</v>
       </c>
-      <c r="H192" s="18">
+      <c r="H192" s="16">
         <v>6465457</v>
       </c>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="20"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="18"/>
     </row>
     <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B193" s="17"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="3" t="s">
         <v>208</v>
       </c>
@@ -7385,18 +7386,18 @@
       <c r="G193" s="6">
         <v>697760</v>
       </c>
-      <c r="H193" s="18">
+      <c r="H193" s="16">
         <v>1465457</v>
       </c>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="20"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="18"/>
     </row>
     <row r="194" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="16" t="s">
+      <c r="A194" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B194" s="17"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="3" t="s">
         <v>97</v>
       </c>
@@ -7408,18 +7409,18 @@
       <c r="G194" s="6">
         <v>84345</v>
       </c>
-      <c r="H194" s="18">
+      <c r="H194" s="16">
         <v>767697</v>
       </c>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="20"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="18"/>
     </row>
     <row r="195" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="16" t="s">
+      <c r="A195" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B195" s="17"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>209</v>
       </c>
@@ -7431,18 +7432,18 @@
       <c r="G195" s="6">
         <v>66045</v>
       </c>
-      <c r="H195" s="18">
+      <c r="H195" s="16">
         <v>683352</v>
       </c>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
-      <c r="K195" s="20"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="18"/>
     </row>
     <row r="196" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B196" s="17"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="3" t="s">
         <v>210</v>
       </c>
@@ -7454,18 +7455,18 @@
       <c r="G196" s="6">
         <v>32550</v>
       </c>
-      <c r="H196" s="18">
+      <c r="H196" s="16">
         <v>617307</v>
       </c>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="20"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
+      <c r="K196" s="18"/>
     </row>
     <row r="197" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="16" t="s">
+      <c r="A197" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B197" s="17"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="3" t="s">
         <v>48</v>
       </c>
@@ -7477,18 +7478,18 @@
         <v>1109468</v>
       </c>
       <c r="G197" s="6"/>
-      <c r="H197" s="18">
+      <c r="H197" s="16">
         <v>584757</v>
       </c>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="20"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="18"/>
     </row>
     <row r="198" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="16" t="s">
+      <c r="A198" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B198" s="17"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="3" t="s">
         <v>212</v>
       </c>
@@ -7500,18 +7501,18 @@
       <c r="G198" s="6">
         <v>32650</v>
       </c>
-      <c r="H198" s="18">
+      <c r="H198" s="16">
         <v>1694225</v>
       </c>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="20"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="18"/>
     </row>
     <row r="199" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B199" s="17"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="3" t="s">
         <v>213</v>
       </c>
@@ -7523,18 +7524,18 @@
       <c r="G199" s="6">
         <v>214200</v>
       </c>
-      <c r="H199" s="18">
+      <c r="H199" s="16">
         <v>1661575</v>
       </c>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="20"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="18"/>
     </row>
     <row r="200" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="16" t="s">
+      <c r="A200" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B200" s="17"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="3" t="s">
         <v>214</v>
       </c>
@@ -7546,18 +7547,18 @@
       <c r="G200" s="6">
         <v>32650</v>
       </c>
-      <c r="H200" s="18">
+      <c r="H200" s="16">
         <v>1447375</v>
       </c>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
-      <c r="K200" s="20"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="18"/>
     </row>
     <row r="201" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="16" t="s">
+      <c r="A201" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B201" s="17"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="3" t="s">
         <v>215</v>
       </c>
@@ -7569,18 +7570,18 @@
       <c r="G201" s="6">
         <v>234056</v>
       </c>
-      <c r="H201" s="18">
+      <c r="H201" s="16">
         <v>1414725</v>
       </c>
-      <c r="I201" s="19"/>
-      <c r="J201" s="19"/>
-      <c r="K201" s="20"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="18"/>
     </row>
     <row r="202" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="16" t="s">
+      <c r="A202" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B202" s="17"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="3" t="s">
         <v>19</v>
       </c>
@@ -7592,18 +7593,18 @@
         <v>727429</v>
       </c>
       <c r="G202" s="6"/>
-      <c r="H202" s="18">
+      <c r="H202" s="16">
         <v>1180669</v>
       </c>
-      <c r="I202" s="19"/>
-      <c r="J202" s="19"/>
-      <c r="K202" s="20"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="18"/>
     </row>
     <row r="203" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="16" t="s">
+      <c r="A203" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B203" s="17"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="3" t="s">
         <v>17</v>
       </c>
@@ -7615,18 +7616,18 @@
       <c r="G203" s="6">
         <v>48184</v>
       </c>
-      <c r="H203" s="18">
+      <c r="H203" s="16">
         <v>1908098</v>
       </c>
-      <c r="I203" s="19"/>
-      <c r="J203" s="19"/>
-      <c r="K203" s="20"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="18"/>
     </row>
     <row r="204" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="16" t="s">
+      <c r="A204" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B204" s="17"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="3" t="s">
         <v>30</v>
       </c>
@@ -7638,18 +7639,18 @@
       <c r="G204" s="6">
         <v>1783364</v>
       </c>
-      <c r="H204" s="18">
+      <c r="H204" s="16">
         <v>1859914</v>
       </c>
-      <c r="I204" s="19"/>
-      <c r="J204" s="19"/>
-      <c r="K204" s="20"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="18"/>
     </row>
     <row r="205" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="16" t="s">
+      <c r="A205" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B205" s="17"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="3" t="s">
         <v>216</v>
       </c>
@@ -7661,18 +7662,18 @@
       <c r="G205" s="6">
         <v>76550</v>
       </c>
-      <c r="H205" s="18">
+      <c r="H205" s="16">
         <v>76550</v>
       </c>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="20"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="18"/>
     </row>
     <row r="206" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="16" t="s">
+      <c r="A206" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B206" s="17"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="3" t="s">
         <v>48</v>
       </c>
@@ -7684,18 +7685,18 @@
         <v>2519218</v>
       </c>
       <c r="G206" s="6"/>
-      <c r="H206" s="18">
+      <c r="H206" s="16">
         <v>0</v>
       </c>
-      <c r="I206" s="19"/>
-      <c r="J206" s="19"/>
-      <c r="K206" s="20"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="18"/>
     </row>
     <row r="207" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="16" t="s">
+      <c r="A207" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B207" s="17"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>61</v>
       </c>
@@ -7707,18 +7708,18 @@
       <c r="G207" s="6">
         <v>55950</v>
       </c>
-      <c r="H207" s="18">
+      <c r="H207" s="16">
         <v>2519218</v>
       </c>
-      <c r="I207" s="19"/>
-      <c r="J207" s="19"/>
-      <c r="K207" s="20"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="18"/>
     </row>
     <row r="208" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="16" t="s">
+      <c r="A208" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B208" s="17"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="3" t="s">
         <v>218</v>
       </c>
@@ -7730,18 +7731,18 @@
       <c r="G208" s="6">
         <v>23980</v>
       </c>
-      <c r="H208" s="18">
+      <c r="H208" s="16">
         <v>2463268</v>
       </c>
-      <c r="I208" s="19"/>
-      <c r="J208" s="19"/>
-      <c r="K208" s="20"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="18"/>
     </row>
     <row r="209" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="16" t="s">
+      <c r="A209" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B209" s="17"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="3" t="s">
         <v>17</v>
       </c>
@@ -7753,18 +7754,18 @@
       <c r="G209" s="6">
         <v>497868</v>
       </c>
-      <c r="H209" s="18">
+      <c r="H209" s="16">
         <v>2439288</v>
       </c>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="20"/>
+      <c r="I209" s="17"/>
+      <c r="J209" s="17"/>
+      <c r="K209" s="18"/>
     </row>
     <row r="210" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="16" t="s">
+      <c r="A210" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B210" s="17"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="3" t="s">
         <v>219</v>
       </c>
@@ -7776,18 +7777,18 @@
       <c r="G210" s="6">
         <v>659176</v>
       </c>
-      <c r="H210" s="18">
+      <c r="H210" s="16">
         <v>1941420</v>
       </c>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="20"/>
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="18"/>
     </row>
     <row r="211" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="16" t="s">
+      <c r="A211" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B211" s="17"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="3" t="s">
         <v>220</v>
       </c>
@@ -7799,18 +7800,18 @@
       <c r="G211" s="6">
         <v>1109774</v>
       </c>
-      <c r="H211" s="18">
+      <c r="H211" s="16">
         <v>1282244</v>
       </c>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="20"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
+      <c r="K211" s="18"/>
     </row>
     <row r="212" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="16" t="s">
+      <c r="A212" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B212" s="17"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="3" t="s">
         <v>221</v>
       </c>
@@ -7822,18 +7823,18 @@
       <c r="G212" s="6">
         <v>172470</v>
       </c>
-      <c r="H212" s="18">
+      <c r="H212" s="16">
         <v>172470</v>
       </c>
-      <c r="I212" s="19"/>
-      <c r="J212" s="19"/>
-      <c r="K212" s="20"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="18"/>
     </row>
     <row r="213" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="16" t="s">
+      <c r="A213" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B213" s="17"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="3" t="s">
         <v>48</v>
       </c>
@@ -7845,18 +7846,18 @@
         <v>1125684</v>
       </c>
       <c r="G213" s="6"/>
-      <c r="H213" s="18">
+      <c r="H213" s="16">
         <v>0</v>
       </c>
-      <c r="I213" s="19"/>
-      <c r="J213" s="19"/>
-      <c r="K213" s="20"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="17"/>
+      <c r="K213" s="18"/>
     </row>
     <row r="214" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="16" t="s">
+      <c r="A214" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B214" s="17"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="3" t="s">
         <v>223</v>
       </c>
@@ -7868,18 +7869,18 @@
       <c r="G214" s="6">
         <v>151560</v>
       </c>
-      <c r="H214" s="18">
+      <c r="H214" s="16">
         <v>1125684</v>
       </c>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="20"/>
+      <c r="I214" s="17"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="18"/>
     </row>
     <row r="215" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="16" t="s">
+      <c r="A215" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B215" s="17"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="3" t="s">
         <v>224</v>
       </c>
@@ -7891,18 +7892,18 @@
       <c r="G215" s="6">
         <v>160865</v>
       </c>
-      <c r="H215" s="18">
+      <c r="H215" s="16">
         <v>974124</v>
       </c>
-      <c r="I215" s="19"/>
-      <c r="J215" s="19"/>
-      <c r="K215" s="20"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
+      <c r="K215" s="18"/>
     </row>
     <row r="216" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="16" t="s">
+      <c r="A216" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B216" s="17"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>213</v>
       </c>
@@ -7914,18 +7915,18 @@
       <c r="G216" s="6">
         <v>71400</v>
       </c>
-      <c r="H216" s="18">
+      <c r="H216" s="16">
         <v>813259</v>
       </c>
-      <c r="I216" s="19"/>
-      <c r="J216" s="19"/>
-      <c r="K216" s="20"/>
+      <c r="I216" s="17"/>
+      <c r="J216" s="17"/>
+      <c r="K216" s="18"/>
     </row>
     <row r="217" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="16" t="s">
+      <c r="A217" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B217" s="17"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>106</v>
       </c>
@@ -7937,18 +7938,18 @@
         <v>4404954</v>
       </c>
       <c r="G217" s="6"/>
-      <c r="H217" s="18">
+      <c r="H217" s="16">
         <v>741859</v>
       </c>
-      <c r="I217" s="19"/>
-      <c r="J217" s="19"/>
-      <c r="K217" s="20"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="18"/>
     </row>
     <row r="218" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="16" t="s">
+      <c r="A218" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B218" s="17"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="3" t="s">
         <v>17</v>
       </c>
@@ -7960,18 +7961,18 @@
       <c r="G218" s="6">
         <v>119851</v>
       </c>
-      <c r="H218" s="18">
+      <c r="H218" s="16">
         <v>5146813</v>
       </c>
-      <c r="I218" s="19"/>
-      <c r="J218" s="19"/>
-      <c r="K218" s="20"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="18"/>
     </row>
     <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="16" t="s">
+      <c r="A219" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B219" s="17"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="3" t="s">
         <v>225</v>
       </c>
@@ -7983,18 +7984,18 @@
       <c r="G219" s="6">
         <v>208250</v>
       </c>
-      <c r="H219" s="18">
+      <c r="H219" s="16">
         <v>5026962</v>
       </c>
-      <c r="I219" s="19"/>
-      <c r="J219" s="19"/>
-      <c r="K219" s="20"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="18"/>
     </row>
     <row r="220" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="16" t="s">
+      <c r="A220" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B220" s="17"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="3" t="s">
         <v>226</v>
       </c>
@@ -8006,18 +8007,18 @@
       <c r="G220" s="6">
         <v>73763</v>
       </c>
-      <c r="H220" s="18">
+      <c r="H220" s="16">
         <v>4818712</v>
       </c>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="20"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="18"/>
     </row>
     <row r="221" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="16" t="s">
+      <c r="A221" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="17"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="3" t="s">
         <v>136</v>
       </c>
@@ -8029,18 +8030,18 @@
       <c r="G221" s="6">
         <v>4559047</v>
       </c>
-      <c r="H221" s="18">
+      <c r="H221" s="16">
         <v>4744949</v>
       </c>
-      <c r="I221" s="19"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="20"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="18"/>
     </row>
     <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="16" t="s">
+      <c r="A222" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="17"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="3" t="s">
         <v>227</v>
       </c>
@@ -8052,18 +8053,18 @@
       <c r="G222" s="6">
         <v>46830</v>
       </c>
-      <c r="H222" s="18">
+      <c r="H222" s="16">
         <v>185902</v>
       </c>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="20"/>
+      <c r="I222" s="17"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="18"/>
     </row>
     <row r="223" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="16" t="s">
+      <c r="A223" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="17"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="3" t="s">
         <v>228</v>
       </c>
@@ -8075,18 +8076,18 @@
       <c r="G223" s="6">
         <v>39971</v>
       </c>
-      <c r="H223" s="18">
+      <c r="H223" s="16">
         <v>139072</v>
       </c>
-      <c r="I223" s="19"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="20"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="18"/>
     </row>
     <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="16" t="s">
+      <c r="A224" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B224" s="17"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="3" t="s">
         <v>229</v>
       </c>
@@ -8098,18 +8099,18 @@
       <c r="G224" s="6">
         <v>38381</v>
       </c>
-      <c r="H224" s="18">
+      <c r="H224" s="16">
         <v>99101</v>
       </c>
-      <c r="I224" s="19"/>
-      <c r="J224" s="19"/>
-      <c r="K224" s="20"/>
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
+      <c r="K224" s="18"/>
     </row>
     <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="16" t="s">
+      <c r="A225" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B225" s="17"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="3" t="s">
         <v>230</v>
       </c>
@@ -8121,18 +8122,18 @@
       <c r="G225" s="6">
         <v>60720</v>
       </c>
-      <c r="H225" s="18">
+      <c r="H225" s="16">
         <v>60720</v>
       </c>
-      <c r="I225" s="19"/>
-      <c r="J225" s="19"/>
-      <c r="K225" s="20"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="18"/>
     </row>
     <row r="226" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="16" t="s">
+      <c r="A226" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B226" s="17"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>8</v>
       </c>
@@ -8144,18 +8145,18 @@
       <c r="G226" s="6">
         <v>2492912</v>
       </c>
-      <c r="H226" s="18">
+      <c r="H226" s="16">
         <v>0</v>
       </c>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="20"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="18"/>
     </row>
     <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="16" t="s">
+      <c r="A227" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B227" s="17"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="3" t="s">
         <v>112</v>
       </c>
@@ -8167,18 +8168,18 @@
         <v>2654673</v>
       </c>
       <c r="G227" s="6"/>
-      <c r="H227" s="18">
+      <c r="H227" s="16">
         <v>-2492912</v>
       </c>
-      <c r="I227" s="19"/>
-      <c r="J227" s="19"/>
-      <c r="K227" s="20"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
+      <c r="K227" s="18"/>
     </row>
     <row r="228" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="16" t="s">
+      <c r="A228" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B228" s="17"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>232</v>
       </c>
@@ -8190,18 +8191,18 @@
       <c r="G228" s="6">
         <v>373257</v>
       </c>
-      <c r="H228" s="18">
+      <c r="H228" s="16">
         <v>161761</v>
       </c>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="20"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
+      <c r="K228" s="18"/>
     </row>
     <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="16" t="s">
+      <c r="A229" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="17"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="3" t="s">
         <v>233</v>
       </c>
@@ -8213,18 +8214,18 @@
       <c r="G229" s="6">
         <v>323778</v>
       </c>
-      <c r="H229" s="18">
+      <c r="H229" s="16">
         <v>-211496</v>
       </c>
-      <c r="I229" s="19"/>
-      <c r="J229" s="19"/>
-      <c r="K229" s="20"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
+      <c r="K229" s="18"/>
     </row>
     <row r="230" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="16" t="s">
+      <c r="A230" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B230" s="17"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="3" t="s">
         <v>233</v>
       </c>
@@ -8236,18 +8237,18 @@
       <c r="G230" s="6">
         <v>44625</v>
       </c>
-      <c r="H230" s="18">
+      <c r="H230" s="16">
         <v>-535274</v>
       </c>
-      <c r="I230" s="19"/>
-      <c r="J230" s="19"/>
-      <c r="K230" s="20"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
+      <c r="K230" s="18"/>
     </row>
     <row r="231" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="16" t="s">
+      <c r="A231" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="17"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="3" t="s">
         <v>233</v>
       </c>
@@ -8259,18 +8260,18 @@
       <c r="G231" s="6">
         <v>179452</v>
       </c>
-      <c r="H231" s="18">
+      <c r="H231" s="16">
         <v>-579899</v>
       </c>
-      <c r="I231" s="19"/>
-      <c r="J231" s="19"/>
-      <c r="K231" s="20"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="18"/>
     </row>
     <row r="232" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="16" t="s">
+      <c r="A232" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="17"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="3" t="s">
         <v>234</v>
       </c>
@@ -8282,18 +8283,18 @@
       <c r="G232" s="6">
         <v>43937</v>
       </c>
-      <c r="H232" s="18">
+      <c r="H232" s="16">
         <v>-759351</v>
       </c>
-      <c r="I232" s="19"/>
-      <c r="J232" s="19"/>
-      <c r="K232" s="20"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
+      <c r="K232" s="18"/>
     </row>
     <row r="233" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="16" t="s">
+      <c r="A233" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B233" s="17"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="3" t="s">
         <v>19</v>
       </c>
@@ -8305,18 +8306,18 @@
         <v>955065</v>
       </c>
       <c r="G233" s="6"/>
-      <c r="H233" s="18">
+      <c r="H233" s="16">
         <v>-803288</v>
       </c>
-      <c r="I233" s="19"/>
-      <c r="J233" s="19"/>
-      <c r="K233" s="20"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="18"/>
     </row>
     <row r="234" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="16" t="s">
+      <c r="A234" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B234" s="17"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="3" t="s">
         <v>81</v>
       </c>
@@ -8330,18 +8331,18 @@
       <c r="G234" s="6">
         <v>112560</v>
       </c>
-      <c r="H234" s="18">
+      <c r="H234" s="16">
         <v>151777</v>
       </c>
-      <c r="I234" s="19"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="20"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="17"/>
+      <c r="K234" s="18"/>
     </row>
     <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="16" t="s">
+      <c r="A235" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="17"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="3" t="s">
         <v>237</v>
       </c>
@@ -8353,18 +8354,18 @@
       <c r="G235" s="6">
         <v>95025</v>
       </c>
-      <c r="H235" s="18">
+      <c r="H235" s="16">
         <v>39217</v>
       </c>
-      <c r="I235" s="19"/>
-      <c r="J235" s="19"/>
-      <c r="K235" s="20"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="18"/>
     </row>
     <row r="236" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="16" t="s">
+      <c r="A236" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B236" s="17"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="3" t="s">
         <v>238</v>
       </c>
@@ -8376,18 +8377,18 @@
         <v>1500000</v>
       </c>
       <c r="G236" s="6"/>
-      <c r="H236" s="18">
+      <c r="H236" s="16">
         <v>-55808</v>
       </c>
-      <c r="I236" s="19"/>
-      <c r="J236" s="19"/>
-      <c r="K236" s="20"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="18"/>
     </row>
     <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="16" t="s">
+      <c r="A237" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B237" s="17"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="3" t="s">
         <v>51</v>
       </c>
@@ -8399,18 +8400,18 @@
       <c r="G237" s="6">
         <v>500000</v>
       </c>
-      <c r="H237" s="18">
+      <c r="H237" s="16">
         <v>1444192</v>
       </c>
-      <c r="I237" s="19"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="20"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="18"/>
     </row>
     <row r="238" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B238" s="17"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="3" t="s">
         <v>50</v>
       </c>
@@ -8422,18 +8423,18 @@
       <c r="G238" s="6">
         <v>944192</v>
       </c>
-      <c r="H238" s="18">
+      <c r="H238" s="16">
         <v>944192</v>
       </c>
-      <c r="I238" s="19"/>
-      <c r="J238" s="19"/>
-      <c r="K238" s="20"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="18"/>
     </row>
     <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="16" t="s">
+      <c r="A239" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B239" s="17"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="3" t="s">
         <v>8</v>
       </c>
@@ -8445,18 +8446,18 @@
       <c r="G239" s="6">
         <v>45000</v>
       </c>
-      <c r="H239" s="18">
+      <c r="H239" s="16">
         <v>0</v>
       </c>
-      <c r="I239" s="19"/>
-      <c r="J239" s="19"/>
-      <c r="K239" s="20"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="18"/>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="16" t="s">
+      <c r="A240" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B240" s="17"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="3" t="s">
         <v>239</v>
       </c>
@@ -8468,18 +8469,18 @@
         <v>45000</v>
       </c>
       <c r="G240" s="6"/>
-      <c r="H240" s="18">
+      <c r="H240" s="16">
         <v>-45000</v>
       </c>
-      <c r="I240" s="19"/>
-      <c r="J240" s="19"/>
-      <c r="K240" s="20"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="18"/>
     </row>
     <row r="241" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="16" t="s">
+      <c r="A241" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="17"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="3" t="s">
         <v>48</v>
       </c>
@@ -8491,18 +8492,18 @@
         <v>279217</v>
       </c>
       <c r="G241" s="6"/>
-      <c r="H241" s="18">
+      <c r="H241" s="16">
         <v>0</v>
       </c>
-      <c r="I241" s="19"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="20"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="18"/>
     </row>
     <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="16" t="s">
+      <c r="A242" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B242" s="17"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="3" t="s">
         <v>241</v>
       </c>
@@ -8514,18 +8515,18 @@
       <c r="G242" s="6">
         <v>26500</v>
       </c>
-      <c r="H242" s="18">
+      <c r="H242" s="16">
         <v>279217</v>
       </c>
-      <c r="I242" s="19"/>
-      <c r="J242" s="19"/>
-      <c r="K242" s="20"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="17"/>
+      <c r="K242" s="18"/>
     </row>
     <row r="243" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="16" t="s">
+      <c r="A243" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B243" s="17"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="3" t="s">
         <v>242</v>
       </c>
@@ -8537,18 +8538,18 @@
       <c r="G243" s="6">
         <v>107939</v>
       </c>
-      <c r="H243" s="18">
+      <c r="H243" s="16">
         <v>252717</v>
       </c>
-      <c r="I243" s="19"/>
-      <c r="J243" s="19"/>
-      <c r="K243" s="20"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="18"/>
     </row>
     <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="16" t="s">
+      <c r="A244" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B244" s="17"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="3" t="s">
         <v>243</v>
       </c>
@@ -8560,18 +8561,18 @@
       <c r="G244" s="6">
         <v>144778</v>
       </c>
-      <c r="H244" s="18">
+      <c r="H244" s="16">
         <v>144778</v>
       </c>
-      <c r="I244" s="19"/>
-      <c r="J244" s="19"/>
-      <c r="K244" s="20"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="17"/>
+      <c r="K244" s="18"/>
     </row>
     <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="16" t="s">
+      <c r="A245" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="17"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="3" t="s">
         <v>8</v>
       </c>
@@ -8583,18 +8584,18 @@
       <c r="G245" s="6">
         <v>2495675</v>
       </c>
-      <c r="H245" s="18">
+      <c r="H245" s="16">
         <v>0</v>
       </c>
-      <c r="I245" s="19"/>
-      <c r="J245" s="19"/>
-      <c r="K245" s="20"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="18"/>
     </row>
     <row r="246" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="16" t="s">
+      <c r="A246" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B246" s="17"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="3" t="s">
         <v>245</v>
       </c>
@@ -8606,18 +8607,18 @@
       <c r="G246" s="6">
         <v>97618</v>
       </c>
-      <c r="H246" s="18">
+      <c r="H246" s="16">
         <v>-2495675</v>
       </c>
-      <c r="I246" s="19"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="20"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
+      <c r="K246" s="18"/>
     </row>
     <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="16" t="s">
+      <c r="A247" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B247" s="17"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="3" t="s">
         <v>246</v>
       </c>
@@ -8629,18 +8630,18 @@
       <c r="G247" s="6">
         <v>92860</v>
       </c>
-      <c r="H247" s="18">
+      <c r="H247" s="16">
         <v>-2593293</v>
       </c>
-      <c r="I247" s="19"/>
-      <c r="J247" s="19"/>
-      <c r="K247" s="20"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="18"/>
     </row>
     <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="16" t="s">
+      <c r="A248" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B248" s="17"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="3" t="s">
         <v>19</v>
       </c>
@@ -8652,18 +8653,18 @@
         <v>3872562</v>
       </c>
       <c r="G248" s="6"/>
-      <c r="H248" s="18">
+      <c r="H248" s="16">
         <v>-2686153</v>
       </c>
-      <c r="I248" s="19"/>
-      <c r="J248" s="19"/>
-      <c r="K248" s="20"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="18"/>
     </row>
     <row r="249" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="16" t="s">
+      <c r="A249" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B249" s="17"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="3" t="s">
         <v>17</v>
       </c>
@@ -8675,18 +8676,18 @@
       <c r="G249" s="6">
         <v>156873</v>
       </c>
-      <c r="H249" s="18">
+      <c r="H249" s="16">
         <v>1186409</v>
       </c>
-      <c r="I249" s="19"/>
-      <c r="J249" s="19"/>
-      <c r="K249" s="20"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="18"/>
     </row>
     <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="16" t="s">
+      <c r="A250" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B250" s="17"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="3" t="s">
         <v>247</v>
       </c>
@@ -8698,18 +8699,18 @@
       <c r="G250" s="6">
         <v>64259</v>
       </c>
-      <c r="H250" s="18">
+      <c r="H250" s="16">
         <v>1029536</v>
       </c>
-      <c r="I250" s="19"/>
-      <c r="J250" s="19"/>
-      <c r="K250" s="20"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="18"/>
     </row>
     <row r="251" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="16" t="s">
+      <c r="A251" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B251" s="17"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="3" t="s">
         <v>249</v>
       </c>
@@ -8721,18 +8722,18 @@
       <c r="G251" s="6">
         <v>18760</v>
       </c>
-      <c r="H251" s="18">
+      <c r="H251" s="16">
         <v>965277</v>
       </c>
-      <c r="I251" s="19"/>
-      <c r="J251" s="19"/>
-      <c r="K251" s="20"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="18"/>
     </row>
     <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="16" t="s">
+      <c r="A252" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B252" s="17"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="3" t="s">
         <v>250</v>
       </c>
@@ -8744,18 +8745,18 @@
       <c r="G252" s="6">
         <v>57963</v>
       </c>
-      <c r="H252" s="18">
+      <c r="H252" s="16">
         <v>946517</v>
       </c>
-      <c r="I252" s="19"/>
-      <c r="J252" s="19"/>
-      <c r="K252" s="20"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
+      <c r="K252" s="18"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" s="16" t="s">
+      <c r="A253" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B253" s="17"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="3" t="s">
         <v>251</v>
       </c>
@@ -8767,18 +8768,18 @@
       <c r="G253" s="6">
         <v>98515</v>
       </c>
-      <c r="H253" s="18">
+      <c r="H253" s="16">
         <v>888554</v>
       </c>
-      <c r="I253" s="19"/>
-      <c r="J253" s="19"/>
-      <c r="K253" s="20"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="18"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" s="16" t="s">
+      <c r="A254" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B254" s="17"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="3" t="s">
         <v>48</v>
       </c>
@@ -8790,18 +8791,18 @@
         <v>1428282</v>
       </c>
       <c r="G254" s="6"/>
-      <c r="H254" s="18">
+      <c r="H254" s="16">
         <v>790039</v>
       </c>
-      <c r="I254" s="19"/>
-      <c r="J254" s="19"/>
-      <c r="K254" s="20"/>
+      <c r="I254" s="17"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="18"/>
     </row>
     <row r="255" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="16" t="s">
+      <c r="A255" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B255" s="17"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="3" t="s">
         <v>253</v>
       </c>
@@ -8813,18 +8814,18 @@
       <c r="G255" s="6">
         <v>80649</v>
       </c>
-      <c r="H255" s="18">
+      <c r="H255" s="16">
         <v>2218321</v>
       </c>
-      <c r="I255" s="19"/>
-      <c r="J255" s="19"/>
-      <c r="K255" s="20"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="18"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256" s="16" t="s">
+      <c r="A256" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B256" s="17"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="3" t="s">
         <v>254</v>
       </c>
@@ -8836,18 +8837,18 @@
       <c r="G256" s="6">
         <v>45000</v>
       </c>
-      <c r="H256" s="18">
+      <c r="H256" s="16">
         <v>2137672</v>
       </c>
-      <c r="I256" s="19"/>
-      <c r="J256" s="19"/>
-      <c r="K256" s="20"/>
+      <c r="I256" s="17"/>
+      <c r="J256" s="17"/>
+      <c r="K256" s="18"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" s="16" t="s">
+      <c r="A257" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B257" s="17"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="3" t="s">
         <v>105</v>
       </c>
@@ -8859,18 +8860,18 @@
       <c r="G257" s="6">
         <v>63353</v>
       </c>
-      <c r="H257" s="18">
+      <c r="H257" s="16">
         <v>2092672</v>
       </c>
-      <c r="I257" s="19"/>
-      <c r="J257" s="19"/>
-      <c r="K257" s="20"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="18"/>
     </row>
     <row r="258" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="16" t="s">
+      <c r="A258" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B258" s="17"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="3" t="s">
         <v>225</v>
       </c>
@@ -8882,18 +8883,18 @@
       <c r="G258" s="6">
         <v>1874250</v>
       </c>
-      <c r="H258" s="18">
+      <c r="H258" s="16">
         <v>2029319</v>
       </c>
-      <c r="I258" s="19"/>
-      <c r="J258" s="19"/>
-      <c r="K258" s="20"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="18"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A259" s="16" t="s">
+      <c r="A259" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B259" s="17"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="3" t="s">
         <v>255</v>
       </c>
@@ -8905,18 +8906,18 @@
       <c r="G259" s="6">
         <v>64919</v>
       </c>
-      <c r="H259" s="18">
+      <c r="H259" s="16">
         <v>155069</v>
       </c>
-      <c r="I259" s="19"/>
-      <c r="J259" s="19"/>
-      <c r="K259" s="20"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="18"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" s="16" t="s">
+      <c r="A260" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B260" s="17"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="3" t="s">
         <v>30</v>
       </c>
@@ -8928,18 +8929,18 @@
       <c r="G260" s="6">
         <v>78970</v>
       </c>
-      <c r="H260" s="18">
+      <c r="H260" s="16">
         <v>90150</v>
       </c>
-      <c r="I260" s="19"/>
-      <c r="J260" s="19"/>
-      <c r="K260" s="20"/>
+      <c r="I260" s="17"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="18"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261" s="16" t="s">
+      <c r="A261" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B261" s="17"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="3" t="s">
         <v>256</v>
       </c>
@@ -8951,18 +8952,18 @@
       <c r="G261" s="6">
         <v>22950</v>
       </c>
-      <c r="H261" s="18">
+      <c r="H261" s="16">
         <v>11180</v>
       </c>
-      <c r="I261" s="19"/>
-      <c r="J261" s="19"/>
-      <c r="K261" s="20"/>
+      <c r="I261" s="17"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="18"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A262" s="16" t="s">
+      <c r="A262" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B262" s="17"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="3" t="s">
         <v>257</v>
       </c>
@@ -8974,18 +8975,18 @@
         <v>160000</v>
       </c>
       <c r="G262" s="6"/>
-      <c r="H262" s="18">
+      <c r="H262" s="16">
         <v>-11770</v>
       </c>
-      <c r="I262" s="19"/>
-      <c r="J262" s="19"/>
-      <c r="K262" s="20"/>
+      <c r="I262" s="17"/>
+      <c r="J262" s="17"/>
+      <c r="K262" s="18"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263" s="16" t="s">
+      <c r="A263" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B263" s="17"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="3" t="s">
         <v>258</v>
       </c>
@@ -8997,18 +8998,18 @@
       <c r="G263" s="6">
         <v>114240</v>
       </c>
-      <c r="H263" s="18">
+      <c r="H263" s="16">
         <v>148230</v>
       </c>
-      <c r="I263" s="19"/>
-      <c r="J263" s="19"/>
-      <c r="K263" s="20"/>
+      <c r="I263" s="17"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="18"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264" s="16" t="s">
+      <c r="A264" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B264" s="17"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="3" t="s">
         <v>259</v>
       </c>
@@ -9020,18 +9021,18 @@
       <c r="G264" s="6">
         <v>33990</v>
       </c>
-      <c r="H264" s="18">
+      <c r="H264" s="16">
         <v>33990</v>
       </c>
-      <c r="I264" s="19"/>
-      <c r="J264" s="19"/>
-      <c r="K264" s="20"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="17"/>
+      <c r="K264" s="18"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265" s="16" t="s">
+      <c r="A265" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B265" s="17"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="3" t="s">
         <v>8</v>
       </c>
@@ -9043,18 +9044,18 @@
       <c r="G265" s="6">
         <v>1428282</v>
       </c>
-      <c r="H265" s="18">
+      <c r="H265" s="16">
         <v>0</v>
       </c>
-      <c r="I265" s="19"/>
-      <c r="J265" s="19"/>
-      <c r="K265" s="20"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="18"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A266" s="16" t="s">
+      <c r="A266" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B266" s="17"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="3" t="s">
         <v>45</v>
       </c>
@@ -9066,18 +9067,18 @@
       <c r="G266" s="6">
         <v>39979</v>
       </c>
-      <c r="H266" s="18">
+      <c r="H266" s="16">
         <v>-1428282</v>
       </c>
-      <c r="I266" s="19"/>
-      <c r="J266" s="19"/>
-      <c r="K266" s="20"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="18"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A267" s="16" t="s">
+      <c r="A267" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B267" s="17"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="3" t="s">
         <v>19</v>
       </c>
@@ -9089,18 +9090,18 @@
         <v>2900037</v>
       </c>
       <c r="G267" s="6"/>
-      <c r="H267" s="18">
+      <c r="H267" s="16">
         <v>-1468261</v>
       </c>
-      <c r="I267" s="19"/>
-      <c r="J267" s="19"/>
-      <c r="K267" s="20"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="18"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268" s="16" t="s">
+      <c r="A268" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B268" s="17"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="3" t="s">
         <v>261</v>
       </c>
@@ -9112,18 +9113,18 @@
       <c r="G268" s="6">
         <v>49569</v>
       </c>
-      <c r="H268" s="18">
+      <c r="H268" s="16">
         <v>1431776</v>
       </c>
-      <c r="I268" s="19"/>
-      <c r="J268" s="19"/>
-      <c r="K268" s="20"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="18"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269" s="16" t="s">
+      <c r="A269" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B269" s="17"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="3" t="s">
         <v>17</v>
       </c>
@@ -9135,18 +9136,18 @@
       <c r="G269" s="6">
         <v>51148</v>
       </c>
-      <c r="H269" s="18">
+      <c r="H269" s="16">
         <v>1382207</v>
       </c>
-      <c r="I269" s="19"/>
-      <c r="J269" s="19"/>
-      <c r="K269" s="20"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="18"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270" s="16" t="s">
+      <c r="A270" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B270" s="17"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="3" t="s">
         <v>262</v>
       </c>
@@ -9158,18 +9159,18 @@
       <c r="G270" s="6">
         <v>32809</v>
       </c>
-      <c r="H270" s="18">
+      <c r="H270" s="16">
         <v>1331059</v>
       </c>
-      <c r="I270" s="19"/>
-      <c r="J270" s="19"/>
-      <c r="K270" s="20"/>
+      <c r="I270" s="17"/>
+      <c r="J270" s="17"/>
+      <c r="K270" s="18"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" s="16" t="s">
+      <c r="A271" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B271" s="17"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="3" t="s">
         <v>263</v>
       </c>
@@ -9181,18 +9182,18 @@
       <c r="G271" s="6">
         <v>24139</v>
       </c>
-      <c r="H271" s="18">
+      <c r="H271" s="16">
         <v>1298250</v>
       </c>
-      <c r="I271" s="19"/>
-      <c r="J271" s="19"/>
-      <c r="K271" s="20"/>
+      <c r="I271" s="17"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="18"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272" s="16" t="s">
+      <c r="A272" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B272" s="17"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="3" t="s">
         <v>148</v>
       </c>
@@ -9204,18 +9205,18 @@
         <v>90000</v>
       </c>
       <c r="G272" s="6"/>
-      <c r="H272" s="18">
+      <c r="H272" s="16">
         <v>1274111</v>
       </c>
-      <c r="I272" s="19"/>
-      <c r="J272" s="19"/>
-      <c r="K272" s="20"/>
+      <c r="I272" s="17"/>
+      <c r="J272" s="17"/>
+      <c r="K272" s="18"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273" s="16" t="s">
+      <c r="A273" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B273" s="17"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="3" t="s">
         <v>149</v>
       </c>
@@ -9227,18 +9228,18 @@
         <v>95000</v>
       </c>
       <c r="G273" s="6"/>
-      <c r="H273" s="18">
+      <c r="H273" s="16">
         <v>1364111</v>
       </c>
-      <c r="I273" s="19"/>
-      <c r="J273" s="19"/>
-      <c r="K273" s="20"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="17"/>
+      <c r="K273" s="18"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="16" t="s">
+      <c r="A274" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B274" s="17"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="3" t="s">
         <v>150</v>
       </c>
@@ -9250,18 +9251,18 @@
         <v>700000</v>
       </c>
       <c r="G274" s="6"/>
-      <c r="H274" s="18">
+      <c r="H274" s="16">
         <v>1459111</v>
       </c>
-      <c r="I274" s="19"/>
-      <c r="J274" s="19"/>
-      <c r="K274" s="20"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="18"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" s="16" t="s">
+      <c r="A275" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B275" s="17"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="3" t="s">
         <v>219</v>
       </c>
@@ -9273,18 +9274,18 @@
       <c r="G275" s="6">
         <v>1581341</v>
       </c>
-      <c r="H275" s="18">
+      <c r="H275" s="16">
         <v>2159111</v>
       </c>
-      <c r="I275" s="19"/>
-      <c r="J275" s="19"/>
-      <c r="K275" s="20"/>
+      <c r="I275" s="17"/>
+      <c r="J275" s="17"/>
+      <c r="K275" s="18"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276" s="16" t="s">
+      <c r="A276" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B276" s="17"/>
+      <c r="B276" s="20"/>
       <c r="C276" s="3" t="s">
         <v>264</v>
       </c>
@@ -9296,18 +9297,18 @@
       <c r="G276" s="6">
         <v>49571</v>
       </c>
-      <c r="H276" s="18">
+      <c r="H276" s="16">
         <v>577770</v>
       </c>
-      <c r="I276" s="19"/>
-      <c r="J276" s="19"/>
-      <c r="K276" s="20"/>
+      <c r="I276" s="17"/>
+      <c r="J276" s="17"/>
+      <c r="K276" s="18"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277" s="16" t="s">
+      <c r="A277" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B277" s="17"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="3" t="s">
         <v>265</v>
       </c>
@@ -9319,18 +9320,18 @@
       <c r="G277" s="6">
         <v>23002</v>
       </c>
-      <c r="H277" s="18">
+      <c r="H277" s="16">
         <v>528199</v>
       </c>
-      <c r="I277" s="19"/>
-      <c r="J277" s="19"/>
-      <c r="K277" s="20"/>
+      <c r="I277" s="17"/>
+      <c r="J277" s="17"/>
+      <c r="K277" s="18"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278" s="16" t="s">
+      <c r="A278" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B278" s="17"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="3" t="s">
         <v>48</v>
       </c>
@@ -9342,18 +9343,18 @@
         <v>1089283</v>
       </c>
       <c r="G278" s="6"/>
-      <c r="H278" s="18">
+      <c r="H278" s="16">
         <v>505197</v>
       </c>
-      <c r="I278" s="19"/>
-      <c r="J278" s="19"/>
-      <c r="K278" s="20"/>
+      <c r="I278" s="17"/>
+      <c r="J278" s="17"/>
+      <c r="K278" s="18"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279" s="16" t="s">
+      <c r="A279" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B279" s="17"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="3" t="s">
         <v>152</v>
       </c>
@@ -9365,18 +9366,18 @@
         <v>11880</v>
       </c>
       <c r="G279" s="6"/>
-      <c r="H279" s="18">
+      <c r="H279" s="16">
         <v>1594480</v>
       </c>
-      <c r="I279" s="19"/>
-      <c r="J279" s="19"/>
-      <c r="K279" s="20"/>
+      <c r="I279" s="17"/>
+      <c r="J279" s="17"/>
+      <c r="K279" s="18"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A280" s="16" t="s">
+      <c r="A280" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B280" s="17"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="3" t="s">
         <v>153</v>
       </c>
@@ -9388,18 +9389,18 @@
         <v>831</v>
       </c>
       <c r="G280" s="6"/>
-      <c r="H280" s="18">
+      <c r="H280" s="16">
         <v>1606360</v>
       </c>
-      <c r="I280" s="19"/>
-      <c r="J280" s="19"/>
-      <c r="K280" s="20"/>
+      <c r="I280" s="17"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="18"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281" s="16" t="s">
+      <c r="A281" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B281" s="17"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="3" t="s">
         <v>135</v>
       </c>
@@ -9411,18 +9412,18 @@
       <c r="G281" s="6">
         <v>67964</v>
       </c>
-      <c r="H281" s="18">
+      <c r="H281" s="16">
         <v>1607191</v>
       </c>
-      <c r="I281" s="19"/>
-      <c r="J281" s="19"/>
-      <c r="K281" s="20"/>
+      <c r="I281" s="17"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="18"/>
     </row>
     <row r="282" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="16" t="s">
+      <c r="A282" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B282" s="17"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="3" t="s">
         <v>267</v>
       </c>
@@ -9434,18 +9435,18 @@
       <c r="G282" s="6">
         <v>69711</v>
       </c>
-      <c r="H282" s="18">
+      <c r="H282" s="16">
         <v>1539227</v>
       </c>
-      <c r="I282" s="19"/>
-      <c r="J282" s="19"/>
-      <c r="K282" s="20"/>
+      <c r="I282" s="17"/>
+      <c r="J282" s="17"/>
+      <c r="K282" s="18"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283" s="16" t="s">
+      <c r="A283" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B283" s="17"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="3" t="s">
         <v>143</v>
       </c>
@@ -9457,18 +9458,18 @@
         <v>13458</v>
       </c>
       <c r="G283" s="6"/>
-      <c r="H283" s="18">
+      <c r="H283" s="16">
         <v>1469516</v>
       </c>
-      <c r="I283" s="19"/>
-      <c r="J283" s="19"/>
-      <c r="K283" s="20"/>
+      <c r="I283" s="17"/>
+      <c r="J283" s="17"/>
+      <c r="K283" s="18"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" s="16" t="s">
+      <c r="A284" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B284" s="17"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="3" t="s">
         <v>143</v>
       </c>
@@ -9480,18 +9481,18 @@
         <v>7523</v>
       </c>
       <c r="G284" s="6"/>
-      <c r="H284" s="18">
+      <c r="H284" s="16">
         <v>1482974</v>
       </c>
-      <c r="I284" s="19"/>
-      <c r="J284" s="19"/>
-      <c r="K284" s="20"/>
+      <c r="I284" s="17"/>
+      <c r="J284" s="17"/>
+      <c r="K284" s="18"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285" s="16" t="s">
+      <c r="A285" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B285" s="17"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="3" t="s">
         <v>268</v>
       </c>
@@ -9503,18 +9504,18 @@
       <c r="G285" s="6">
         <v>70500</v>
       </c>
-      <c r="H285" s="18">
+      <c r="H285" s="16">
         <v>1490497</v>
       </c>
-      <c r="I285" s="19"/>
-      <c r="J285" s="19"/>
-      <c r="K285" s="20"/>
+      <c r="I285" s="17"/>
+      <c r="J285" s="17"/>
+      <c r="K285" s="18"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286" s="16" t="s">
+      <c r="A286" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B286" s="17"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="3" t="s">
         <v>269</v>
       </c>
@@ -9526,18 +9527,18 @@
       <c r="G286" s="6">
         <v>76468</v>
       </c>
-      <c r="H286" s="18">
+      <c r="H286" s="16">
         <v>1419997</v>
       </c>
-      <c r="I286" s="19"/>
-      <c r="J286" s="19"/>
-      <c r="K286" s="20"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="18"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287" s="16" t="s">
+      <c r="A287" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B287" s="17"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="3" t="s">
         <v>17</v>
       </c>
@@ -9549,18 +9550,18 @@
       <c r="G287" s="6">
         <v>180424</v>
       </c>
-      <c r="H287" s="18">
+      <c r="H287" s="16">
         <v>1343529</v>
       </c>
-      <c r="I287" s="19"/>
-      <c r="J287" s="19"/>
-      <c r="K287" s="20"/>
+      <c r="I287" s="17"/>
+      <c r="J287" s="17"/>
+      <c r="K287" s="18"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="16" t="s">
+      <c r="A288" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B288" s="17"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="3" t="s">
         <v>270</v>
       </c>
@@ -9572,18 +9573,18 @@
       <c r="G288" s="6">
         <v>32650</v>
       </c>
-      <c r="H288" s="18">
+      <c r="H288" s="16">
         <v>1163105</v>
       </c>
-      <c r="I288" s="19"/>
-      <c r="J288" s="19"/>
-      <c r="K288" s="20"/>
+      <c r="I288" s="17"/>
+      <c r="J288" s="17"/>
+      <c r="K288" s="18"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289" s="16" t="s">
+      <c r="A289" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B289" s="17"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="3" t="s">
         <v>154</v>
       </c>
@@ -9595,18 +9596,18 @@
       <c r="G289" s="6">
         <v>85497</v>
       </c>
-      <c r="H289" s="18">
+      <c r="H289" s="16">
         <v>1130455</v>
       </c>
-      <c r="I289" s="19"/>
-      <c r="J289" s="19"/>
-      <c r="K289" s="20"/>
+      <c r="I289" s="17"/>
+      <c r="J289" s="17"/>
+      <c r="K289" s="18"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A290" s="16" t="s">
+      <c r="A290" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B290" s="17"/>
+      <c r="B290" s="20"/>
       <c r="C290" s="3" t="s">
         <v>160</v>
       </c>
@@ -9618,18 +9619,18 @@
       <c r="G290" s="6">
         <v>683280</v>
       </c>
-      <c r="H290" s="18">
+      <c r="H290" s="16">
         <v>1044958</v>
       </c>
-      <c r="I290" s="19"/>
-      <c r="J290" s="19"/>
-      <c r="K290" s="20"/>
+      <c r="I290" s="17"/>
+      <c r="J290" s="17"/>
+      <c r="K290" s="18"/>
     </row>
     <row r="291" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="16" t="s">
+      <c r="A291" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="17"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="3" t="s">
         <v>271</v>
       </c>
@@ -9641,18 +9642,18 @@
       <c r="G291" s="6">
         <v>85737</v>
       </c>
-      <c r="H291" s="18">
+      <c r="H291" s="16">
         <v>361678</v>
       </c>
-      <c r="I291" s="19"/>
-      <c r="J291" s="19"/>
-      <c r="K291" s="20"/>
+      <c r="I291" s="17"/>
+      <c r="J291" s="17"/>
+      <c r="K291" s="18"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="16" t="s">
+      <c r="A292" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B292" s="17"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="3" t="s">
         <v>272</v>
       </c>
@@ -9664,18 +9665,18 @@
       <c r="G292" s="6">
         <v>68961</v>
       </c>
-      <c r="H292" s="18">
+      <c r="H292" s="16">
         <v>275941</v>
       </c>
-      <c r="I292" s="19"/>
-      <c r="J292" s="19"/>
-      <c r="K292" s="20"/>
+      <c r="I292" s="17"/>
+      <c r="J292" s="17"/>
+      <c r="K292" s="18"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="16" t="s">
+      <c r="A293" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B293" s="17"/>
+      <c r="B293" s="20"/>
       <c r="C293" s="3" t="s">
         <v>273</v>
       </c>
@@ -9687,18 +9688,18 @@
       <c r="G293" s="6">
         <v>16980</v>
       </c>
-      <c r="H293" s="18">
+      <c r="H293" s="16">
         <v>206980</v>
       </c>
-      <c r="I293" s="19"/>
-      <c r="J293" s="19"/>
-      <c r="K293" s="20"/>
+      <c r="I293" s="17"/>
+      <c r="J293" s="17"/>
+      <c r="K293" s="18"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="16" t="s">
+      <c r="A294" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B294" s="17"/>
+      <c r="B294" s="20"/>
       <c r="C294" s="3" t="s">
         <v>39</v>
       </c>
@@ -9710,18 +9711,18 @@
       <c r="G294" s="6">
         <v>190000</v>
       </c>
-      <c r="H294" s="18">
+      <c r="H294" s="16">
         <v>190000</v>
       </c>
-      <c r="I294" s="19"/>
-      <c r="J294" s="19"/>
-      <c r="K294" s="20"/>
+      <c r="I294" s="17"/>
+      <c r="J294" s="17"/>
+      <c r="K294" s="18"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="16" t="s">
+      <c r="A295" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B295" s="17"/>
+      <c r="B295" s="20"/>
       <c r="C295" s="3" t="s">
         <v>48</v>
       </c>
@@ -9733,18 +9734,18 @@
         <v>1189250</v>
       </c>
       <c r="G295" s="6"/>
-      <c r="H295" s="18">
+      <c r="H295" s="16">
         <v>0</v>
       </c>
-      <c r="I295" s="19"/>
-      <c r="J295" s="19"/>
-      <c r="K295" s="20"/>
+      <c r="I295" s="17"/>
+      <c r="J295" s="17"/>
+      <c r="K295" s="18"/>
     </row>
     <row r="296" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B296" s="17"/>
+      <c r="B296" s="20"/>
       <c r="C296" s="3" t="s">
         <v>275</v>
       </c>
@@ -9756,18 +9757,18 @@
       <c r="G296" s="6">
         <v>271356</v>
       </c>
-      <c r="H296" s="18">
+      <c r="H296" s="16">
         <v>1189250</v>
       </c>
-      <c r="I296" s="19"/>
-      <c r="J296" s="19"/>
-      <c r="K296" s="20"/>
+      <c r="I296" s="17"/>
+      <c r="J296" s="17"/>
+      <c r="K296" s="18"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297" s="16" t="s">
+      <c r="A297" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B297" s="17"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="3" t="s">
         <v>276</v>
       </c>
@@ -9779,18 +9780,18 @@
       <c r="G297" s="6">
         <v>39971</v>
       </c>
-      <c r="H297" s="18">
+      <c r="H297" s="16">
         <v>917894</v>
       </c>
-      <c r="I297" s="19"/>
-      <c r="J297" s="19"/>
-      <c r="K297" s="20"/>
+      <c r="I297" s="17"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="18"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="16" t="s">
+      <c r="A298" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B298" s="17"/>
+      <c r="B298" s="20"/>
       <c r="C298" s="3" t="s">
         <v>17</v>
       </c>
@@ -9802,18 +9803,18 @@
       <c r="G298" s="6">
         <v>309552</v>
       </c>
-      <c r="H298" s="18">
+      <c r="H298" s="16">
         <v>877923</v>
       </c>
-      <c r="I298" s="19"/>
-      <c r="J298" s="19"/>
-      <c r="K298" s="20"/>
+      <c r="I298" s="17"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="18"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="16" t="s">
+      <c r="A299" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B299" s="17"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="3" t="s">
         <v>277</v>
       </c>
@@ -9825,18 +9826,18 @@
       <c r="G299" s="6">
         <v>84151</v>
       </c>
-      <c r="H299" s="18">
+      <c r="H299" s="16">
         <v>568371</v>
       </c>
-      <c r="I299" s="19"/>
-      <c r="J299" s="19"/>
-      <c r="K299" s="20"/>
+      <c r="I299" s="17"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="18"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="16" t="s">
+      <c r="A300" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B300" s="17"/>
+      <c r="B300" s="20"/>
       <c r="C300" s="3" t="s">
         <v>278</v>
       </c>
@@ -9848,18 +9849,18 @@
       <c r="G300" s="6">
         <v>39466</v>
       </c>
-      <c r="H300" s="18">
+      <c r="H300" s="16">
         <v>484220</v>
       </c>
-      <c r="I300" s="19"/>
-      <c r="J300" s="19"/>
-      <c r="K300" s="20"/>
+      <c r="I300" s="17"/>
+      <c r="J300" s="17"/>
+      <c r="K300" s="18"/>
     </row>
     <row r="301" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="16" t="s">
+      <c r="A301" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B301" s="17"/>
+      <c r="B301" s="20"/>
       <c r="C301" s="3" t="s">
         <v>279</v>
       </c>
@@ -9871,18 +9872,18 @@
       <c r="G301" s="6">
         <v>395544</v>
       </c>
-      <c r="H301" s="18">
+      <c r="H301" s="16">
         <v>444754</v>
       </c>
-      <c r="I301" s="19"/>
-      <c r="J301" s="19"/>
-      <c r="K301" s="20"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="18"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="16" t="s">
+      <c r="A302" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B302" s="17"/>
+      <c r="B302" s="20"/>
       <c r="C302" s="3" t="s">
         <v>280</v>
       </c>
@@ -9894,21 +9895,617 @@
       <c r="G302" s="6">
         <v>49210</v>
       </c>
-      <c r="H302" s="18">
+      <c r="H302" s="16">
         <v>49210</v>
       </c>
-      <c r="I302" s="19"/>
-      <c r="J302" s="19"/>
-      <c r="K302" s="20"/>
+      <c r="I302" s="17"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L252" xr:uid="{31A3EDA2-BB1F-4DFF-9F34-B004576D5196}">
-    <filterColumn colId="0" showButton="0"/>
+  <autoFilter ref="A1:L302" xr:uid="{31A3EDA2-BB1F-4DFF-9F34-B004576D5196}">
+    <filterColumn colId="0" showButton="0">
+      <filters>
+        <filter val="01/07/2025"/>
+        <filter val="02/07/2025"/>
+        <filter val="03/07/2025"/>
+        <filter val="04/07/2025"/>
+        <filter val="07/07/2025"/>
+        <filter val="08/07/2025"/>
+        <filter val="09/07/2025"/>
+        <filter val="10/07/2025"/>
+        <filter val="11/07/2025"/>
+        <filter val="14/07/2025"/>
+        <filter val="15/07/2025"/>
+        <filter val="17/07/2025"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="605">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="H160:K160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="H161:K161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="H162:K162"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="H159:K159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="H166:K166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="H167:K167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="H163:K163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="H165:K165"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="H174:K174"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="H170:K170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="H184:K184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="H185:K185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="H186:K186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="H181:K181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="H182:K182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="H183:K183"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="H178:K178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="H179:K179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="H180:K180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H207:K207"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="H214:K214"/>
+    <mergeCell ref="H215:K215"/>
+    <mergeCell ref="H216:K216"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="H211:K211"/>
+    <mergeCell ref="H212:K212"/>
+    <mergeCell ref="H213:K213"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="H220:K220"/>
+    <mergeCell ref="H221:K221"/>
+    <mergeCell ref="H222:K222"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="H217:K217"/>
+    <mergeCell ref="H218:K218"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="H226:K226"/>
+    <mergeCell ref="H227:K227"/>
+    <mergeCell ref="H228:K228"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="H223:K223"/>
+    <mergeCell ref="H224:K224"/>
+    <mergeCell ref="H225:K225"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="H232:K232"/>
+    <mergeCell ref="H233:K233"/>
+    <mergeCell ref="H234:K234"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="H229:K229"/>
+    <mergeCell ref="H230:K230"/>
+    <mergeCell ref="H231:K231"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="H238:K238"/>
+    <mergeCell ref="H239:K239"/>
+    <mergeCell ref="H240:K240"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="H235:K235"/>
+    <mergeCell ref="H236:K236"/>
+    <mergeCell ref="H237:K237"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="H244:K244"/>
+    <mergeCell ref="H245:K245"/>
+    <mergeCell ref="H246:K246"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="H241:K241"/>
+    <mergeCell ref="H242:K242"/>
+    <mergeCell ref="H243:K243"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="H250:K250"/>
+    <mergeCell ref="H251:K251"/>
+    <mergeCell ref="H252:K252"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="H247:K247"/>
+    <mergeCell ref="H248:K248"/>
+    <mergeCell ref="H249:K249"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="H256:K256"/>
+    <mergeCell ref="H257:K257"/>
+    <mergeCell ref="H258:K258"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="H253:K253"/>
+    <mergeCell ref="H254:K254"/>
+    <mergeCell ref="H255:K255"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="H262:K262"/>
+    <mergeCell ref="H263:K263"/>
+    <mergeCell ref="H264:K264"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="H259:K259"/>
+    <mergeCell ref="H260:K260"/>
+    <mergeCell ref="H261:K261"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="H268:K268"/>
+    <mergeCell ref="H269:K269"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="H265:K265"/>
+    <mergeCell ref="H266:K266"/>
+    <mergeCell ref="H267:K267"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="H274:K274"/>
+    <mergeCell ref="H275:K275"/>
+    <mergeCell ref="H276:K276"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="H271:K271"/>
+    <mergeCell ref="H272:K272"/>
+    <mergeCell ref="H273:K273"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="H280:K280"/>
+    <mergeCell ref="H281:K281"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="H277:K277"/>
+    <mergeCell ref="H278:K278"/>
+    <mergeCell ref="H279:K279"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="H287:K287"/>
+    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="H292:K292"/>
+    <mergeCell ref="H293:K293"/>
+    <mergeCell ref="H294:K294"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="H289:K289"/>
+    <mergeCell ref="H290:K290"/>
+    <mergeCell ref="H291:K291"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="H298:K298"/>
+    <mergeCell ref="H299:K299"/>
+    <mergeCell ref="H300:K300"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="H295:K295"/>
+    <mergeCell ref="H296:K296"/>
+    <mergeCell ref="H297:K297"/>
     <mergeCell ref="H301:K301"/>
     <mergeCell ref="H302:K302"/>
     <mergeCell ref="A301:B301"/>
@@ -9933,587 +10530,6 @@
     <mergeCell ref="H204:K204"/>
     <mergeCell ref="A298:B298"/>
     <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="H298:K298"/>
-    <mergeCell ref="H299:K299"/>
-    <mergeCell ref="H300:K300"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="H295:K295"/>
-    <mergeCell ref="H296:K296"/>
-    <mergeCell ref="H297:K297"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="H292:K292"/>
-    <mergeCell ref="H293:K293"/>
-    <mergeCell ref="H294:K294"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="H289:K289"/>
-    <mergeCell ref="H290:K290"/>
-    <mergeCell ref="H291:K291"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="H287:K287"/>
-    <mergeCell ref="H288:K288"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H285:K285"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="H280:K280"/>
-    <mergeCell ref="H281:K281"/>
-    <mergeCell ref="H282:K282"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="H277:K277"/>
-    <mergeCell ref="H278:K278"/>
-    <mergeCell ref="H279:K279"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="H274:K274"/>
-    <mergeCell ref="H275:K275"/>
-    <mergeCell ref="H276:K276"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="H271:K271"/>
-    <mergeCell ref="H272:K272"/>
-    <mergeCell ref="H273:K273"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="H268:K268"/>
-    <mergeCell ref="H269:K269"/>
-    <mergeCell ref="H270:K270"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="H265:K265"/>
-    <mergeCell ref="H266:K266"/>
-    <mergeCell ref="H267:K267"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="H262:K262"/>
-    <mergeCell ref="H263:K263"/>
-    <mergeCell ref="H264:K264"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="H259:K259"/>
-    <mergeCell ref="H260:K260"/>
-    <mergeCell ref="H261:K261"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="H256:K256"/>
-    <mergeCell ref="H257:K257"/>
-    <mergeCell ref="H258:K258"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="H253:K253"/>
-    <mergeCell ref="H254:K254"/>
-    <mergeCell ref="H255:K255"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="H250:K250"/>
-    <mergeCell ref="H251:K251"/>
-    <mergeCell ref="H252:K252"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="H247:K247"/>
-    <mergeCell ref="H248:K248"/>
-    <mergeCell ref="H249:K249"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="H244:K244"/>
-    <mergeCell ref="H245:K245"/>
-    <mergeCell ref="H246:K246"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="H241:K241"/>
-    <mergeCell ref="H242:K242"/>
-    <mergeCell ref="H243:K243"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="H238:K238"/>
-    <mergeCell ref="H239:K239"/>
-    <mergeCell ref="H240:K240"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="H235:K235"/>
-    <mergeCell ref="H236:K236"/>
-    <mergeCell ref="H237:K237"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="H232:K232"/>
-    <mergeCell ref="H233:K233"/>
-    <mergeCell ref="H234:K234"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="H229:K229"/>
-    <mergeCell ref="H230:K230"/>
-    <mergeCell ref="H231:K231"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="H226:K226"/>
-    <mergeCell ref="H227:K227"/>
-    <mergeCell ref="H228:K228"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="H223:K223"/>
-    <mergeCell ref="H224:K224"/>
-    <mergeCell ref="H225:K225"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="H220:K220"/>
-    <mergeCell ref="H221:K221"/>
-    <mergeCell ref="H222:K222"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="H217:K217"/>
-    <mergeCell ref="H218:K218"/>
-    <mergeCell ref="H219:K219"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="H214:K214"/>
-    <mergeCell ref="H215:K215"/>
-    <mergeCell ref="H216:K216"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="H211:K211"/>
-    <mergeCell ref="H212:K212"/>
-    <mergeCell ref="H213:K213"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="H208:K208"/>
-    <mergeCell ref="H209:K209"/>
-    <mergeCell ref="H210:K210"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H207:K207"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="H184:K184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="H185:K185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="H186:K186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="H181:K181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="H182:K182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="H183:K183"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="H178:K178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="H179:K179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="H180:K180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="H174:K174"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="H170:K170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="H166:K166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="H167:K167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="H163:K163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="H164:K164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="H165:K165"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="H160:K160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="H161:K161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="H162:K162"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="H158:K158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="H159:K159"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="H151:K151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="H152:K152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="H149:K149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H150:K150"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="H131:K131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="H128:K128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10523,8 +10539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F4762B-1E5D-4D6A-A7AE-3EA1F18AF09E}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cartola_junio_2025.xlsx
+++ b/cartola_junio_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manager8\comunes\importacion\api_cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D1605-C525-4A0D-80C9-65B4F1817F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17031E1F-E1BC-4E8B-B05B-59CCF56A040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0B3DEB9-4C62-4D57-84BC-B1B8A40A9B47}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CARTOLA!$A$1:$L$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CARTOLA!$A$1:$L$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="303">
   <si>
     <t>Fecha</t>
   </si>
@@ -886,6 +886,72 @@
   </si>
   <si>
     <t>Traspaso De: Jorge Rodrigo Del Pozo Hoppe</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>Pago: Proveedores 0768348731</t>
+  </si>
+  <si>
+    <t>Traspaso De: Comunidad San Isidro Etapa Tres Y Cuatro</t>
+  </si>
+  <si>
+    <t>Traspaso De: Sociedad Odontologica B?b Limitada</t>
+  </si>
+  <si>
+    <t>Traspaso De: Congreg Misionera Siervas Del Espiritu S</t>
+  </si>
+  <si>
+    <t>Traspaso De: Nitidez Pro Spa</t>
+  </si>
+  <si>
+    <t>21/07/2025</t>
+  </si>
+  <si>
+    <t>Traspaso De: Panificadora La Reina Limitada</t>
+  </si>
+  <si>
+    <t>Traspaso De: Fundacion Ciencia Para La Vida</t>
+  </si>
+  <si>
+    <t>Traspaso De: Farias Y Compa#ia Limitada</t>
+  </si>
+  <si>
+    <t>Traspaso De: Sci Ingeneria Limitada</t>
+  </si>
+  <si>
+    <t>Traspaso De: Spartan De Chile Productos Quimicos Limitada</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>Traspaso De: Geinse Ingenieria Sociedad Anonima</t>
+  </si>
+  <si>
+    <t>Traspaso De: Comercial M ? C Limitada</t>
+  </si>
+  <si>
+    <t>Pago: Proveedores 0786349109</t>
+  </si>
+  <si>
+    <t>Pago: Proveedores 0770478499</t>
+  </si>
+  <si>
+    <t>Traspaso De: Satanama Technology Limitada</t>
+  </si>
+  <si>
+    <t>Traspaso De: Maderas Villarica Spa</t>
+  </si>
+  <si>
+    <t>Traspaso A: Imprimax Ltda</t>
+  </si>
+  <si>
+    <t>Pucon (c.s.)</t>
+  </si>
+  <si>
+    <t>4875065</t>
   </si>
 </sst>
 </file>
@@ -1727,11 +1793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3EDA2-BB1F-4DFF-9F34-B004576D5196}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N302"/>
+  <dimension ref="A1:N332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,7 +2480,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
@@ -2438,7 +2506,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +2532,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +2558,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2584,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2610,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -2568,7 +2636,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
@@ -2594,7 +2662,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2688,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2714,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
@@ -2698,7 +2766,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
@@ -2724,7 +2792,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
@@ -2750,7 +2818,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
@@ -2776,7 +2844,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
@@ -2802,7 +2870,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
@@ -2828,7 +2896,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
@@ -2854,7 +2922,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>23</v>
       </c>
@@ -2880,7 +2948,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
@@ -2906,7 +2974,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
@@ -2932,7 +3000,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
@@ -2958,7 +3026,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>23</v>
       </c>
@@ -2984,7 +3052,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -3010,7 +3078,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>23</v>
       </c>
@@ -3036,7 +3104,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
@@ -3062,7 +3130,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>23</v>
       </c>
@@ -3088,7 +3156,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>23</v>
       </c>
@@ -3114,7 +3182,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
@@ -3140,7 +3208,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
@@ -3166,7 +3234,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
@@ -3194,7 +3262,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>40</v>
       </c>
@@ -3220,7 +3288,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>40</v>
       </c>
@@ -3246,7 +3314,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>40</v>
       </c>
@@ -3272,7 +3340,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>40</v>
       </c>
@@ -3298,7 +3366,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>40</v>
       </c>
@@ -3324,7 +3392,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -3350,7 +3418,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>40</v>
       </c>
@@ -3376,7 +3444,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>40</v>
       </c>
@@ -3402,7 +3470,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
@@ -3428,7 +3496,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3522,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>47</v>
       </c>
@@ -3480,7 +3548,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>47</v>
       </c>
@@ -3506,7 +3574,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>47</v>
       </c>
@@ -3532,7 +3600,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>47</v>
       </c>
@@ -3558,7 +3626,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>47</v>
       </c>
@@ -3584,7 +3652,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>47</v>
       </c>
@@ -3610,7 +3678,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3704,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>47</v>
       </c>
@@ -3662,7 +3730,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>47</v>
       </c>
@@ -3688,7 +3756,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>47</v>
       </c>
@@ -3714,7 +3782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>58</v>
       </c>
@@ -3740,7 +3808,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>58</v>
       </c>
@@ -3766,7 +3834,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>58</v>
       </c>
@@ -3792,7 +3860,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>58</v>
       </c>
@@ -3818,7 +3886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>62</v>
       </c>
@@ -3844,7 +3912,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>62</v>
       </c>
@@ -3870,7 +3938,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>62</v>
       </c>
@@ -3896,7 +3964,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>62</v>
       </c>
@@ -3922,7 +3990,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>62</v>
       </c>
@@ -3948,7 +4016,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>62</v>
       </c>
@@ -3974,7 +4042,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>62</v>
       </c>
@@ -4000,7 +4068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>62</v>
       </c>
@@ -4026,7 +4094,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>62</v>
       </c>
@@ -4052,7 +4120,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>70</v>
       </c>
@@ -4078,7 +4146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>70</v>
       </c>
@@ -4106,7 +4174,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>70</v>
       </c>
@@ -4132,7 +4200,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>70</v>
       </c>
@@ -4158,7 +4226,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>70</v>
       </c>
@@ -4184,7 +4252,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>70</v>
       </c>
@@ -4210,7 +4278,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>70</v>
       </c>
@@ -4236,7 +4304,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>70</v>
       </c>
@@ -4262,7 +4330,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
         <v>78</v>
       </c>
@@ -4288,7 +4356,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>78</v>
       </c>
@@ -4314,7 +4382,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>78</v>
       </c>
@@ -4342,7 +4410,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>78</v>
       </c>
@@ -4368,7 +4436,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>78</v>
       </c>
@@ -4394,7 +4462,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>78</v>
       </c>
@@ -4420,7 +4488,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>85</v>
       </c>
@@ -4446,7 +4514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>85</v>
       </c>
@@ -4472,7 +4540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>85</v>
       </c>
@@ -4498,7 +4566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
         <v>85</v>
       </c>
@@ -4524,7 +4592,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>85</v>
       </c>
@@ -4550,7 +4618,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>85</v>
       </c>
@@ -4576,7 +4644,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>85</v>
       </c>
@@ -4602,7 +4670,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>85</v>
       </c>
@@ -4628,7 +4696,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>85</v>
       </c>
@@ -4654,7 +4722,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
         <v>93</v>
       </c>
@@ -4680,7 +4748,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>93</v>
       </c>
@@ -4706,7 +4774,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>93</v>
       </c>
@@ -4732,7 +4800,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>93</v>
       </c>
@@ -4758,7 +4826,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>93</v>
       </c>
@@ -4784,7 +4852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>93</v>
       </c>
@@ -4810,7 +4878,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>93</v>
       </c>
@@ -4836,7 +4904,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>93</v>
       </c>
@@ -4862,7 +4930,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
         <v>93</v>
       </c>
@@ -4888,7 +4956,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>93</v>
       </c>
@@ -4914,7 +4982,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>101</v>
       </c>
@@ -4940,7 +5008,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>101</v>
       </c>
@@ -4966,7 +5034,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>101</v>
       </c>
@@ -4992,7 +5060,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>101</v>
       </c>
@@ -5018,7 +5086,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
         <v>101</v>
       </c>
@@ -5044,7 +5112,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>101</v>
       </c>
@@ -5070,7 +5138,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>101</v>
       </c>
@@ -5096,7 +5164,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>101</v>
       </c>
@@ -5122,7 +5190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>101</v>
       </c>
@@ -5148,7 +5216,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>101</v>
       </c>
@@ -5174,7 +5242,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>101</v>
       </c>
@@ -5200,7 +5268,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>101</v>
       </c>
@@ -5226,7 +5294,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
         <v>110</v>
       </c>
@@ -5252,7 +5320,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>110</v>
       </c>
@@ -5280,7 +5348,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
         <v>110</v>
       </c>
@@ -5306,7 +5374,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
         <v>110</v>
       </c>
@@ -5332,7 +5400,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
         <v>110</v>
       </c>
@@ -5358,7 +5426,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
         <v>110</v>
       </c>
@@ -5384,7 +5452,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>110</v>
       </c>
@@ -5410,7 +5478,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>115</v>
       </c>
@@ -5436,7 +5504,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>115</v>
       </c>
@@ -5462,7 +5530,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>115</v>
       </c>
@@ -5488,7 +5556,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="19" t="s">
         <v>115</v>
       </c>
@@ -5516,7 +5584,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
         <v>115</v>
       </c>
@@ -5542,7 +5610,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="19" t="s">
         <v>115</v>
       </c>
@@ -5568,7 +5636,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
         <v>115</v>
       </c>
@@ -5594,7 +5662,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>115</v>
       </c>
@@ -5620,7 +5688,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
         <v>115</v>
       </c>
@@ -5646,7 +5714,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
         <v>115</v>
       </c>
@@ -5672,7 +5740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>115</v>
       </c>
@@ -5698,7 +5766,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="19" t="s">
         <v>123</v>
       </c>
@@ -5724,7 +5792,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>123</v>
       </c>
@@ -5750,7 +5818,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>123</v>
       </c>
@@ -5776,7 +5844,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>123</v>
       </c>
@@ -5802,7 +5870,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
         <v>123</v>
       </c>
@@ -5828,7 +5896,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
         <v>123</v>
       </c>
@@ -5854,7 +5922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
         <v>123</v>
       </c>
@@ -5880,7 +5948,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>123</v>
       </c>
@@ -5906,7 +5974,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
         <v>123</v>
       </c>
@@ -5932,7 +6000,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19" t="s">
         <v>130</v>
       </c>
@@ -5958,7 +6026,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19" t="s">
         <v>130</v>
       </c>
@@ -5984,7 +6052,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>130</v>
       </c>
@@ -6010,7 +6078,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19" t="s">
         <v>130</v>
       </c>
@@ -6036,7 +6104,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19" t="s">
         <v>134</v>
       </c>
@@ -6062,7 +6130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19" t="s">
         <v>134</v>
       </c>
@@ -6088,7 +6156,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>134</v>
       </c>
@@ -6114,7 +6182,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
         <v>134</v>
       </c>
@@ -6140,7 +6208,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>134</v>
       </c>
@@ -6166,7 +6234,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="19" t="s">
         <v>134</v>
       </c>
@@ -6192,7 +6260,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19" t="s">
         <v>134</v>
       </c>
@@ -6218,7 +6286,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="19" t="s">
         <v>134</v>
       </c>
@@ -6244,7 +6312,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19" t="s">
         <v>134</v>
       </c>
@@ -6270,7 +6338,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
         <v>134</v>
       </c>
@@ -6296,7 +6364,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>142</v>
       </c>
@@ -6322,7 +6390,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19" t="s">
         <v>142</v>
       </c>
@@ -6348,7 +6416,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="19" t="s">
         <v>142</v>
       </c>
@@ -6374,7 +6442,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="19" t="s">
         <v>142</v>
       </c>
@@ -6400,7 +6468,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19" t="s">
         <v>142</v>
       </c>
@@ -6426,7 +6494,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="19" t="s">
         <v>142</v>
       </c>
@@ -6452,7 +6520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19" t="s">
         <v>142</v>
       </c>
@@ -6478,7 +6546,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19" t="s">
         <v>147</v>
       </c>
@@ -6504,7 +6572,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19" t="s">
         <v>147</v>
       </c>
@@ -6530,7 +6598,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="19" t="s">
         <v>147</v>
       </c>
@@ -6556,7 +6624,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19" t="s">
         <v>147</v>
       </c>
@@ -6582,7 +6650,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="19" t="s">
         <v>147</v>
       </c>
@@ -6608,7 +6676,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
         <v>147</v>
       </c>
@@ -6634,7 +6702,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
         <v>147</v>
       </c>
@@ -6660,7 +6728,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>147</v>
       </c>
@@ -6686,7 +6754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="19" t="s">
         <v>147</v>
       </c>
@@ -6712,7 +6780,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19" t="s">
         <v>151</v>
       </c>
@@ -6738,7 +6806,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
         <v>151</v>
       </c>
@@ -6764,7 +6832,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19" t="s">
         <v>151</v>
       </c>
@@ -6790,7 +6858,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="19" t="s">
         <v>151</v>
       </c>
@@ -6816,7 +6884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19" t="s">
         <v>151</v>
       </c>
@@ -6842,7 +6910,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="19" t="s">
         <v>151</v>
       </c>
@@ -6868,7 +6936,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
         <v>151</v>
       </c>
@@ -6894,7 +6962,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="19" t="s">
         <v>151</v>
       </c>
@@ -6920,7 +6988,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
         <v>157</v>
       </c>
@@ -6946,7 +7014,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="19" t="s">
         <v>157</v>
       </c>
@@ -6972,7 +7040,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19" t="s">
         <v>157</v>
       </c>
@@ -6998,7 +7066,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19" t="s">
         <v>157</v>
       </c>
@@ -7024,7 +7092,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19" t="s">
         <v>157</v>
       </c>
@@ -7050,7 +7118,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19" t="s">
         <v>157</v>
       </c>
@@ -7076,7 +7144,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19" t="s">
         <v>157</v>
       </c>
@@ -7102,7 +7170,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="19" t="s">
         <v>157</v>
       </c>
@@ -7128,7 +7196,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
         <v>157</v>
       </c>
@@ -7154,7 +7222,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>157</v>
       </c>
@@ -7180,7 +7248,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
         <v>157</v>
       </c>
@@ -7206,7 +7274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
         <v>157</v>
       </c>
@@ -7232,82 +7300,84 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="19" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E187" s="5"/>
-      <c r="F187" s="6">
-        <v>7086521</v>
-      </c>
-      <c r="G187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6">
+        <v>83950</v>
+      </c>
       <c r="H187" s="16">
-        <v>657351</v>
+        <v>3821117</v>
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="17"/>
       <c r="K187" s="18"/>
     </row>
-    <row r="188" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="5"/>
+        <v>301</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6">
-        <v>141693</v>
+        <v>521220</v>
       </c>
       <c r="H188" s="16">
-        <v>7743872</v>
+        <v>3737167</v>
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
       <c r="K188" s="18"/>
     </row>
-    <row r="189" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="3" t="s">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E189" s="5"/>
-      <c r="F189" s="6">
-        <v>363278</v>
-      </c>
-      <c r="G189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6">
+        <v>19981</v>
+      </c>
       <c r="H189" s="16">
-        <v>7602179</v>
+        <v>3215947</v>
       </c>
       <c r="I189" s="17"/>
       <c r="J189" s="17"/>
       <c r="K189" s="18"/>
     </row>
-    <row r="190" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="3" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>11</v>
@@ -7315,45 +7385,45 @@
       <c r="E190" s="5"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6">
-        <v>5000000</v>
+        <v>52536</v>
       </c>
       <c r="H190" s="16">
-        <v>7965457</v>
+        <v>3195966</v>
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="17"/>
       <c r="K190" s="18"/>
     </row>
-    <row r="191" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="3" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E191" s="5"/>
-      <c r="F191" s="6">
-        <v>3500000</v>
-      </c>
-      <c r="G191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6">
+        <v>210736</v>
+      </c>
       <c r="H191" s="16">
-        <v>2965457</v>
+        <v>3143430</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
       <c r="K191" s="18"/>
     </row>
-    <row r="192" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="3" t="s">
-        <v>50</v>
+        <v>285</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>11</v>
@@ -7361,45 +7431,45 @@
       <c r="E192" s="5"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6">
-        <v>5000000</v>
+        <v>68819</v>
       </c>
       <c r="H192" s="16">
-        <v>6465457</v>
+        <v>2932694</v>
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="17"/>
       <c r="K192" s="18"/>
     </row>
-    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="19" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="3" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6">
-        <v>697760</v>
+        <v>60294</v>
       </c>
       <c r="H193" s="16">
-        <v>1465457</v>
+        <v>2863875</v>
       </c>
       <c r="I193" s="17"/>
       <c r="J193" s="17"/>
       <c r="K193" s="18"/>
     </row>
-    <row r="194" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="19" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="3" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>11</v>
@@ -7407,22 +7477,22 @@
       <c r="E194" s="5"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6">
-        <v>84345</v>
+        <v>65527</v>
       </c>
       <c r="H194" s="16">
-        <v>767697</v>
+        <v>2577113</v>
       </c>
       <c r="I194" s="17"/>
       <c r="J194" s="17"/>
       <c r="K194" s="18"/>
     </row>
-    <row r="195" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="19" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>11</v>
@@ -7430,22 +7500,22 @@
       <c r="E195" s="5"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6">
-        <v>66045</v>
+        <v>398650</v>
       </c>
       <c r="H195" s="16">
-        <v>683352</v>
+        <v>2511586</v>
       </c>
       <c r="I195" s="17"/>
       <c r="J195" s="17"/>
       <c r="K195" s="18"/>
     </row>
-    <row r="196" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="19" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="3" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>11</v>
@@ -7453,45 +7523,45 @@
       <c r="E196" s="5"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6">
-        <v>32550</v>
+        <v>134840</v>
       </c>
       <c r="H196" s="16">
-        <v>617307</v>
+        <v>2112936</v>
       </c>
       <c r="I196" s="17"/>
       <c r="J196" s="17"/>
       <c r="K196" s="18"/>
     </row>
-    <row r="197" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E197" s="5"/>
-      <c r="F197" s="6">
-        <v>1109468</v>
-      </c>
-      <c r="G197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6">
+        <v>48983</v>
+      </c>
       <c r="H197" s="16">
-        <v>584757</v>
+        <v>1978096</v>
       </c>
       <c r="I197" s="17"/>
       <c r="J197" s="17"/>
       <c r="K197" s="18"/>
     </row>
-    <row r="198" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="3" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>11</v>
@@ -7499,68 +7569,68 @@
       <c r="E198" s="5"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6">
-        <v>32650</v>
+        <v>50521</v>
       </c>
       <c r="H198" s="16">
-        <v>1694225</v>
+        <v>1929113</v>
       </c>
       <c r="I198" s="17"/>
       <c r="J198" s="17"/>
       <c r="K198" s="18"/>
     </row>
-    <row r="199" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="3" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6">
-        <v>214200</v>
+        <v>274418</v>
       </c>
       <c r="H199" s="16">
-        <v>1661575</v>
+        <v>1878592</v>
       </c>
       <c r="I199" s="17"/>
       <c r="J199" s="17"/>
       <c r="K199" s="18"/>
     </row>
-    <row r="200" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="3" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E200" s="5"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6">
-        <v>32650</v>
-      </c>
+      <c r="F200" s="6">
+        <v>4531905</v>
+      </c>
+      <c r="G200" s="6"/>
       <c r="H200" s="16">
-        <v>1447375</v>
+        <v>1604174</v>
       </c>
       <c r="I200" s="17"/>
       <c r="J200" s="17"/>
       <c r="K200" s="18"/>
     </row>
-    <row r="201" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="3" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>11</v>
@@ -7568,68 +7638,68 @@
       <c r="E201" s="5"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6">
-        <v>234056</v>
+        <v>4000000</v>
       </c>
       <c r="H201" s="16">
-        <v>1414725</v>
+        <v>6136079</v>
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
       <c r="K201" s="18"/>
     </row>
-    <row r="202" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="3" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E202" s="5"/>
-      <c r="F202" s="6">
-        <v>727429</v>
-      </c>
-      <c r="G202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6">
+        <v>88693</v>
+      </c>
       <c r="H202" s="16">
-        <v>1180669</v>
+        <v>2136079</v>
       </c>
       <c r="I202" s="17"/>
       <c r="J202" s="17"/>
       <c r="K202" s="18"/>
     </row>
-    <row r="203" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="3" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6">
-        <v>48184</v>
+        <v>151506</v>
       </c>
       <c r="H203" s="16">
-        <v>1908098</v>
+        <v>2047386</v>
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="17"/>
       <c r="K203" s="18"/>
     </row>
-    <row r="204" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>11</v>
@@ -7637,22 +7707,22 @@
       <c r="E204" s="5"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
-        <v>1783364</v>
+        <v>89250</v>
       </c>
       <c r="H204" s="16">
-        <v>1859914</v>
+        <v>1895880</v>
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="17"/>
       <c r="K204" s="18"/>
     </row>
-    <row r="205" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="3" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>11</v>
@@ -7660,137 +7730,137 @@
       <c r="E205" s="5"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6">
-        <v>76550</v>
+        <v>37599</v>
       </c>
       <c r="H205" s="16">
-        <v>76550</v>
+        <v>1806630</v>
       </c>
       <c r="I205" s="17"/>
       <c r="J205" s="17"/>
       <c r="K205" s="18"/>
     </row>
-    <row r="206" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="3" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E206" s="5"/>
-      <c r="F206" s="6">
-        <v>2519218</v>
-      </c>
-      <c r="G206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6">
+        <v>31310</v>
+      </c>
       <c r="H206" s="16">
-        <v>0</v>
+        <v>1769031</v>
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="17"/>
       <c r="K206" s="18"/>
     </row>
-    <row r="207" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6">
-        <v>55950</v>
+        <v>115710</v>
       </c>
       <c r="H207" s="16">
-        <v>2519218</v>
+        <v>1737721</v>
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="17"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="19" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="3" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E208" s="5"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6">
-        <v>23980</v>
-      </c>
+      <c r="F208" s="6">
+        <v>4288136</v>
+      </c>
+      <c r="G208" s="6"/>
       <c r="H208" s="16">
-        <v>2463268</v>
+        <v>1622011</v>
       </c>
       <c r="I208" s="17"/>
       <c r="J208" s="17"/>
       <c r="K208" s="18"/>
     </row>
-    <row r="209" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="19" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E209" s="5"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="6">
-        <v>497868</v>
-      </c>
+      <c r="F209" s="6">
+        <v>2384439</v>
+      </c>
+      <c r="G209" s="6"/>
       <c r="H209" s="16">
-        <v>2439288</v>
+        <v>5910147</v>
       </c>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
       <c r="K209" s="18"/>
     </row>
-    <row r="210" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="19" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="3" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6">
-        <v>659176</v>
+        <v>7000000</v>
       </c>
       <c r="H210" s="16">
-        <v>1941420</v>
+        <v>8294586</v>
       </c>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
       <c r="K210" s="18"/>
     </row>
-    <row r="211" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="3" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>18</v>
@@ -7798,68 +7868,68 @@
       <c r="E211" s="5"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6">
-        <v>1109774</v>
+        <v>349985</v>
       </c>
       <c r="H211" s="16">
-        <v>1282244</v>
+        <v>1294586</v>
       </c>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
       <c r="K211" s="18"/>
     </row>
-    <row r="212" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="3" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6">
-        <v>172470</v>
+        <v>133558</v>
       </c>
       <c r="H212" s="16">
-        <v>172470</v>
+        <v>944601</v>
       </c>
       <c r="I212" s="17"/>
       <c r="J212" s="17"/>
       <c r="K212" s="18"/>
     </row>
-    <row r="213" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E213" s="5"/>
-      <c r="F213" s="6">
-        <v>1125684</v>
-      </c>
-      <c r="G213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6">
+        <v>103928</v>
+      </c>
       <c r="H213" s="16">
-        <v>0</v>
+        <v>811043</v>
       </c>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
       <c r="K213" s="18"/>
     </row>
-    <row r="214" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="19" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="3" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>11</v>
@@ -7867,22 +7937,22 @@
       <c r="E214" s="5"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6">
-        <v>151560</v>
+        <v>109745</v>
       </c>
       <c r="H214" s="16">
-        <v>1125684</v>
+        <v>707115</v>
       </c>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
       <c r="K214" s="18"/>
     </row>
-    <row r="215" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="3" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>11</v>
@@ -7890,64 +7960,64 @@
       <c r="E215" s="5"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6">
-        <v>160865</v>
+        <v>51779</v>
       </c>
       <c r="H215" s="16">
-        <v>974124</v>
+        <v>597370</v>
       </c>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
       <c r="K215" s="18"/>
     </row>
-    <row r="216" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E216" s="5"/>
-      <c r="F216" s="6"/>
-      <c r="G216" s="6">
-        <v>71400</v>
-      </c>
+      <c r="F216" s="6">
+        <v>111760</v>
+      </c>
+      <c r="G216" s="6"/>
       <c r="H216" s="16">
-        <v>813259</v>
+        <v>545591</v>
       </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
       <c r="K216" s="18"/>
     </row>
-    <row r="217" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="6">
-        <v>4404954</v>
+        <v>7086521</v>
       </c>
       <c r="G217" s="6"/>
       <c r="H217" s="16">
-        <v>741859</v>
+        <v>657351</v>
       </c>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
       <c r="K217" s="18"/>
     </row>
-    <row r="218" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="3" t="s">
@@ -7959,91 +8029,91 @@
       <c r="E218" s="5"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6">
-        <v>119851</v>
+        <v>141693</v>
       </c>
       <c r="H218" s="16">
-        <v>5146813</v>
+        <v>7743872</v>
       </c>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
       <c r="K218" s="18"/>
     </row>
-    <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="3" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E219" s="5"/>
-      <c r="F219" s="6"/>
-      <c r="G219" s="6">
-        <v>208250</v>
-      </c>
+      <c r="F219" s="6">
+        <v>363278</v>
+      </c>
+      <c r="G219" s="6"/>
       <c r="H219" s="16">
-        <v>5026962</v>
+        <v>7602179</v>
       </c>
       <c r="I219" s="17"/>
       <c r="J219" s="17"/>
       <c r="K219" s="18"/>
     </row>
-    <row r="220" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="3" t="s">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6">
-        <v>73763</v>
+        <v>5000000</v>
       </c>
       <c r="H220" s="16">
-        <v>4818712</v>
+        <v>7965457</v>
       </c>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
       <c r="K220" s="18"/>
     </row>
-    <row r="221" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="3" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E221" s="5"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="6">
-        <v>4559047</v>
-      </c>
+      <c r="F221" s="6">
+        <v>3500000</v>
+      </c>
+      <c r="G221" s="6"/>
       <c r="H221" s="16">
-        <v>4744949</v>
+        <v>2965457</v>
       </c>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
       <c r="K221" s="18"/>
     </row>
-    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="3" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>11</v>
@@ -8051,45 +8121,45 @@
       <c r="E222" s="5"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6">
-        <v>46830</v>
+        <v>5000000</v>
       </c>
       <c r="H222" s="16">
-        <v>185902</v>
+        <v>6465457</v>
       </c>
       <c r="I222" s="17"/>
       <c r="J222" s="17"/>
       <c r="K222" s="18"/>
     </row>
-    <row r="223" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6">
-        <v>39971</v>
+        <v>697760</v>
       </c>
       <c r="H223" s="16">
-        <v>139072</v>
+        <v>1465457</v>
       </c>
       <c r="I223" s="17"/>
       <c r="J223" s="17"/>
       <c r="K223" s="18"/>
     </row>
-    <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="3" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>11</v>
@@ -8097,22 +8167,22 @@
       <c r="E224" s="5"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6">
-        <v>38381</v>
+        <v>84345</v>
       </c>
       <c r="H224" s="16">
-        <v>99101</v>
+        <v>767697</v>
       </c>
       <c r="I224" s="17"/>
       <c r="J224" s="17"/>
       <c r="K224" s="18"/>
     </row>
-    <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="19" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>11</v>
@@ -8120,68 +8190,68 @@
       <c r="E225" s="5"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6">
-        <v>60720</v>
+        <v>66045</v>
       </c>
       <c r="H225" s="16">
-        <v>60720</v>
+        <v>683352</v>
       </c>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
       <c r="K225" s="18"/>
     </row>
-    <row r="226" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="19" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6">
-        <v>2492912</v>
+        <v>32550</v>
       </c>
       <c r="H226" s="16">
-        <v>0</v>
+        <v>617307</v>
       </c>
       <c r="I226" s="17"/>
       <c r="J226" s="17"/>
       <c r="K226" s="18"/>
     </row>
-    <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="3" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="6">
-        <v>2654673</v>
+        <v>1109468</v>
       </c>
       <c r="G227" s="6"/>
       <c r="H227" s="16">
-        <v>-2492912</v>
+        <v>584757</v>
       </c>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
       <c r="K227" s="18"/>
     </row>
-    <row r="228" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>11</v>
@@ -8189,22 +8259,22 @@
       <c r="E228" s="5"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6">
-        <v>373257</v>
+        <v>32650</v>
       </c>
       <c r="H228" s="16">
-        <v>161761</v>
+        <v>1694225</v>
       </c>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
       <c r="K228" s="18"/>
     </row>
-    <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>11</v>
@@ -8212,22 +8282,22 @@
       <c r="E229" s="5"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6">
-        <v>323778</v>
+        <v>214200</v>
       </c>
       <c r="H229" s="16">
-        <v>-211496</v>
+        <v>1661575</v>
       </c>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
       <c r="K229" s="18"/>
     </row>
-    <row r="230" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>11</v>
@@ -8235,22 +8305,22 @@
       <c r="E230" s="5"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6">
-        <v>44625</v>
+        <v>32650</v>
       </c>
       <c r="H230" s="16">
-        <v>-535274</v>
+        <v>1447375</v>
       </c>
       <c r="I230" s="17"/>
       <c r="J230" s="17"/>
       <c r="K230" s="18"/>
     </row>
-    <row r="231" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>11</v>
@@ -8258,93 +8328,91 @@
       <c r="E231" s="5"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6">
-        <v>179452</v>
+        <v>234056</v>
       </c>
       <c r="H231" s="16">
-        <v>-579899</v>
+        <v>1414725</v>
       </c>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
       <c r="K231" s="18"/>
     </row>
-    <row r="232" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="3" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E232" s="5"/>
-      <c r="F232" s="6"/>
-      <c r="G232" s="6">
-        <v>43937</v>
-      </c>
+      <c r="F232" s="6">
+        <v>727429</v>
+      </c>
+      <c r="G232" s="6"/>
       <c r="H232" s="16">
-        <v>-759351</v>
+        <v>1180669</v>
       </c>
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
       <c r="K232" s="18"/>
     </row>
-    <row r="233" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E233" s="5"/>
-      <c r="F233" s="6">
-        <v>955065</v>
-      </c>
-      <c r="G233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6">
+        <v>48184</v>
+      </c>
       <c r="H233" s="16">
-        <v>-803288</v>
+        <v>1908098</v>
       </c>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
       <c r="K233" s="18"/>
     </row>
-    <row r="234" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="3" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>236</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E234" s="5"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6">
-        <v>112560</v>
+        <v>1783364</v>
       </c>
       <c r="H234" s="16">
-        <v>151777</v>
+        <v>1859914</v>
       </c>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
       <c r="K234" s="18"/>
     </row>
-    <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="19" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="3" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>11</v>
@@ -8352,45 +8420,45 @@
       <c r="E235" s="5"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6">
-        <v>95025</v>
+        <v>76550</v>
       </c>
       <c r="H235" s="16">
-        <v>39217</v>
+        <v>76550</v>
       </c>
       <c r="I235" s="17"/>
       <c r="J235" s="17"/>
       <c r="K235" s="18"/>
     </row>
-    <row r="236" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="3" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E236" s="5"/>
       <c r="F236" s="6">
-        <v>1500000</v>
+        <v>2519218</v>
       </c>
       <c r="G236" s="6"/>
       <c r="H236" s="16">
-        <v>-55808</v>
+        <v>0</v>
       </c>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
       <c r="K236" s="18"/>
     </row>
-    <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>11</v>
@@ -8398,22 +8466,22 @@
       <c r="E237" s="5"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6">
-        <v>500000</v>
+        <v>55950</v>
       </c>
       <c r="H237" s="16">
-        <v>1444192</v>
+        <v>2519218</v>
       </c>
       <c r="I237" s="17"/>
       <c r="J237" s="17"/>
       <c r="K237" s="18"/>
     </row>
-    <row r="238" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="3" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>11</v>
@@ -8421,91 +8489,91 @@
       <c r="E238" s="5"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6">
-        <v>944192</v>
+        <v>23980</v>
       </c>
       <c r="H238" s="16">
-        <v>944192</v>
+        <v>2463268</v>
       </c>
       <c r="I238" s="17"/>
       <c r="J238" s="17"/>
       <c r="K238" s="18"/>
     </row>
-    <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6">
-        <v>45000</v>
+        <v>497868</v>
       </c>
       <c r="H239" s="16">
-        <v>0</v>
+        <v>2439288</v>
       </c>
       <c r="I239" s="17"/>
       <c r="J239" s="17"/>
       <c r="K239" s="18"/>
     </row>
-    <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E240" s="5"/>
-      <c r="F240" s="6">
-        <v>45000</v>
-      </c>
-      <c r="G240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6">
+        <v>659176</v>
+      </c>
       <c r="H240" s="16">
-        <v>-45000</v>
+        <v>1941420</v>
       </c>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
       <c r="K240" s="18"/>
     </row>
-    <row r="241" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="19" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="3" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E241" s="5"/>
-      <c r="F241" s="6">
-        <v>279217</v>
-      </c>
-      <c r="G241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6">
+        <v>1109774</v>
+      </c>
       <c r="H241" s="16">
-        <v>0</v>
+        <v>1282244</v>
       </c>
       <c r="I241" s="17"/>
       <c r="J241" s="17"/>
       <c r="K241" s="18"/>
     </row>
-    <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="19" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>11</v>
@@ -8513,45 +8581,45 @@
       <c r="E242" s="5"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6">
-        <v>26500</v>
+        <v>172470</v>
       </c>
       <c r="H242" s="16">
-        <v>279217</v>
+        <v>172470</v>
       </c>
       <c r="I242" s="17"/>
       <c r="J242" s="17"/>
       <c r="K242" s="18"/>
     </row>
-    <row r="243" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="19" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="3" t="s">
-        <v>242</v>
+        <v>48</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E243" s="5"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="6">
-        <v>107939</v>
-      </c>
+      <c r="F243" s="6">
+        <v>1125684</v>
+      </c>
+      <c r="G243" s="6"/>
       <c r="H243" s="16">
-        <v>252717</v>
+        <v>0</v>
       </c>
       <c r="I243" s="17"/>
       <c r="J243" s="17"/>
       <c r="K243" s="18"/>
     </row>
-    <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="19" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>11</v>
@@ -8559,45 +8627,45 @@
       <c r="E244" s="5"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6">
-        <v>144778</v>
+        <v>151560</v>
       </c>
       <c r="H244" s="16">
-        <v>144778</v>
+        <v>1125684</v>
       </c>
       <c r="I244" s="17"/>
       <c r="J244" s="17"/>
       <c r="K244" s="18"/>
     </row>
-    <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="19" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="3" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6">
-        <v>2495675</v>
+        <v>160865</v>
       </c>
       <c r="H245" s="16">
-        <v>0</v>
+        <v>974124</v>
       </c>
       <c r="I245" s="17"/>
       <c r="J245" s="17"/>
       <c r="K245" s="18"/>
     </row>
-    <row r="246" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="19" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="3" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>11</v>
@@ -8605,114 +8673,114 @@
       <c r="E246" s="5"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6">
-        <v>97618</v>
+        <v>71400</v>
       </c>
       <c r="H246" s="16">
-        <v>-2495675</v>
+        <v>813259</v>
       </c>
       <c r="I246" s="17"/>
       <c r="J246" s="17"/>
       <c r="K246" s="18"/>
     </row>
-    <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="19" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="3" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E247" s="5"/>
-      <c r="F247" s="6"/>
-      <c r="G247" s="6">
-        <v>92860</v>
-      </c>
+      <c r="F247" s="6">
+        <v>4404954</v>
+      </c>
+      <c r="G247" s="6"/>
       <c r="H247" s="16">
-        <v>-2593293</v>
+        <v>741859</v>
       </c>
       <c r="I247" s="17"/>
       <c r="J247" s="17"/>
       <c r="K247" s="18"/>
     </row>
-    <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="19" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E248" s="5"/>
-      <c r="F248" s="6">
-        <v>3872562</v>
-      </c>
-      <c r="G248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6">
+        <v>119851</v>
+      </c>
       <c r="H248" s="16">
-        <v>-2686153</v>
+        <v>5146813</v>
       </c>
       <c r="I248" s="17"/>
       <c r="J248" s="17"/>
       <c r="K248" s="18"/>
     </row>
-    <row r="249" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="19" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="3" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E249" s="5"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6">
-        <v>156873</v>
+        <v>208250</v>
       </c>
       <c r="H249" s="16">
-        <v>1186409</v>
+        <v>5026962</v>
       </c>
       <c r="I249" s="17"/>
       <c r="J249" s="17"/>
       <c r="K249" s="18"/>
     </row>
-    <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="19" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="3" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E250" s="5"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6">
-        <v>64259</v>
+        <v>73763</v>
       </c>
       <c r="H250" s="16">
-        <v>1029536</v>
+        <v>4818712</v>
       </c>
       <c r="I250" s="17"/>
       <c r="J250" s="17"/>
       <c r="K250" s="18"/>
     </row>
-    <row r="251" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="19" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="3" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>18</v>
@@ -8720,22 +8788,22 @@
       <c r="E251" s="5"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6">
-        <v>18760</v>
+        <v>4559047</v>
       </c>
       <c r="H251" s="16">
-        <v>965277</v>
+        <v>4744949</v>
       </c>
       <c r="I251" s="17"/>
       <c r="J251" s="17"/>
       <c r="K251" s="18"/>
     </row>
-    <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="19" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="3" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>11</v>
@@ -8743,10 +8811,10 @@
       <c r="E252" s="5"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6">
-        <v>57963</v>
+        <v>46830</v>
       </c>
       <c r="H252" s="16">
-        <v>946517</v>
+        <v>185902</v>
       </c>
       <c r="I252" s="17"/>
       <c r="J252" s="17"/>
@@ -8754,11 +8822,11 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="19" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="3" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>11</v>
@@ -8766,10 +8834,10 @@
       <c r="E253" s="5"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6">
-        <v>98515</v>
+        <v>39971</v>
       </c>
       <c r="H253" s="16">
-        <v>888554</v>
+        <v>139072</v>
       </c>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
@@ -8777,34 +8845,34 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="19" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="3" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E254" s="5"/>
-      <c r="F254" s="6">
-        <v>1428282</v>
-      </c>
-      <c r="G254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6">
+        <v>38381</v>
+      </c>
       <c r="H254" s="16">
-        <v>790039</v>
+        <v>99101</v>
       </c>
       <c r="I254" s="17"/>
       <c r="J254" s="17"/>
       <c r="K254" s="18"/>
     </row>
-    <row r="255" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="19" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="3" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>11</v>
@@ -8812,10 +8880,10 @@
       <c r="E255" s="5"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6">
-        <v>80649</v>
+        <v>60720</v>
       </c>
       <c r="H255" s="16">
-        <v>2218321</v>
+        <v>60720</v>
       </c>
       <c r="I255" s="17"/>
       <c r="J255" s="17"/>
@@ -8823,22 +8891,22 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="3" t="s">
-        <v>254</v>
+        <v>8</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E256" s="5"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6">
-        <v>45000</v>
+        <v>2492912</v>
       </c>
       <c r="H256" s="16">
-        <v>2137672</v>
+        <v>0</v>
       </c>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
@@ -8846,34 +8914,34 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E257" s="5"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6">
-        <v>63353</v>
-      </c>
+      <c r="F257" s="6">
+        <v>2654673</v>
+      </c>
+      <c r="G257" s="6"/>
       <c r="H257" s="16">
-        <v>2092672</v>
+        <v>-2492912</v>
       </c>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
       <c r="K257" s="18"/>
     </row>
-    <row r="258" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>11</v>
@@ -8881,10 +8949,10 @@
       <c r="E258" s="5"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6">
-        <v>1874250</v>
+        <v>373257</v>
       </c>
       <c r="H258" s="16">
-        <v>2029319</v>
+        <v>161761</v>
       </c>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
@@ -8892,11 +8960,11 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>11</v>
@@ -8904,10 +8972,10 @@
       <c r="E259" s="5"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6">
-        <v>64919</v>
+        <v>323778</v>
       </c>
       <c r="H259" s="16">
-        <v>155069</v>
+        <v>-211496</v>
       </c>
       <c r="I259" s="17"/>
       <c r="J259" s="17"/>
@@ -8915,11 +8983,11 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="3" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>11</v>
@@ -8927,10 +8995,10 @@
       <c r="E260" s="5"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6">
-        <v>78970</v>
+        <v>44625</v>
       </c>
       <c r="H260" s="16">
-        <v>90150</v>
+        <v>-535274</v>
       </c>
       <c r="I260" s="17"/>
       <c r="J260" s="17"/>
@@ -8938,11 +9006,11 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="3" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>11</v>
@@ -8950,10 +9018,10 @@
       <c r="E261" s="5"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6">
-        <v>22950</v>
+        <v>179452</v>
       </c>
       <c r="H261" s="16">
-        <v>11180</v>
+        <v>-579899</v>
       </c>
       <c r="I261" s="17"/>
       <c r="J261" s="17"/>
@@ -8961,22 +9029,22 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="3" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E262" s="5"/>
-      <c r="F262" s="6">
-        <v>160000</v>
-      </c>
-      <c r="G262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6">
+        <v>43937</v>
+      </c>
       <c r="H262" s="16">
-        <v>-11770</v>
+        <v>-759351</v>
       </c>
       <c r="I262" s="17"/>
       <c r="J262" s="17"/>
@@ -8984,22 +9052,22 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="3" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E263" s="5"/>
-      <c r="F263" s="6"/>
-      <c r="G263" s="6">
-        <v>114240</v>
-      </c>
+      <c r="F263" s="6">
+        <v>955065</v>
+      </c>
+      <c r="G263" s="6"/>
       <c r="H263" s="16">
-        <v>148230</v>
+        <v>-803288</v>
       </c>
       <c r="I263" s="17"/>
       <c r="J263" s="17"/>
@@ -9007,22 +9075,24 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="19" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="3" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E264" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="F264" s="6"/>
       <c r="G264" s="6">
-        <v>33990</v>
+        <v>112560</v>
       </c>
       <c r="H264" s="16">
-        <v>33990</v>
+        <v>151777</v>
       </c>
       <c r="I264" s="17"/>
       <c r="J264" s="17"/>
@@ -9030,22 +9100,22 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="19" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="3" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E265" s="5"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6">
-        <v>1428282</v>
+        <v>95025</v>
       </c>
       <c r="H265" s="16">
-        <v>0</v>
+        <v>39217</v>
       </c>
       <c r="I265" s="17"/>
       <c r="J265" s="17"/>
@@ -9053,22 +9123,22 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="19" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="3" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E266" s="5"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="6">
-        <v>39979</v>
-      </c>
+      <c r="F266" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="G266" s="6"/>
       <c r="H266" s="16">
-        <v>-1428282</v>
+        <v>-55808</v>
       </c>
       <c r="I266" s="17"/>
       <c r="J266" s="17"/>
@@ -9076,22 +9146,22 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="19" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E267" s="5"/>
-      <c r="F267" s="6">
-        <v>2900037</v>
-      </c>
-      <c r="G267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6">
+        <v>500000</v>
+      </c>
       <c r="H267" s="16">
-        <v>-1468261</v>
+        <v>1444192</v>
       </c>
       <c r="I267" s="17"/>
       <c r="J267" s="17"/>
@@ -9099,11 +9169,11 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="19" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="3" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>11</v>
@@ -9111,10 +9181,10 @@
       <c r="E268" s="5"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6">
-        <v>49569</v>
+        <v>944192</v>
       </c>
       <c r="H268" s="16">
-        <v>1431776</v>
+        <v>944192</v>
       </c>
       <c r="I268" s="17"/>
       <c r="J268" s="17"/>
@@ -9122,22 +9192,22 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="19" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6">
-        <v>51148</v>
+        <v>45000</v>
       </c>
       <c r="H269" s="16">
-        <v>1382207</v>
+        <v>0</v>
       </c>
       <c r="I269" s="17"/>
       <c r="J269" s="17"/>
@@ -9145,22 +9215,22 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="19" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="3" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E270" s="5"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6">
-        <v>32809</v>
-      </c>
+      <c r="F270" s="6">
+        <v>45000</v>
+      </c>
+      <c r="G270" s="6"/>
       <c r="H270" s="16">
-        <v>1331059</v>
+        <v>-45000</v>
       </c>
       <c r="I270" s="17"/>
       <c r="J270" s="17"/>
@@ -9168,22 +9238,22 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="3" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E271" s="5"/>
-      <c r="F271" s="6"/>
-      <c r="G271" s="6">
-        <v>24139</v>
-      </c>
+      <c r="F271" s="6">
+        <v>279217</v>
+      </c>
+      <c r="G271" s="6"/>
       <c r="H271" s="16">
-        <v>1298250</v>
+        <v>0</v>
       </c>
       <c r="I271" s="17"/>
       <c r="J271" s="17"/>
@@ -9191,22 +9261,22 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="19" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="3" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E272" s="5"/>
-      <c r="F272" s="6">
-        <v>90000</v>
-      </c>
-      <c r="G272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6">
+        <v>26500</v>
+      </c>
       <c r="H272" s="16">
-        <v>1274111</v>
+        <v>279217</v>
       </c>
       <c r="I272" s="17"/>
       <c r="J272" s="17"/>
@@ -9214,22 +9284,22 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="19" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="3" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E273" s="5"/>
-      <c r="F273" s="6">
-        <v>95000</v>
-      </c>
-      <c r="G273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6">
+        <v>107939</v>
+      </c>
       <c r="H273" s="16">
-        <v>1364111</v>
+        <v>252717</v>
       </c>
       <c r="I273" s="17"/>
       <c r="J273" s="17"/>
@@ -9237,22 +9307,22 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="19" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="3" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E274" s="5"/>
-      <c r="F274" s="6">
-        <v>700000</v>
-      </c>
-      <c r="G274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6">
+        <v>144778</v>
+      </c>
       <c r="H274" s="16">
-        <v>1459111</v>
+        <v>144778</v>
       </c>
       <c r="I274" s="17"/>
       <c r="J274" s="17"/>
@@ -9260,22 +9330,22 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="3" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6">
-        <v>1581341</v>
+        <v>2495675</v>
       </c>
       <c r="H275" s="16">
-        <v>2159111</v>
+        <v>0</v>
       </c>
       <c r="I275" s="17"/>
       <c r="J275" s="17"/>
@@ -9283,11 +9353,11 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>11</v>
@@ -9295,10 +9365,10 @@
       <c r="E276" s="5"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6">
-        <v>49571</v>
+        <v>97618</v>
       </c>
       <c r="H276" s="16">
-        <v>577770</v>
+        <v>-2495675</v>
       </c>
       <c r="I276" s="17"/>
       <c r="J276" s="17"/>
@@ -9306,11 +9376,11 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="3" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>11</v>
@@ -9318,10 +9388,10 @@
       <c r="E277" s="5"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6">
-        <v>23002</v>
+        <v>92860</v>
       </c>
       <c r="H277" s="16">
-        <v>528199</v>
+        <v>-2593293</v>
       </c>
       <c r="I277" s="17"/>
       <c r="J277" s="17"/>
@@ -9329,22 +9399,22 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="19" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="6">
-        <v>1089283</v>
+        <v>3872562</v>
       </c>
       <c r="G278" s="6"/>
       <c r="H278" s="16">
-        <v>505197</v>
+        <v>-2686153</v>
       </c>
       <c r="I278" s="17"/>
       <c r="J278" s="17"/>
@@ -9352,22 +9422,22 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="19" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="3" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E279" s="5"/>
-      <c r="F279" s="6">
-        <v>11880</v>
-      </c>
-      <c r="G279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6">
+        <v>156873</v>
+      </c>
       <c r="H279" s="16">
-        <v>1594480</v>
+        <v>1186409</v>
       </c>
       <c r="I279" s="17"/>
       <c r="J279" s="17"/>
@@ -9375,22 +9445,22 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="19" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="3" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E280" s="5"/>
-      <c r="F280" s="6">
-        <v>831</v>
-      </c>
-      <c r="G280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6">
+        <v>64259</v>
+      </c>
       <c r="H280" s="16">
-        <v>1606360</v>
+        <v>1029536</v>
       </c>
       <c r="I280" s="17"/>
       <c r="J280" s="17"/>
@@ -9398,11 +9468,11 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="19" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="3" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>18</v>
@@ -9410,22 +9480,22 @@
       <c r="E281" s="5"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6">
-        <v>67964</v>
+        <v>18760</v>
       </c>
       <c r="H281" s="16">
-        <v>1607191</v>
+        <v>965277</v>
       </c>
       <c r="I281" s="17"/>
       <c r="J281" s="17"/>
       <c r="K281" s="18"/>
     </row>
-    <row r="282" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="19" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="3" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>11</v>
@@ -9433,10 +9503,10 @@
       <c r="E282" s="5"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6">
-        <v>69711</v>
+        <v>57963</v>
       </c>
       <c r="H282" s="16">
-        <v>1539227</v>
+        <v>946517</v>
       </c>
       <c r="I282" s="17"/>
       <c r="J282" s="17"/>
@@ -9444,22 +9514,22 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="19" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="3" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E283" s="5"/>
-      <c r="F283" s="6">
-        <v>13458</v>
-      </c>
-      <c r="G283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6">
+        <v>98515</v>
+      </c>
       <c r="H283" s="16">
-        <v>1469516</v>
+        <v>888554</v>
       </c>
       <c r="I283" s="17"/>
       <c r="J283" s="17"/>
@@ -9467,22 +9537,22 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="3" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E284" s="5"/>
       <c r="F284" s="6">
-        <v>7523</v>
+        <v>1428282</v>
       </c>
       <c r="G284" s="6"/>
       <c r="H284" s="16">
-        <v>1482974</v>
+        <v>790039</v>
       </c>
       <c r="I284" s="17"/>
       <c r="J284" s="17"/>
@@ -9490,11 +9560,11 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>11</v>
@@ -9502,10 +9572,10 @@
       <c r="E285" s="5"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6">
-        <v>70500</v>
+        <v>80649</v>
       </c>
       <c r="H285" s="16">
-        <v>1490497</v>
+        <v>2218321</v>
       </c>
       <c r="I285" s="17"/>
       <c r="J285" s="17"/>
@@ -9513,11 +9583,11 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>11</v>
@@ -9525,10 +9595,10 @@
       <c r="E286" s="5"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6">
-        <v>76468</v>
+        <v>45000</v>
       </c>
       <c r="H286" s="16">
-        <v>1419997</v>
+        <v>2137672</v>
       </c>
       <c r="I286" s="17"/>
       <c r="J286" s="17"/>
@@ -9536,22 +9606,22 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="3" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E287" s="5"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6">
-        <v>180424</v>
+        <v>63353</v>
       </c>
       <c r="H287" s="16">
-        <v>1343529</v>
+        <v>2092672</v>
       </c>
       <c r="I287" s="17"/>
       <c r="J287" s="17"/>
@@ -9559,22 +9629,22 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="3" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E288" s="5"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6">
-        <v>32650</v>
+        <v>1874250</v>
       </c>
       <c r="H288" s="16">
-        <v>1163105</v>
+        <v>2029319</v>
       </c>
       <c r="I288" s="17"/>
       <c r="J288" s="17"/>
@@ -9582,22 +9652,22 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="3" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E289" s="5"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6">
-        <v>85497</v>
+        <v>64919</v>
       </c>
       <c r="H289" s="16">
-        <v>1130455</v>
+        <v>155069</v>
       </c>
       <c r="I289" s="17"/>
       <c r="J289" s="17"/>
@@ -9605,34 +9675,34 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="3" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6">
-        <v>683280</v>
+        <v>78970</v>
       </c>
       <c r="H290" s="16">
-        <v>1044958</v>
+        <v>90150</v>
       </c>
       <c r="I290" s="17"/>
       <c r="J290" s="17"/>
       <c r="K290" s="18"/>
     </row>
-    <row r="291" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>11</v>
@@ -9640,10 +9710,10 @@
       <c r="E291" s="5"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6">
-        <v>85737</v>
+        <v>22950</v>
       </c>
       <c r="H291" s="16">
-        <v>361678</v>
+        <v>11180</v>
       </c>
       <c r="I291" s="17"/>
       <c r="J291" s="17"/>
@@ -9651,22 +9721,22 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E292" s="5"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="6">
-        <v>68961</v>
-      </c>
+      <c r="F292" s="6">
+        <v>160000</v>
+      </c>
+      <c r="G292" s="6"/>
       <c r="H292" s="16">
-        <v>275941</v>
+        <v>-11770</v>
       </c>
       <c r="I292" s="17"/>
       <c r="J292" s="17"/>
@@ -9674,11 +9744,11 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>11</v>
@@ -9686,10 +9756,10 @@
       <c r="E293" s="5"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6">
-        <v>16980</v>
+        <v>114240</v>
       </c>
       <c r="H293" s="16">
-        <v>206980</v>
+        <v>148230</v>
       </c>
       <c r="I293" s="17"/>
       <c r="J293" s="17"/>
@@ -9697,11 +9767,11 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="3" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>11</v>
@@ -9709,10 +9779,10 @@
       <c r="E294" s="5"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6">
-        <v>190000</v>
+        <v>33990</v>
       </c>
       <c r="H294" s="16">
-        <v>190000</v>
+        <v>33990</v>
       </c>
       <c r="I294" s="17"/>
       <c r="J294" s="17"/>
@@ -9720,20 +9790,20 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="3" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E295" s="5"/>
-      <c r="F295" s="6">
-        <v>1189250</v>
-      </c>
-      <c r="G295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6">
+        <v>1428282</v>
+      </c>
       <c r="H295" s="16">
         <v>0</v>
       </c>
@@ -9741,24 +9811,24 @@
       <c r="J295" s="17"/>
       <c r="K295" s="18"/>
     </row>
-    <row r="296" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="3" t="s">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6">
-        <v>271356</v>
+        <v>39979</v>
       </c>
       <c r="H296" s="16">
-        <v>1189250</v>
+        <v>-1428282</v>
       </c>
       <c r="I296" s="17"/>
       <c r="J296" s="17"/>
@@ -9766,22 +9836,22 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="3" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E297" s="5"/>
-      <c r="F297" s="6"/>
-      <c r="G297" s="6">
-        <v>39971</v>
-      </c>
+      <c r="F297" s="6">
+        <v>2900037</v>
+      </c>
+      <c r="G297" s="6"/>
       <c r="H297" s="16">
-        <v>917894</v>
+        <v>-1468261</v>
       </c>
       <c r="I297" s="17"/>
       <c r="J297" s="17"/>
@@ -9789,22 +9859,22 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="3" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E298" s="5"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6">
-        <v>309552</v>
+        <v>49569</v>
       </c>
       <c r="H298" s="16">
-        <v>877923</v>
+        <v>1431776</v>
       </c>
       <c r="I298" s="17"/>
       <c r="J298" s="17"/>
@@ -9812,22 +9882,22 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="3" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E299" s="5"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6">
-        <v>84151</v>
+        <v>51148</v>
       </c>
       <c r="H299" s="16">
-        <v>568371</v>
+        <v>1382207</v>
       </c>
       <c r="I299" s="17"/>
       <c r="J299" s="17"/>
@@ -9835,11 +9905,11 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>11</v>
@@ -9847,22 +9917,22 @@
       <c r="E300" s="5"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6">
-        <v>39466</v>
+        <v>32809</v>
       </c>
       <c r="H300" s="16">
-        <v>484220</v>
+        <v>1331059</v>
       </c>
       <c r="I300" s="17"/>
       <c r="J300" s="17"/>
       <c r="K300" s="18"/>
     </row>
-    <row r="301" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>11</v>
@@ -9870,10 +9940,10 @@
       <c r="E301" s="5"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6">
-        <v>395544</v>
+        <v>24139</v>
       </c>
       <c r="H301" s="16">
-        <v>444754</v>
+        <v>1298250</v>
       </c>
       <c r="I301" s="17"/>
       <c r="J301" s="17"/>
@@ -9881,50 +9951,785 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="19" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="3" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E302" s="5"/>
-      <c r="F302" s="6"/>
-      <c r="G302" s="6">
-        <v>49210</v>
-      </c>
+      <c r="F302" s="6">
+        <v>90000</v>
+      </c>
+      <c r="G302" s="6"/>
       <c r="H302" s="16">
-        <v>49210</v>
+        <v>1274111</v>
       </c>
       <c r="I302" s="17"/>
       <c r="J302" s="17"/>
       <c r="K302" s="18"/>
     </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" s="5"/>
+      <c r="F303" s="6">
+        <v>95000</v>
+      </c>
+      <c r="G303" s="6"/>
+      <c r="H303" s="16">
+        <v>1364111</v>
+      </c>
+      <c r="I303" s="17"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="18"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" s="5"/>
+      <c r="F304" s="6">
+        <v>700000</v>
+      </c>
+      <c r="G304" s="6"/>
+      <c r="H304" s="16">
+        <v>1459111</v>
+      </c>
+      <c r="I304" s="17"/>
+      <c r="J304" s="17"/>
+      <c r="K304" s="18"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E305" s="5"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6">
+        <v>1581341</v>
+      </c>
+      <c r="H305" s="16">
+        <v>2159111</v>
+      </c>
+      <c r="I305" s="17"/>
+      <c r="J305" s="17"/>
+      <c r="K305" s="18"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" s="5"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6">
+        <v>49571</v>
+      </c>
+      <c r="H306" s="16">
+        <v>577770</v>
+      </c>
+      <c r="I306" s="17"/>
+      <c r="J306" s="17"/>
+      <c r="K306" s="18"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="5"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6">
+        <v>23002</v>
+      </c>
+      <c r="H307" s="16">
+        <v>528199</v>
+      </c>
+      <c r="I307" s="17"/>
+      <c r="J307" s="17"/>
+      <c r="K307" s="18"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B308" s="20"/>
+      <c r="C308" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" s="5"/>
+      <c r="F308" s="6">
+        <v>1089283</v>
+      </c>
+      <c r="G308" s="6"/>
+      <c r="H308" s="16">
+        <v>505197</v>
+      </c>
+      <c r="I308" s="17"/>
+      <c r="J308" s="17"/>
+      <c r="K308" s="18"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B309" s="20"/>
+      <c r="C309" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" s="5"/>
+      <c r="F309" s="6">
+        <v>11880</v>
+      </c>
+      <c r="G309" s="6"/>
+      <c r="H309" s="16">
+        <v>1594480</v>
+      </c>
+      <c r="I309" s="17"/>
+      <c r="J309" s="17"/>
+      <c r="K309" s="18"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" s="5"/>
+      <c r="F310" s="6">
+        <v>831</v>
+      </c>
+      <c r="G310" s="6"/>
+      <c r="H310" s="16">
+        <v>1606360</v>
+      </c>
+      <c r="I310" s="17"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="18"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B311" s="20"/>
+      <c r="C311" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E311" s="5"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6">
+        <v>67964</v>
+      </c>
+      <c r="H311" s="16">
+        <v>1607191</v>
+      </c>
+      <c r="I311" s="17"/>
+      <c r="J311" s="17"/>
+      <c r="K311" s="18"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B312" s="20"/>
+      <c r="C312" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="5"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6">
+        <v>69711</v>
+      </c>
+      <c r="H312" s="16">
+        <v>1539227</v>
+      </c>
+      <c r="I312" s="17"/>
+      <c r="J312" s="17"/>
+      <c r="K312" s="18"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B313" s="20"/>
+      <c r="C313" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E313" s="5"/>
+      <c r="F313" s="6">
+        <v>13458</v>
+      </c>
+      <c r="G313" s="6"/>
+      <c r="H313" s="16">
+        <v>1469516</v>
+      </c>
+      <c r="I313" s="17"/>
+      <c r="J313" s="17"/>
+      <c r="K313" s="18"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B314" s="20"/>
+      <c r="C314" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E314" s="5"/>
+      <c r="F314" s="6">
+        <v>7523</v>
+      </c>
+      <c r="G314" s="6"/>
+      <c r="H314" s="16">
+        <v>1482974</v>
+      </c>
+      <c r="I314" s="17"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="18"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B315" s="20"/>
+      <c r="C315" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315" s="5"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6">
+        <v>70500</v>
+      </c>
+      <c r="H315" s="16">
+        <v>1490497</v>
+      </c>
+      <c r="I315" s="17"/>
+      <c r="J315" s="17"/>
+      <c r="K315" s="18"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B316" s="20"/>
+      <c r="C316" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316" s="5"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6">
+        <v>76468</v>
+      </c>
+      <c r="H316" s="16">
+        <v>1419997</v>
+      </c>
+      <c r="I316" s="17"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="18"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B317" s="20"/>
+      <c r="C317" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317" s="5"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6">
+        <v>180424</v>
+      </c>
+      <c r="H317" s="16">
+        <v>1343529</v>
+      </c>
+      <c r="I317" s="17"/>
+      <c r="J317" s="17"/>
+      <c r="K317" s="18"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B318" s="20"/>
+      <c r="C318" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E318" s="5"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6">
+        <v>32650</v>
+      </c>
+      <c r="H318" s="16">
+        <v>1163105</v>
+      </c>
+      <c r="I318" s="17"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="18"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B319" s="20"/>
+      <c r="C319" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E319" s="5"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6">
+        <v>85497</v>
+      </c>
+      <c r="H319" s="16">
+        <v>1130455</v>
+      </c>
+      <c r="I319" s="17"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="18"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B320" s="20"/>
+      <c r="C320" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320" s="5"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6">
+        <v>683280</v>
+      </c>
+      <c r="H320" s="16">
+        <v>1044958</v>
+      </c>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="18"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" s="5"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6">
+        <v>85737</v>
+      </c>
+      <c r="H321" s="16">
+        <v>361678</v>
+      </c>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="18"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" s="5"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6">
+        <v>68961</v>
+      </c>
+      <c r="H322" s="16">
+        <v>275941</v>
+      </c>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="18"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" s="5"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6">
+        <v>16980</v>
+      </c>
+      <c r="H323" s="16">
+        <v>206980</v>
+      </c>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="18"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" s="5"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6">
+        <v>190000</v>
+      </c>
+      <c r="H324" s="16">
+        <v>190000</v>
+      </c>
+      <c r="I324" s="17"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="18"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" s="5"/>
+      <c r="F325" s="6">
+        <v>1189250</v>
+      </c>
+      <c r="G325" s="6"/>
+      <c r="H325" s="16">
+        <v>0</v>
+      </c>
+      <c r="I325" s="17"/>
+      <c r="J325" s="17"/>
+      <c r="K325" s="18"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" s="5"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6">
+        <v>271356</v>
+      </c>
+      <c r="H326" s="16">
+        <v>1189250</v>
+      </c>
+      <c r="I326" s="17"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="18"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327" s="5"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6">
+        <v>39971</v>
+      </c>
+      <c r="H327" s="16">
+        <v>917894</v>
+      </c>
+      <c r="I327" s="17"/>
+      <c r="J327" s="17"/>
+      <c r="K327" s="18"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E328" s="5"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6">
+        <v>309552</v>
+      </c>
+      <c r="H328" s="16">
+        <v>877923</v>
+      </c>
+      <c r="I328" s="17"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="18"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" s="5"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6">
+        <v>84151</v>
+      </c>
+      <c r="H329" s="16">
+        <v>568371</v>
+      </c>
+      <c r="I329" s="17"/>
+      <c r="J329" s="17"/>
+      <c r="K329" s="18"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330" s="5"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6">
+        <v>39466</v>
+      </c>
+      <c r="H330" s="16">
+        <v>484220</v>
+      </c>
+      <c r="I330" s="17"/>
+      <c r="J330" s="17"/>
+      <c r="K330" s="18"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331" s="5"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6">
+        <v>395544</v>
+      </c>
+      <c r="H331" s="16">
+        <v>444754</v>
+      </c>
+      <c r="I331" s="17"/>
+      <c r="J331" s="17"/>
+      <c r="K331" s="18"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E332" s="5"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6">
+        <v>49210</v>
+      </c>
+      <c r="H332" s="16">
+        <v>49210</v>
+      </c>
+      <c r="I332" s="17"/>
+      <c r="J332" s="17"/>
+      <c r="K332" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L302" xr:uid="{31A3EDA2-BB1F-4DFF-9F34-B004576D5196}">
-    <filterColumn colId="0" showButton="0">
-      <filters>
-        <filter val="01/07/2025"/>
-        <filter val="02/07/2025"/>
-        <filter val="03/07/2025"/>
-        <filter val="04/07/2025"/>
-        <filter val="07/07/2025"/>
-        <filter val="08/07/2025"/>
-        <filter val="09/07/2025"/>
-        <filter val="10/07/2025"/>
-        <filter val="11/07/2025"/>
-        <filter val="14/07/2025"/>
-        <filter val="15/07/2025"/>
-        <filter val="17/07/2025"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:L186" xr:uid="{31A3EDA2-BB1F-4DFF-9F34-B004576D5196}">
+    <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
-  <mergeCells count="605">
+  <mergeCells count="665">
+    <mergeCell ref="H325:K325"/>
+    <mergeCell ref="H326:K326"/>
+    <mergeCell ref="H327:K327"/>
+    <mergeCell ref="H328:K328"/>
+    <mergeCell ref="H329:K329"/>
+    <mergeCell ref="H330:K330"/>
+    <mergeCell ref="H331:K331"/>
+    <mergeCell ref="H332:K332"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="H304:K304"/>
+    <mergeCell ref="H305:K305"/>
+    <mergeCell ref="H306:K306"/>
+    <mergeCell ref="H307:K307"/>
+    <mergeCell ref="H308:K308"/>
+    <mergeCell ref="H309:K309"/>
+    <mergeCell ref="H310:K310"/>
+    <mergeCell ref="H311:K311"/>
+    <mergeCell ref="H312:K312"/>
+    <mergeCell ref="H313:K313"/>
+    <mergeCell ref="H314:K314"/>
+    <mergeCell ref="H315:K315"/>
+    <mergeCell ref="H316:K316"/>
+    <mergeCell ref="H317:K317"/>
+    <mergeCell ref="H318:K318"/>
+    <mergeCell ref="H319:K319"/>
+    <mergeCell ref="H320:K320"/>
+    <mergeCell ref="H321:K321"/>
+    <mergeCell ref="H322:K322"/>
+    <mergeCell ref="H323:K323"/>
+    <mergeCell ref="H324:K324"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:B306"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="A5:B5"/>

--- a/cartola_junio_2025.xlsx
+++ b/cartola_junio_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manager8\comunes\importacion\api_cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17031E1F-E1BC-4E8B-B05B-59CCF56A040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87567C0-D2C2-4861-AC6E-1450182D91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0B3DEB9-4C62-4D57-84BC-B1B8A40A9B47}"/>
   </bookViews>
@@ -1796,10 +1796,10 @@
   <dimension ref="A1:N332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C187" sqref="C187"/>
+      <selection pane="bottomRight" activeCell="H183" sqref="H183:K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cartola_junio_2025.xlsx
+++ b/cartola_junio_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manager8\comunes\importacion\api_cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87567C0-D2C2-4861-AC6E-1450182D91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF09CF-26D6-4A2D-AAD5-908A1B60BC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0B3DEB9-4C62-4D57-84BC-B1B8A40A9B47}"/>
   </bookViews>
@@ -1193,12 +1193,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,6 +1200,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1799,7 +1799,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H183" sqref="H183:K183"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,10 +2449,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2468,17 +2468,17 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -10670,415 +10670,238 @@
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="665">
-    <mergeCell ref="H325:K325"/>
-    <mergeCell ref="H326:K326"/>
-    <mergeCell ref="H327:K327"/>
-    <mergeCell ref="H328:K328"/>
-    <mergeCell ref="H329:K329"/>
-    <mergeCell ref="H330:K330"/>
-    <mergeCell ref="H331:K331"/>
-    <mergeCell ref="H332:K332"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="H303:K303"/>
-    <mergeCell ref="H304:K304"/>
-    <mergeCell ref="H305:K305"/>
-    <mergeCell ref="H306:K306"/>
-    <mergeCell ref="H307:K307"/>
-    <mergeCell ref="H308:K308"/>
-    <mergeCell ref="H309:K309"/>
-    <mergeCell ref="H310:K310"/>
-    <mergeCell ref="H311:K311"/>
-    <mergeCell ref="H312:K312"/>
-    <mergeCell ref="H313:K313"/>
-    <mergeCell ref="H314:K314"/>
-    <mergeCell ref="H315:K315"/>
-    <mergeCell ref="H316:K316"/>
-    <mergeCell ref="H317:K317"/>
-    <mergeCell ref="H318:K318"/>
-    <mergeCell ref="H319:K319"/>
-    <mergeCell ref="H320:K320"/>
-    <mergeCell ref="H321:K321"/>
-    <mergeCell ref="H322:K322"/>
-    <mergeCell ref="H323:K323"/>
-    <mergeCell ref="H324:K324"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A329:B329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="H131:K131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="H128:K128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="H149:K149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H150:K150"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="H151:K151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="H152:K152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="H160:K160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="H161:K161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="H162:K162"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="H158:K158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="H159:K159"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="H166:K166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="H167:K167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="H163:K163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="H164:K164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="H165:K165"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="H174:K174"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="H170:K170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="H301:K301"/>
+    <mergeCell ref="H302:K302"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="H187:K187"/>
+    <mergeCell ref="H188:K188"/>
+    <mergeCell ref="H189:K189"/>
+    <mergeCell ref="H190:K190"/>
+    <mergeCell ref="H191:K191"/>
+    <mergeCell ref="H192:K192"/>
+    <mergeCell ref="H193:K193"/>
+    <mergeCell ref="H194:K194"/>
+    <mergeCell ref="H195:K195"/>
+    <mergeCell ref="H196:K196"/>
+    <mergeCell ref="H197:K197"/>
+    <mergeCell ref="H198:K198"/>
+    <mergeCell ref="H199:K199"/>
+    <mergeCell ref="H200:K200"/>
+    <mergeCell ref="H201:K201"/>
+    <mergeCell ref="H202:K202"/>
+    <mergeCell ref="H203:K203"/>
+    <mergeCell ref="H204:K204"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="H298:K298"/>
+    <mergeCell ref="H299:K299"/>
+    <mergeCell ref="H300:K300"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="H295:K295"/>
+    <mergeCell ref="H296:K296"/>
+    <mergeCell ref="H297:K297"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="H292:K292"/>
+    <mergeCell ref="H293:K293"/>
+    <mergeCell ref="H294:K294"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="H289:K289"/>
+    <mergeCell ref="H290:K290"/>
+    <mergeCell ref="H291:K291"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="H287:K287"/>
+    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="H280:K280"/>
+    <mergeCell ref="H281:K281"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="H277:K277"/>
+    <mergeCell ref="H278:K278"/>
+    <mergeCell ref="H279:K279"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="H274:K274"/>
+    <mergeCell ref="H275:K275"/>
+    <mergeCell ref="H276:K276"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="H271:K271"/>
+    <mergeCell ref="H272:K272"/>
+    <mergeCell ref="H273:K273"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="H268:K268"/>
+    <mergeCell ref="H269:K269"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="H265:K265"/>
+    <mergeCell ref="H266:K266"/>
+    <mergeCell ref="H267:K267"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="H262:K262"/>
+    <mergeCell ref="H263:K263"/>
+    <mergeCell ref="H264:K264"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="H259:K259"/>
+    <mergeCell ref="H260:K260"/>
+    <mergeCell ref="H261:K261"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="H256:K256"/>
+    <mergeCell ref="H257:K257"/>
+    <mergeCell ref="H258:K258"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="H253:K253"/>
+    <mergeCell ref="H254:K254"/>
+    <mergeCell ref="H255:K255"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="H250:K250"/>
+    <mergeCell ref="H251:K251"/>
+    <mergeCell ref="H252:K252"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="H247:K247"/>
+    <mergeCell ref="H248:K248"/>
+    <mergeCell ref="H249:K249"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="H244:K244"/>
+    <mergeCell ref="H245:K245"/>
+    <mergeCell ref="H246:K246"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="H241:K241"/>
+    <mergeCell ref="H242:K242"/>
+    <mergeCell ref="H243:K243"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="H238:K238"/>
+    <mergeCell ref="H239:K239"/>
+    <mergeCell ref="H240:K240"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="H235:K235"/>
+    <mergeCell ref="H236:K236"/>
+    <mergeCell ref="H237:K237"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="H232:K232"/>
+    <mergeCell ref="H233:K233"/>
+    <mergeCell ref="H234:K234"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="H229:K229"/>
+    <mergeCell ref="H230:K230"/>
+    <mergeCell ref="H231:K231"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="H226:K226"/>
+    <mergeCell ref="H227:K227"/>
+    <mergeCell ref="H228:K228"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="H223:K223"/>
+    <mergeCell ref="H224:K224"/>
+    <mergeCell ref="H225:K225"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="H220:K220"/>
+    <mergeCell ref="H221:K221"/>
+    <mergeCell ref="H222:K222"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="H217:K217"/>
+    <mergeCell ref="H218:K218"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="H214:K214"/>
+    <mergeCell ref="H215:K215"/>
+    <mergeCell ref="H216:K216"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="H211:K211"/>
+    <mergeCell ref="H212:K212"/>
+    <mergeCell ref="H213:K213"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H207:K207"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="A184:B184"/>
     <mergeCell ref="H184:K184"/>
@@ -11103,238 +10926,415 @@
     <mergeCell ref="A176:B176"/>
     <mergeCell ref="H176:K176"/>
     <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="H208:K208"/>
-    <mergeCell ref="H209:K209"/>
-    <mergeCell ref="H210:K210"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H207:K207"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="H214:K214"/>
-    <mergeCell ref="H215:K215"/>
-    <mergeCell ref="H216:K216"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="H211:K211"/>
-    <mergeCell ref="H212:K212"/>
-    <mergeCell ref="H213:K213"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="H220:K220"/>
-    <mergeCell ref="H221:K221"/>
-    <mergeCell ref="H222:K222"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="H217:K217"/>
-    <mergeCell ref="H218:K218"/>
-    <mergeCell ref="H219:K219"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="H226:K226"/>
-    <mergeCell ref="H227:K227"/>
-    <mergeCell ref="H228:K228"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="H223:K223"/>
-    <mergeCell ref="H224:K224"/>
-    <mergeCell ref="H225:K225"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="H232:K232"/>
-    <mergeCell ref="H233:K233"/>
-    <mergeCell ref="H234:K234"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="H229:K229"/>
-    <mergeCell ref="H230:K230"/>
-    <mergeCell ref="H231:K231"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="H238:K238"/>
-    <mergeCell ref="H239:K239"/>
-    <mergeCell ref="H240:K240"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="H235:K235"/>
-    <mergeCell ref="H236:K236"/>
-    <mergeCell ref="H237:K237"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="H244:K244"/>
-    <mergeCell ref="H245:K245"/>
-    <mergeCell ref="H246:K246"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="H241:K241"/>
-    <mergeCell ref="H242:K242"/>
-    <mergeCell ref="H243:K243"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="H250:K250"/>
-    <mergeCell ref="H251:K251"/>
-    <mergeCell ref="H252:K252"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="H247:K247"/>
-    <mergeCell ref="H248:K248"/>
-    <mergeCell ref="H249:K249"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="H256:K256"/>
-    <mergeCell ref="H257:K257"/>
-    <mergeCell ref="H258:K258"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="H253:K253"/>
-    <mergeCell ref="H254:K254"/>
-    <mergeCell ref="H255:K255"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="H262:K262"/>
-    <mergeCell ref="H263:K263"/>
-    <mergeCell ref="H264:K264"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="H259:K259"/>
-    <mergeCell ref="H260:K260"/>
-    <mergeCell ref="H261:K261"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="H268:K268"/>
-    <mergeCell ref="H269:K269"/>
-    <mergeCell ref="H270:K270"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="H265:K265"/>
-    <mergeCell ref="H266:K266"/>
-    <mergeCell ref="H267:K267"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="H274:K274"/>
-    <mergeCell ref="H275:K275"/>
-    <mergeCell ref="H276:K276"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="H271:K271"/>
-    <mergeCell ref="H272:K272"/>
-    <mergeCell ref="H273:K273"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="H280:K280"/>
-    <mergeCell ref="H281:K281"/>
-    <mergeCell ref="H282:K282"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="H277:K277"/>
-    <mergeCell ref="H278:K278"/>
-    <mergeCell ref="H279:K279"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="H287:K287"/>
-    <mergeCell ref="H288:K288"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H285:K285"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="H292:K292"/>
-    <mergeCell ref="H293:K293"/>
-    <mergeCell ref="H294:K294"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="H289:K289"/>
-    <mergeCell ref="H290:K290"/>
-    <mergeCell ref="H291:K291"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="H298:K298"/>
-    <mergeCell ref="H299:K299"/>
-    <mergeCell ref="H300:K300"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="H295:K295"/>
-    <mergeCell ref="H296:K296"/>
-    <mergeCell ref="H297:K297"/>
-    <mergeCell ref="H301:K301"/>
-    <mergeCell ref="H302:K302"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="H187:K187"/>
-    <mergeCell ref="H188:K188"/>
-    <mergeCell ref="H189:K189"/>
-    <mergeCell ref="H190:K190"/>
-    <mergeCell ref="H191:K191"/>
-    <mergeCell ref="H192:K192"/>
-    <mergeCell ref="H193:K193"/>
-    <mergeCell ref="H194:K194"/>
-    <mergeCell ref="H195:K195"/>
-    <mergeCell ref="H196:K196"/>
-    <mergeCell ref="H197:K197"/>
-    <mergeCell ref="H198:K198"/>
-    <mergeCell ref="H199:K199"/>
-    <mergeCell ref="H200:K200"/>
-    <mergeCell ref="H201:K201"/>
-    <mergeCell ref="H202:K202"/>
-    <mergeCell ref="H203:K203"/>
-    <mergeCell ref="H204:K204"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="H174:K174"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="H170:K170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="H166:K166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="H167:K167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="H163:K163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="H165:K165"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="H160:K160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="H161:K161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="H162:K162"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="H159:K159"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="H321:K321"/>
+    <mergeCell ref="H322:K322"/>
+    <mergeCell ref="H323:K323"/>
+    <mergeCell ref="H324:K324"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="H312:K312"/>
+    <mergeCell ref="H313:K313"/>
+    <mergeCell ref="H314:K314"/>
+    <mergeCell ref="H315:K315"/>
+    <mergeCell ref="H316:K316"/>
+    <mergeCell ref="H317:K317"/>
+    <mergeCell ref="H318:K318"/>
+    <mergeCell ref="H319:K319"/>
+    <mergeCell ref="H320:K320"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="H304:K304"/>
+    <mergeCell ref="H305:K305"/>
+    <mergeCell ref="H306:K306"/>
+    <mergeCell ref="H307:K307"/>
+    <mergeCell ref="H308:K308"/>
+    <mergeCell ref="H309:K309"/>
+    <mergeCell ref="H310:K310"/>
+    <mergeCell ref="H311:K311"/>
+    <mergeCell ref="H325:K325"/>
+    <mergeCell ref="H326:K326"/>
+    <mergeCell ref="H327:K327"/>
+    <mergeCell ref="H328:K328"/>
+    <mergeCell ref="H329:K329"/>
+    <mergeCell ref="H330:K330"/>
+    <mergeCell ref="H331:K331"/>
+    <mergeCell ref="H332:K332"/>
+    <mergeCell ref="A332:B332"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cartola_junio_2025.xlsx
+++ b/cartola_junio_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manager8\comunes\importacion\api_cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF09CF-26D6-4A2D-AAD5-908A1B60BC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB220D-1391-4908-886B-655651C8B8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0B3DEB9-4C62-4D57-84BC-B1B8A40A9B47}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="303">
   <si>
     <t>Fecha</t>
   </si>
@@ -1193,6 +1193,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,12 +1206,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1796,10 +1796,10 @@
   <dimension ref="A1:N332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomRight" activeCell="L186" sqref="L186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,10 +2449,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2468,17 +2468,17 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -7296,9 +7296,6 @@
       <c r="I186" s="17"/>
       <c r="J186" s="17"/>
       <c r="K186" s="18"/>
-      <c r="L186" s="15" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="19" t="s">
@@ -10670,6 +10667,647 @@
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="665">
+    <mergeCell ref="H332:K332"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="H304:K304"/>
+    <mergeCell ref="H305:K305"/>
+    <mergeCell ref="H306:K306"/>
+    <mergeCell ref="H307:K307"/>
+    <mergeCell ref="H308:K308"/>
+    <mergeCell ref="H309:K309"/>
+    <mergeCell ref="H310:K310"/>
+    <mergeCell ref="H311:K311"/>
+    <mergeCell ref="H312:K312"/>
+    <mergeCell ref="H313:K313"/>
+    <mergeCell ref="H314:K314"/>
+    <mergeCell ref="H315:K315"/>
+    <mergeCell ref="H316:K316"/>
+    <mergeCell ref="H317:K317"/>
+    <mergeCell ref="H318:K318"/>
+    <mergeCell ref="H319:K319"/>
+    <mergeCell ref="H320:K320"/>
+    <mergeCell ref="H321:K321"/>
+    <mergeCell ref="H322:K322"/>
+    <mergeCell ref="H323:K323"/>
+    <mergeCell ref="H324:K324"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="H325:K325"/>
+    <mergeCell ref="H326:K326"/>
+    <mergeCell ref="H327:K327"/>
+    <mergeCell ref="H328:K328"/>
+    <mergeCell ref="H329:K329"/>
+    <mergeCell ref="H330:K330"/>
+    <mergeCell ref="H331:K331"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="H160:K160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="H161:K161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="H162:K162"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="H159:K159"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="H166:K166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="H167:K167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="H163:K163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="H165:K165"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="H174:K174"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="H170:K170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="H184:K184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="H185:K185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="H186:K186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="H181:K181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="H182:K182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="H183:K183"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="H178:K178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="H179:K179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="H180:K180"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H207:K207"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="H214:K214"/>
+    <mergeCell ref="H215:K215"/>
+    <mergeCell ref="H216:K216"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="H211:K211"/>
+    <mergeCell ref="H212:K212"/>
+    <mergeCell ref="H213:K213"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="H220:K220"/>
+    <mergeCell ref="H221:K221"/>
+    <mergeCell ref="H222:K222"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="H217:K217"/>
+    <mergeCell ref="H218:K218"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="H226:K226"/>
+    <mergeCell ref="H227:K227"/>
+    <mergeCell ref="H228:K228"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="H223:K223"/>
+    <mergeCell ref="H224:K224"/>
+    <mergeCell ref="H225:K225"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="H232:K232"/>
+    <mergeCell ref="H233:K233"/>
+    <mergeCell ref="H234:K234"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="H229:K229"/>
+    <mergeCell ref="H230:K230"/>
+    <mergeCell ref="H231:K231"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="H238:K238"/>
+    <mergeCell ref="H239:K239"/>
+    <mergeCell ref="H240:K240"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="H235:K235"/>
+    <mergeCell ref="H236:K236"/>
+    <mergeCell ref="H237:K237"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="H244:K244"/>
+    <mergeCell ref="H245:K245"/>
+    <mergeCell ref="H246:K246"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="H241:K241"/>
+    <mergeCell ref="H242:K242"/>
+    <mergeCell ref="H243:K243"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="H250:K250"/>
+    <mergeCell ref="H251:K251"/>
+    <mergeCell ref="H252:K252"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="H247:K247"/>
+    <mergeCell ref="H248:K248"/>
+    <mergeCell ref="H249:K249"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="H256:K256"/>
+    <mergeCell ref="H257:K257"/>
+    <mergeCell ref="H258:K258"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="H253:K253"/>
+    <mergeCell ref="H254:K254"/>
+    <mergeCell ref="H255:K255"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="H262:K262"/>
+    <mergeCell ref="H263:K263"/>
+    <mergeCell ref="H264:K264"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="H259:K259"/>
+    <mergeCell ref="H260:K260"/>
+    <mergeCell ref="H261:K261"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="H268:K268"/>
+    <mergeCell ref="H269:K269"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="H265:K265"/>
+    <mergeCell ref="H266:K266"/>
+    <mergeCell ref="H267:K267"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="H274:K274"/>
+    <mergeCell ref="H275:K275"/>
+    <mergeCell ref="H276:K276"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="H271:K271"/>
+    <mergeCell ref="H272:K272"/>
+    <mergeCell ref="H273:K273"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="H280:K280"/>
+    <mergeCell ref="H281:K281"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="H277:K277"/>
+    <mergeCell ref="H278:K278"/>
+    <mergeCell ref="H279:K279"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="H287:K287"/>
+    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="H292:K292"/>
+    <mergeCell ref="H293:K293"/>
+    <mergeCell ref="H294:K294"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="H289:K289"/>
+    <mergeCell ref="H290:K290"/>
+    <mergeCell ref="H291:K291"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="H298:K298"/>
+    <mergeCell ref="H299:K299"/>
+    <mergeCell ref="H300:K300"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="H295:K295"/>
+    <mergeCell ref="H296:K296"/>
+    <mergeCell ref="H297:K297"/>
     <mergeCell ref="H301:K301"/>
     <mergeCell ref="H302:K302"/>
     <mergeCell ref="A301:B301"/>
@@ -10694,647 +11332,6 @@
     <mergeCell ref="H204:K204"/>
     <mergeCell ref="A298:B298"/>
     <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="H298:K298"/>
-    <mergeCell ref="H299:K299"/>
-    <mergeCell ref="H300:K300"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="H295:K295"/>
-    <mergeCell ref="H296:K296"/>
-    <mergeCell ref="H297:K297"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="H292:K292"/>
-    <mergeCell ref="H293:K293"/>
-    <mergeCell ref="H294:K294"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="H289:K289"/>
-    <mergeCell ref="H290:K290"/>
-    <mergeCell ref="H291:K291"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="H287:K287"/>
-    <mergeCell ref="H288:K288"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H285:K285"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="H280:K280"/>
-    <mergeCell ref="H281:K281"/>
-    <mergeCell ref="H282:K282"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="H277:K277"/>
-    <mergeCell ref="H278:K278"/>
-    <mergeCell ref="H279:K279"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="H274:K274"/>
-    <mergeCell ref="H275:K275"/>
-    <mergeCell ref="H276:K276"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="H271:K271"/>
-    <mergeCell ref="H272:K272"/>
-    <mergeCell ref="H273:K273"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="H268:K268"/>
-    <mergeCell ref="H269:K269"/>
-    <mergeCell ref="H270:K270"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="H265:K265"/>
-    <mergeCell ref="H266:K266"/>
-    <mergeCell ref="H267:K267"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="H262:K262"/>
-    <mergeCell ref="H263:K263"/>
-    <mergeCell ref="H264:K264"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="H259:K259"/>
-    <mergeCell ref="H260:K260"/>
-    <mergeCell ref="H261:K261"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="H256:K256"/>
-    <mergeCell ref="H257:K257"/>
-    <mergeCell ref="H258:K258"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="H253:K253"/>
-    <mergeCell ref="H254:K254"/>
-    <mergeCell ref="H255:K255"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="H250:K250"/>
-    <mergeCell ref="H251:K251"/>
-    <mergeCell ref="H252:K252"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="H247:K247"/>
-    <mergeCell ref="H248:K248"/>
-    <mergeCell ref="H249:K249"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="H244:K244"/>
-    <mergeCell ref="H245:K245"/>
-    <mergeCell ref="H246:K246"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="H241:K241"/>
-    <mergeCell ref="H242:K242"/>
-    <mergeCell ref="H243:K243"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="H238:K238"/>
-    <mergeCell ref="H239:K239"/>
-    <mergeCell ref="H240:K240"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="H235:K235"/>
-    <mergeCell ref="H236:K236"/>
-    <mergeCell ref="H237:K237"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="H232:K232"/>
-    <mergeCell ref="H233:K233"/>
-    <mergeCell ref="H234:K234"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="H229:K229"/>
-    <mergeCell ref="H230:K230"/>
-    <mergeCell ref="H231:K231"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="H226:K226"/>
-    <mergeCell ref="H227:K227"/>
-    <mergeCell ref="H228:K228"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="H223:K223"/>
-    <mergeCell ref="H224:K224"/>
-    <mergeCell ref="H225:K225"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="H220:K220"/>
-    <mergeCell ref="H221:K221"/>
-    <mergeCell ref="H222:K222"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="H217:K217"/>
-    <mergeCell ref="H218:K218"/>
-    <mergeCell ref="H219:K219"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="H214:K214"/>
-    <mergeCell ref="H215:K215"/>
-    <mergeCell ref="H216:K216"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="H211:K211"/>
-    <mergeCell ref="H212:K212"/>
-    <mergeCell ref="H213:K213"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="H208:K208"/>
-    <mergeCell ref="H209:K209"/>
-    <mergeCell ref="H210:K210"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H207:K207"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="H184:K184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="H185:K185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="H186:K186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="H181:K181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="H182:K182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="H183:K183"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="H178:K178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="H179:K179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="H180:K180"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="H174:K174"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="H170:K170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="H166:K166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="H167:K167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="H163:K163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="H164:K164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="H165:K165"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="H160:K160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="H161:K161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="H162:K162"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="H158:K158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="H159:K159"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="H151:K151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="H152:K152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="H153:K153"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="H149:K149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H150:K150"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="H139:K139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H140:K140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="H131:K131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="H132:K132"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="H128:K128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="H129:K129"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="H121:K121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="H118:K118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="H116:K116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="H117:K117"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="H109:K109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="H110:K110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="H111:K111"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="H321:K321"/>
-    <mergeCell ref="H322:K322"/>
-    <mergeCell ref="H323:K323"/>
-    <mergeCell ref="H324:K324"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A329:B329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="H312:K312"/>
-    <mergeCell ref="H313:K313"/>
-    <mergeCell ref="H314:K314"/>
-    <mergeCell ref="H315:K315"/>
-    <mergeCell ref="H316:K316"/>
-    <mergeCell ref="H317:K317"/>
-    <mergeCell ref="H318:K318"/>
-    <mergeCell ref="H319:K319"/>
-    <mergeCell ref="H320:K320"/>
-    <mergeCell ref="H303:K303"/>
-    <mergeCell ref="H304:K304"/>
-    <mergeCell ref="H305:K305"/>
-    <mergeCell ref="H306:K306"/>
-    <mergeCell ref="H307:K307"/>
-    <mergeCell ref="H308:K308"/>
-    <mergeCell ref="H309:K309"/>
-    <mergeCell ref="H310:K310"/>
-    <mergeCell ref="H311:K311"/>
-    <mergeCell ref="H325:K325"/>
-    <mergeCell ref="H326:K326"/>
-    <mergeCell ref="H327:K327"/>
-    <mergeCell ref="H328:K328"/>
-    <mergeCell ref="H329:K329"/>
-    <mergeCell ref="H330:K330"/>
-    <mergeCell ref="H331:K331"/>
-    <mergeCell ref="H332:K332"/>
-    <mergeCell ref="A332:B332"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
